--- a/BackTest/2020-01-16 BackTest GNT.xlsx
+++ b/BackTest/2020-01-16 BackTest GNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,28 +433,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>34.52</v>
+        <v>34.44</v>
       </c>
       <c r="C2" t="n">
-        <v>34.67</v>
+        <v>34.53</v>
       </c>
       <c r="D2" t="n">
-        <v>34.67</v>
+        <v>34.53</v>
       </c>
       <c r="E2" t="n">
-        <v>34.52</v>
+        <v>34.44</v>
       </c>
       <c r="F2" t="n">
-        <v>13726</v>
+        <v>561.5267</v>
       </c>
       <c r="G2" t="n">
-        <v>32.97999999999999</v>
+        <v>32.94083333333332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.7</v>
+        <v>34.52</v>
       </c>
       <c r="C3" t="n">
-        <v>34.7</v>
+        <v>34.67</v>
       </c>
       <c r="D3" t="n">
-        <v>34.7</v>
+        <v>34.67</v>
       </c>
       <c r="E3" t="n">
-        <v>34.7</v>
+        <v>34.52</v>
       </c>
       <c r="F3" t="n">
-        <v>3701.6402</v>
+        <v>13726</v>
       </c>
       <c r="G3" t="n">
-        <v>33.01683333333332</v>
+        <v>32.97999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.34</v>
+        <v>34.7</v>
       </c>
       <c r="C4" t="n">
-        <v>34.34</v>
+        <v>34.7</v>
       </c>
       <c r="D4" t="n">
-        <v>34.34</v>
+        <v>34.7</v>
       </c>
       <c r="E4" t="n">
-        <v>34.34</v>
+        <v>34.7</v>
       </c>
       <c r="F4" t="n">
-        <v>987.4121</v>
+        <v>3701.6402</v>
       </c>
       <c r="G4" t="n">
-        <v>33.05083333333332</v>
+        <v>33.01683333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,28 +538,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.25</v>
+        <v>34.34</v>
       </c>
       <c r="C5" t="n">
-        <v>34.2</v>
+        <v>34.34</v>
       </c>
       <c r="D5" t="n">
-        <v>34.25</v>
+        <v>34.34</v>
       </c>
       <c r="E5" t="n">
-        <v>34.2</v>
+        <v>34.34</v>
       </c>
       <c r="F5" t="n">
-        <v>2203.9658</v>
+        <v>987.4121</v>
       </c>
       <c r="G5" t="n">
-        <v>33.0825</v>
+        <v>33.05083333333332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -573,28 +573,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34.19</v>
+        <v>34.25</v>
       </c>
       <c r="C6" t="n">
-        <v>34.19</v>
+        <v>34.2</v>
       </c>
       <c r="D6" t="n">
-        <v>34.19</v>
+        <v>34.25</v>
       </c>
       <c r="E6" t="n">
-        <v>34.19</v>
+        <v>34.2</v>
       </c>
       <c r="F6" t="n">
-        <v>964.1469</v>
+        <v>2203.9658</v>
       </c>
       <c r="G6" t="n">
-        <v>33.11566666666666</v>
+        <v>33.0825</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34.16</v>
+        <v>34.19</v>
       </c>
       <c r="C7" t="n">
-        <v>34.16</v>
+        <v>34.19</v>
       </c>
       <c r="D7" t="n">
-        <v>34.16</v>
+        <v>34.19</v>
       </c>
       <c r="E7" t="n">
-        <v>34.16</v>
+        <v>34.19</v>
       </c>
       <c r="F7" t="n">
-        <v>3701.6402</v>
+        <v>964.1469</v>
       </c>
       <c r="G7" t="n">
-        <v>33.14866666666666</v>
+        <v>33.11566666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>34.16</v>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>34.16</v>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>34.16</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>34.16</v>
       </c>
       <c r="F8" t="n">
-        <v>63.7583</v>
+        <v>3701.6402</v>
       </c>
       <c r="G8" t="n">
-        <v>33.17899999999999</v>
+        <v>33.14866666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33.56</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>33.56</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>33.56</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
-        <v>33.56</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>1435.4015</v>
+        <v>63.7583</v>
       </c>
       <c r="G9" t="n">
-        <v>33.20649999999999</v>
+        <v>33.17899999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34</v>
+        <v>33.56</v>
       </c>
       <c r="C10" t="n">
-        <v>34.57</v>
+        <v>33.56</v>
       </c>
       <c r="D10" t="n">
-        <v>34.57</v>
+        <v>33.56</v>
       </c>
       <c r="E10" t="n">
-        <v>34</v>
+        <v>33.56</v>
       </c>
       <c r="F10" t="n">
-        <v>6340</v>
+        <v>1435.4015</v>
       </c>
       <c r="G10" t="n">
-        <v>33.25233333333333</v>
+        <v>33.20649999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34.21</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>34.21</v>
+        <v>34.57</v>
       </c>
       <c r="D11" t="n">
-        <v>34.21</v>
+        <v>34.57</v>
       </c>
       <c r="E11" t="n">
-        <v>34.21</v>
+        <v>34</v>
       </c>
       <c r="F11" t="n">
-        <v>790.7968</v>
+        <v>6340</v>
       </c>
       <c r="G11" t="n">
-        <v>33.29216666666666</v>
+        <v>33.25233333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>34.6</v>
+        <v>34.21</v>
       </c>
       <c r="C12" t="n">
-        <v>34.24</v>
+        <v>34.21</v>
       </c>
       <c r="D12" t="n">
-        <v>34.6</v>
+        <v>34.21</v>
       </c>
       <c r="E12" t="n">
-        <v>34.24</v>
+        <v>34.21</v>
       </c>
       <c r="F12" t="n">
-        <v>2286.2017</v>
+        <v>790.7968</v>
       </c>
       <c r="G12" t="n">
-        <v>33.3325</v>
+        <v>33.29216666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34.53</v>
+        <v>34.6</v>
       </c>
       <c r="C13" t="n">
-        <v>34.52</v>
+        <v>34.24</v>
       </c>
       <c r="D13" t="n">
-        <v>34.53</v>
+        <v>34.6</v>
       </c>
       <c r="E13" t="n">
-        <v>34.52</v>
+        <v>34.24</v>
       </c>
       <c r="F13" t="n">
-        <v>6955.5176</v>
+        <v>2286.2017</v>
       </c>
       <c r="G13" t="n">
-        <v>33.37116666666666</v>
+        <v>33.3325</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>34.52</v>
+        <v>34.53</v>
       </c>
       <c r="C14" t="n">
         <v>34.52</v>
       </c>
       <c r="D14" t="n">
-        <v>34.52</v>
+        <v>34.53</v>
       </c>
       <c r="E14" t="n">
         <v>34.52</v>
       </c>
       <c r="F14" t="n">
-        <v>2300.5116</v>
+        <v>6955.5176</v>
       </c>
       <c r="G14" t="n">
-        <v>33.40999999999999</v>
+        <v>33.37116666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,28 +888,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.45</v>
+        <v>34.52</v>
       </c>
       <c r="C15" t="n">
-        <v>34.45</v>
+        <v>34.52</v>
       </c>
       <c r="D15" t="n">
-        <v>34.45</v>
+        <v>34.52</v>
       </c>
       <c r="E15" t="n">
-        <v>34.45</v>
+        <v>34.52</v>
       </c>
       <c r="F15" t="n">
-        <v>4500</v>
+        <v>2300.5116</v>
       </c>
       <c r="G15" t="n">
-        <v>33.44766666666666</v>
+        <v>33.40999999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -935,10 +935,10 @@
         <v>34.45</v>
       </c>
       <c r="F16" t="n">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="G16" t="n">
-        <v>33.48633333333332</v>
+        <v>33.44766666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34.59</v>
+        <v>34.45</v>
       </c>
       <c r="C17" t="n">
-        <v>34.59</v>
+        <v>34.45</v>
       </c>
       <c r="D17" t="n">
-        <v>34.59</v>
+        <v>34.45</v>
       </c>
       <c r="E17" t="n">
-        <v>34.59</v>
+        <v>34.45</v>
       </c>
       <c r="F17" t="n">
-        <v>2140</v>
+        <v>500</v>
       </c>
       <c r="G17" t="n">
-        <v>33.52633333333332</v>
+        <v>33.48633333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34.6</v>
+        <v>34.59</v>
       </c>
       <c r="C18" t="n">
-        <v>34.6</v>
+        <v>34.59</v>
       </c>
       <c r="D18" t="n">
-        <v>34.6</v>
+        <v>34.59</v>
       </c>
       <c r="E18" t="n">
-        <v>34.6</v>
+        <v>34.59</v>
       </c>
       <c r="F18" t="n">
-        <v>89.59537572254335</v>
+        <v>2140</v>
       </c>
       <c r="G18" t="n">
-        <v>33.56466666666665</v>
+        <v>33.52633333333332</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C19" t="n">
         <v>34.6</v>
@@ -1037,13 +1037,13 @@
         <v>34.6</v>
       </c>
       <c r="E19" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F19" t="n">
-        <v>5399.1617</v>
+        <v>89.59537572254335</v>
       </c>
       <c r="G19" t="n">
-        <v>33.59949999999998</v>
+        <v>33.56466666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C20" t="n">
         <v>34.6</v>
@@ -1072,13 +1072,13 @@
         <v>34.6</v>
       </c>
       <c r="E20" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F20" t="n">
-        <v>1472.592024277457</v>
+        <v>5399.1617</v>
       </c>
       <c r="G20" t="n">
-        <v>33.63383333333332</v>
+        <v>33.59949999999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>34.32</v>
+        <v>34.6</v>
       </c>
       <c r="C21" t="n">
-        <v>34.32</v>
+        <v>34.6</v>
       </c>
       <c r="D21" t="n">
-        <v>34.32</v>
+        <v>34.6</v>
       </c>
       <c r="E21" t="n">
-        <v>34.32</v>
+        <v>34.6</v>
       </c>
       <c r="F21" t="n">
-        <v>1048.6122</v>
+        <v>1472.592024277457</v>
       </c>
       <c r="G21" t="n">
-        <v>33.66549999999999</v>
+        <v>33.63383333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>34.02</v>
+        <v>34.32</v>
       </c>
       <c r="C22" t="n">
-        <v>34.02</v>
+        <v>34.32</v>
       </c>
       <c r="D22" t="n">
-        <v>34.02</v>
+        <v>34.32</v>
       </c>
       <c r="E22" t="n">
-        <v>34.02</v>
+        <v>34.32</v>
       </c>
       <c r="F22" t="n">
-        <v>1226.2111</v>
+        <v>1048.6122</v>
       </c>
       <c r="G22" t="n">
-        <v>33.68699999999999</v>
+        <v>33.66549999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>34.01</v>
+        <v>34.02</v>
       </c>
       <c r="C23" t="n">
-        <v>34.01</v>
+        <v>34.02</v>
       </c>
       <c r="D23" t="n">
-        <v>34.01</v>
+        <v>34.02</v>
       </c>
       <c r="E23" t="n">
-        <v>34.01</v>
+        <v>34.02</v>
       </c>
       <c r="F23" t="n">
-        <v>552.1739</v>
+        <v>1226.2111</v>
       </c>
       <c r="G23" t="n">
-        <v>33.71683333333333</v>
+        <v>33.68699999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>33.71</v>
+        <v>34.01</v>
       </c>
       <c r="C24" t="n">
-        <v>33.71</v>
+        <v>34.01</v>
       </c>
       <c r="D24" t="n">
-        <v>33.71</v>
+        <v>34.01</v>
       </c>
       <c r="E24" t="n">
-        <v>33.71</v>
+        <v>34.01</v>
       </c>
       <c r="F24" t="n">
-        <v>699.862</v>
+        <v>552.1739</v>
       </c>
       <c r="G24" t="n">
-        <v>33.73833333333332</v>
+        <v>33.71683333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>33.72</v>
+        <v>33.71</v>
       </c>
       <c r="C25" t="n">
-        <v>33.95</v>
+        <v>33.71</v>
       </c>
       <c r="D25" t="n">
-        <v>33.95</v>
+        <v>33.71</v>
       </c>
       <c r="E25" t="n">
-        <v>33.72</v>
+        <v>33.71</v>
       </c>
       <c r="F25" t="n">
-        <v>2989.1303</v>
+        <v>699.862</v>
       </c>
       <c r="G25" t="n">
-        <v>33.75299999999999</v>
+        <v>33.73833333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>34</v>
+        <v>33.72</v>
       </c>
       <c r="C26" t="n">
-        <v>34</v>
+        <v>33.95</v>
       </c>
       <c r="D26" t="n">
-        <v>34</v>
+        <v>33.95</v>
       </c>
       <c r="E26" t="n">
-        <v>34</v>
+        <v>33.72</v>
       </c>
       <c r="F26" t="n">
-        <v>1684.6478</v>
+        <v>2989.1303</v>
       </c>
       <c r="G26" t="n">
-        <v>33.76999999999999</v>
+        <v>33.75299999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,31 +1308,35 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>34.01</v>
+        <v>34</v>
       </c>
       <c r="C27" t="n">
-        <v>34.01</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
-        <v>34.01</v>
+        <v>34</v>
       </c>
       <c r="E27" t="n">
-        <v>34.01</v>
+        <v>34</v>
       </c>
       <c r="F27" t="n">
-        <v>649.1304</v>
+        <v>1684.6478</v>
       </c>
       <c r="G27" t="n">
-        <v>33.78283333333333</v>
+        <v>33.76999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="K27" t="n">
+        <v>33.95</v>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
@@ -1343,32 +1347,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>34.1</v>
+        <v>34.01</v>
       </c>
       <c r="C28" t="n">
-        <v>34.1</v>
+        <v>34.01</v>
       </c>
       <c r="D28" t="n">
-        <v>34.1</v>
+        <v>34.01</v>
       </c>
       <c r="E28" t="n">
-        <v>34.1</v>
+        <v>34.01</v>
       </c>
       <c r="F28" t="n">
-        <v>1508.0117</v>
+        <v>649.1304</v>
       </c>
       <c r="G28" t="n">
-        <v>33.79633333333333</v>
+        <v>33.78283333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>34</v>
+      </c>
+      <c r="K28" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1390,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>34.03</v>
+        <v>34.1</v>
       </c>
       <c r="C29" t="n">
-        <v>34.03</v>
+        <v>34.1</v>
       </c>
       <c r="D29" t="n">
-        <v>34.03</v>
+        <v>34.1</v>
       </c>
       <c r="E29" t="n">
-        <v>34.03</v>
+        <v>34.1</v>
       </c>
       <c r="F29" t="n">
-        <v>303.1533</v>
+        <v>1508.0117</v>
       </c>
       <c r="G29" t="n">
-        <v>33.81183333333333</v>
+        <v>33.79633333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1414,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1431,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>34.1</v>
+        <v>34.03</v>
       </c>
       <c r="C30" t="n">
-        <v>34.1</v>
+        <v>34.03</v>
       </c>
       <c r="D30" t="n">
-        <v>34.1</v>
+        <v>34.03</v>
       </c>
       <c r="E30" t="n">
-        <v>34.1</v>
+        <v>34.03</v>
       </c>
       <c r="F30" t="n">
-        <v>1789.9999</v>
+        <v>303.1533</v>
       </c>
       <c r="G30" t="n">
-        <v>33.831</v>
+        <v>33.81183333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1466,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="C31" t="n">
         <v>34.1</v>
@@ -1457,13 +1475,13 @@
         <v>34.1</v>
       </c>
       <c r="E31" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="F31" t="n">
-        <v>3118.3355</v>
+        <v>1789.9999</v>
       </c>
       <c r="G31" t="n">
-        <v>33.849</v>
+        <v>33.831</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1501,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="C32" t="n">
         <v>34.1</v>
@@ -1492,13 +1510,13 @@
         <v>34.1</v>
       </c>
       <c r="E32" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="F32" t="n">
-        <v>881.6645</v>
+        <v>3118.3355</v>
       </c>
       <c r="G32" t="n">
-        <v>33.8755</v>
+        <v>33.849</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1536,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="C33" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="D33" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="E33" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="F33" t="n">
-        <v>724.814</v>
+        <v>881.6645</v>
       </c>
       <c r="G33" t="n">
-        <v>33.90049999999999</v>
+        <v>33.8755</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1574,19 @@
         <v>34</v>
       </c>
       <c r="C34" t="n">
-        <v>33.98</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
         <v>34</v>
       </c>
       <c r="E34" t="n">
-        <v>33.98</v>
+        <v>34</v>
       </c>
       <c r="F34" t="n">
-        <v>3594.6</v>
+        <v>724.814</v>
       </c>
       <c r="G34" t="n">
-        <v>33.92683333333333</v>
+        <v>33.90049999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,35 +1606,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>33.81</v>
+        <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>33.81</v>
+        <v>33.98</v>
       </c>
       <c r="D35" t="n">
-        <v>33.81</v>
+        <v>34</v>
       </c>
       <c r="E35" t="n">
-        <v>33.81</v>
+        <v>33.98</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>3594.6</v>
       </c>
       <c r="G35" t="n">
-        <v>33.95349999999999</v>
+        <v>33.92683333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>33.98</v>
-      </c>
-      <c r="K35" t="n">
-        <v>33.98</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1627,40 +1641,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>33.81</v>
       </c>
       <c r="C36" t="n">
-        <v>34.1</v>
+        <v>33.81</v>
       </c>
       <c r="D36" t="n">
-        <v>34.1</v>
+        <v>33.81</v>
       </c>
       <c r="E36" t="n">
-        <v>34</v>
+        <v>33.81</v>
       </c>
       <c r="F36" t="n">
-        <v>4000.3998</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>33.96866666666666</v>
+        <v>33.95349999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>33.81</v>
-      </c>
-      <c r="K36" t="n">
-        <v>33.98</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1670,40 +1676,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="C37" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="D37" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="E37" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="F37" t="n">
-        <v>2386.5563</v>
+        <v>4000.3998</v>
       </c>
       <c r="G37" t="n">
-        <v>33.98899999999999</v>
+        <v>33.96866666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>33.98</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1725,23 +1723,19 @@
         <v>34.2</v>
       </c>
       <c r="F38" t="n">
-        <v>7465.2395</v>
+        <v>2386.5563</v>
       </c>
       <c r="G38" t="n">
-        <v>34.01333333333331</v>
+        <v>33.98899999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
@@ -1755,37 +1749,29 @@
         <v>34.2</v>
       </c>
       <c r="C39" t="n">
-        <v>34.46</v>
+        <v>34.2</v>
       </c>
       <c r="D39" t="n">
-        <v>34.46</v>
+        <v>34.2</v>
       </c>
       <c r="E39" t="n">
         <v>34.2</v>
       </c>
       <c r="F39" t="n">
-        <v>19034.4849</v>
+        <v>7465.2395</v>
       </c>
       <c r="G39" t="n">
-        <v>34.03433333333331</v>
+        <v>34.01333333333331</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K39" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1795,22 +1781,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C40" t="n">
         <v>34.46</v>
       </c>
-      <c r="C40" t="n">
-        <v>34.7</v>
-      </c>
       <c r="D40" t="n">
-        <v>34.7</v>
+        <v>34.46</v>
       </c>
       <c r="E40" t="n">
-        <v>34.46</v>
+        <v>34.2</v>
       </c>
       <c r="F40" t="n">
-        <v>30287.2787</v>
+        <v>19034.4849</v>
       </c>
       <c r="G40" t="n">
-        <v>34.05933333333331</v>
+        <v>34.03433333333331</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1819,14 +1805,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1836,22 +1816,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>34.46</v>
+      </c>
+      <c r="C41" t="n">
         <v>34.7</v>
       </c>
-      <c r="C41" t="n">
-        <v>34.85</v>
-      </c>
       <c r="D41" t="n">
-        <v>34.85</v>
+        <v>34.7</v>
       </c>
       <c r="E41" t="n">
-        <v>34.7</v>
+        <v>34.46</v>
       </c>
       <c r="F41" t="n">
-        <v>5841.787</v>
+        <v>30287.2787</v>
       </c>
       <c r="G41" t="n">
-        <v>34.08599999999998</v>
+        <v>34.05933333333331</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1860,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1880,19 +1854,19 @@
         <v>34.7</v>
       </c>
       <c r="C42" t="n">
-        <v>34.7</v>
+        <v>34.85</v>
       </c>
       <c r="D42" t="n">
-        <v>34.7</v>
+        <v>34.85</v>
       </c>
       <c r="E42" t="n">
         <v>34.7</v>
       </c>
       <c r="F42" t="n">
-        <v>576.692</v>
+        <v>5841.787</v>
       </c>
       <c r="G42" t="n">
-        <v>34.11383333333331</v>
+        <v>34.08599999999998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1901,14 +1875,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1921,19 +1889,19 @@
         <v>34.7</v>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>34.7</v>
       </c>
       <c r="D43" t="n">
-        <v>35</v>
+        <v>34.7</v>
       </c>
       <c r="E43" t="n">
         <v>34.7</v>
       </c>
       <c r="F43" t="n">
-        <v>42592.4095</v>
+        <v>576.692</v>
       </c>
       <c r="G43" t="n">
-        <v>34.14133333333332</v>
+        <v>34.11383333333331</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1942,14 +1910,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1959,22 +1921,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>34.58</v>
+        <v>34.7</v>
       </c>
       <c r="C44" t="n">
-        <v>34.58</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>34.58</v>
+        <v>35</v>
       </c>
       <c r="E44" t="n">
-        <v>34.58</v>
+        <v>34.7</v>
       </c>
       <c r="F44" t="n">
-        <v>1245.9788</v>
+        <v>42592.4095</v>
       </c>
       <c r="G44" t="n">
-        <v>34.16183333333332</v>
+        <v>34.14133333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1983,14 +1945,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2000,22 +1956,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34.61</v>
+        <v>34.58</v>
       </c>
       <c r="C45" t="n">
-        <v>34.61</v>
+        <v>34.58</v>
       </c>
       <c r="D45" t="n">
-        <v>34.61</v>
+        <v>34.58</v>
       </c>
       <c r="E45" t="n">
-        <v>34.61</v>
+        <v>34.58</v>
       </c>
       <c r="F45" t="n">
-        <v>795.0821</v>
+        <v>1245.9788</v>
       </c>
       <c r="G45" t="n">
-        <v>34.18033333333332</v>
+        <v>34.16183333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2024,14 +1980,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2053,10 +2003,10 @@
         <v>34.61</v>
       </c>
       <c r="F46" t="n">
-        <v>1315.876</v>
+        <v>795.0821</v>
       </c>
       <c r="G46" t="n">
-        <v>34.19883333333333</v>
+        <v>34.18033333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2065,14 +2015,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2085,19 +2029,19 @@
         <v>34.61</v>
       </c>
       <c r="C47" t="n">
-        <v>34.6</v>
+        <v>34.61</v>
       </c>
       <c r="D47" t="n">
         <v>34.61</v>
       </c>
       <c r="E47" t="n">
-        <v>34.6</v>
+        <v>34.61</v>
       </c>
       <c r="F47" t="n">
-        <v>658.228</v>
+        <v>1315.876</v>
       </c>
       <c r="G47" t="n">
-        <v>34.21716666666666</v>
+        <v>34.19883333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2106,14 +2050,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2123,22 +2061,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34.5</v>
+        <v>34.61</v>
       </c>
       <c r="C48" t="n">
         <v>34.6</v>
       </c>
       <c r="D48" t="n">
+        <v>34.61</v>
+      </c>
+      <c r="E48" t="n">
         <v>34.6</v>
       </c>
-      <c r="E48" t="n">
-        <v>34.5</v>
-      </c>
       <c r="F48" t="n">
-        <v>11431.8627</v>
+        <v>658.228</v>
       </c>
       <c r="G48" t="n">
-        <v>34.23549999999999</v>
+        <v>34.21716666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2147,14 +2085,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2164,7 +2096,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C49" t="n">
         <v>34.6</v>
@@ -2173,13 +2105,13 @@
         <v>34.6</v>
       </c>
       <c r="E49" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F49" t="n">
-        <v>7965.3591</v>
+        <v>11431.8627</v>
       </c>
       <c r="G49" t="n">
-        <v>34.25666666666665</v>
+        <v>34.23549999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2188,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2205,22 +2131,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34.51</v>
+        <v>34.6</v>
       </c>
       <c r="C50" t="n">
-        <v>34.51</v>
+        <v>34.6</v>
       </c>
       <c r="D50" t="n">
-        <v>34.51</v>
+        <v>34.6</v>
       </c>
       <c r="E50" t="n">
-        <v>34.51</v>
+        <v>34.6</v>
       </c>
       <c r="F50" t="n">
-        <v>3289.1459</v>
+        <v>7965.3591</v>
       </c>
       <c r="G50" t="n">
-        <v>34.27183333333333</v>
+        <v>34.25666666666665</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2229,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2246,22 +2166,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>34.59</v>
+        <v>34.51</v>
       </c>
       <c r="C51" t="n">
-        <v>34.59</v>
+        <v>34.51</v>
       </c>
       <c r="D51" t="n">
-        <v>34.59</v>
+        <v>34.51</v>
       </c>
       <c r="E51" t="n">
-        <v>34.59</v>
+        <v>34.51</v>
       </c>
       <c r="F51" t="n">
-        <v>2706.812</v>
+        <v>3289.1459</v>
       </c>
       <c r="G51" t="n">
-        <v>34.28833333333333</v>
+        <v>34.27183333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2270,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2299,10 +2213,10 @@
         <v>34.59</v>
       </c>
       <c r="F52" t="n">
-        <v>5316.3449</v>
+        <v>2706.812</v>
       </c>
       <c r="G52" t="n">
-        <v>34.30483333333333</v>
+        <v>34.28833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2311,14 +2225,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2340,10 +2248,10 @@
         <v>34.59</v>
       </c>
       <c r="F53" t="n">
-        <v>1219.3658</v>
+        <v>5316.3449</v>
       </c>
       <c r="G53" t="n">
-        <v>34.31666666666667</v>
+        <v>34.30483333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2352,14 +2260,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2372,19 +2274,19 @@
         <v>34.59</v>
       </c>
       <c r="C54" t="n">
-        <v>34.7</v>
+        <v>34.59</v>
       </c>
       <c r="D54" t="n">
-        <v>34.7</v>
+        <v>34.59</v>
       </c>
       <c r="E54" t="n">
         <v>34.59</v>
       </c>
       <c r="F54" t="n">
-        <v>10804.4919</v>
+        <v>1219.3658</v>
       </c>
       <c r="G54" t="n">
-        <v>34.33033333333333</v>
+        <v>34.31666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2393,14 +2295,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2410,7 +2306,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>34.47</v>
+        <v>34.59</v>
       </c>
       <c r="C55" t="n">
         <v>34.7</v>
@@ -2419,13 +2315,13 @@
         <v>34.7</v>
       </c>
       <c r="E55" t="n">
-        <v>34.47</v>
+        <v>34.59</v>
       </c>
       <c r="F55" t="n">
-        <v>7000</v>
+        <v>10804.4919</v>
       </c>
       <c r="G55" t="n">
-        <v>34.34199999999999</v>
+        <v>34.33033333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2434,14 +2330,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2451,22 +2341,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>34.69</v>
+        <v>34.47</v>
       </c>
       <c r="C56" t="n">
-        <v>34.69</v>
+        <v>34.7</v>
       </c>
       <c r="D56" t="n">
-        <v>34.69</v>
+        <v>34.7</v>
       </c>
       <c r="E56" t="n">
-        <v>34.69</v>
+        <v>34.47</v>
       </c>
       <c r="F56" t="n">
-        <v>140.669</v>
+        <v>7000</v>
       </c>
       <c r="G56" t="n">
-        <v>34.35966666666666</v>
+        <v>34.34199999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2475,14 +2365,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2492,22 +2376,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>34.47</v>
+        <v>34.69</v>
       </c>
       <c r="C57" t="n">
-        <v>34.45</v>
+        <v>34.69</v>
       </c>
       <c r="D57" t="n">
-        <v>34.47</v>
+        <v>34.69</v>
       </c>
       <c r="E57" t="n">
-        <v>34.45</v>
+        <v>34.69</v>
       </c>
       <c r="F57" t="n">
-        <v>8920.718000000001</v>
+        <v>140.669</v>
       </c>
       <c r="G57" t="n">
-        <v>34.36216666666665</v>
+        <v>34.35966666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2516,14 +2400,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2411,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>34.59</v>
+        <v>34.47</v>
       </c>
       <c r="C58" t="n">
-        <v>34.59</v>
+        <v>34.45</v>
       </c>
       <c r="D58" t="n">
-        <v>34.59</v>
+        <v>34.47</v>
       </c>
       <c r="E58" t="n">
-        <v>34.59</v>
+        <v>34.45</v>
       </c>
       <c r="F58" t="n">
-        <v>1770</v>
+        <v>8920.718000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>34.36649999999999</v>
+        <v>34.36216666666665</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2557,14 +2435,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2577,19 +2449,19 @@
         <v>34.59</v>
       </c>
       <c r="C59" t="n">
-        <v>34.69</v>
+        <v>34.59</v>
       </c>
       <c r="D59" t="n">
-        <v>34.69</v>
+        <v>34.59</v>
       </c>
       <c r="E59" t="n">
         <v>34.59</v>
       </c>
       <c r="F59" t="n">
-        <v>10224.1671</v>
+        <v>1770</v>
       </c>
       <c r="G59" t="n">
-        <v>34.37133333333332</v>
+        <v>34.36649999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2598,14 +2470,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2615,7 +2481,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>34.69</v>
+        <v>34.59</v>
       </c>
       <c r="C60" t="n">
         <v>34.69</v>
@@ -2624,13 +2490,13 @@
         <v>34.69</v>
       </c>
       <c r="E60" t="n">
-        <v>34.69</v>
+        <v>34.59</v>
       </c>
       <c r="F60" t="n">
-        <v>7850.3551</v>
+        <v>10224.1671</v>
       </c>
       <c r="G60" t="n">
-        <v>34.37566666666666</v>
+        <v>34.37133333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2639,14 +2505,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2668,10 +2528,10 @@
         <v>34.69</v>
       </c>
       <c r="F61" t="n">
-        <v>989.2967</v>
+        <v>7850.3551</v>
       </c>
       <c r="G61" t="n">
-        <v>34.37833333333332</v>
+        <v>34.37566666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2680,14 +2540,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2697,22 +2551,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>34.7</v>
+        <v>34.69</v>
       </c>
       <c r="C62" t="n">
-        <v>34.7</v>
+        <v>34.69</v>
       </c>
       <c r="D62" t="n">
-        <v>34.7</v>
+        <v>34.69</v>
       </c>
       <c r="E62" t="n">
-        <v>34.7</v>
+        <v>34.69</v>
       </c>
       <c r="F62" t="n">
-        <v>2420.0137</v>
+        <v>989.2967</v>
       </c>
       <c r="G62" t="n">
-        <v>34.37883333333332</v>
+        <v>34.37833333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2721,14 +2575,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2750,7 +2598,7 @@
         <v>34.7</v>
       </c>
       <c r="F63" t="n">
-        <v>65.99890000000001</v>
+        <v>2420.0137</v>
       </c>
       <c r="G63" t="n">
         <v>34.37883333333332</v>
@@ -2762,14 +2610,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2779,22 +2621,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>34.54</v>
+        <v>34.7</v>
       </c>
       <c r="C64" t="n">
-        <v>34.54</v>
+        <v>34.7</v>
       </c>
       <c r="D64" t="n">
-        <v>34.54</v>
+        <v>34.7</v>
       </c>
       <c r="E64" t="n">
-        <v>34.54</v>
+        <v>34.7</v>
       </c>
       <c r="F64" t="n">
-        <v>490.759</v>
+        <v>65.99890000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>34.38216666666665</v>
+        <v>34.37883333333332</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2803,14 +2645,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2820,22 +2656,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>34.57</v>
+        <v>34.54</v>
       </c>
       <c r="C65" t="n">
-        <v>34.57</v>
+        <v>34.54</v>
       </c>
       <c r="D65" t="n">
-        <v>34.57</v>
+        <v>34.54</v>
       </c>
       <c r="E65" t="n">
-        <v>34.57</v>
+        <v>34.54</v>
       </c>
       <c r="F65" t="n">
-        <v>8913.1252</v>
+        <v>490.759</v>
       </c>
       <c r="G65" t="n">
-        <v>34.38833333333332</v>
+        <v>34.38216666666665</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2844,14 +2680,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2873,10 +2703,10 @@
         <v>34.57</v>
       </c>
       <c r="F66" t="n">
-        <v>21.1693</v>
+        <v>8913.1252</v>
       </c>
       <c r="G66" t="n">
-        <v>34.39466666666666</v>
+        <v>34.38833333333332</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2885,14 +2715,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2902,22 +2726,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>34.33</v>
+        <v>34.57</v>
       </c>
       <c r="C67" t="n">
-        <v>34.22</v>
+        <v>34.57</v>
       </c>
       <c r="D67" t="n">
-        <v>34.33</v>
+        <v>34.57</v>
       </c>
       <c r="E67" t="n">
-        <v>34.22</v>
+        <v>34.57</v>
       </c>
       <c r="F67" t="n">
-        <v>8934.2945</v>
+        <v>21.1693</v>
       </c>
       <c r="G67" t="n">
-        <v>34.39566666666666</v>
+        <v>34.39466666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2926,14 +2750,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2943,22 +2761,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>34.13</v>
+        <v>34.33</v>
       </c>
       <c r="C68" t="n">
-        <v>34.13</v>
+        <v>34.22</v>
       </c>
       <c r="D68" t="n">
-        <v>34.13</v>
+        <v>34.33</v>
       </c>
       <c r="E68" t="n">
-        <v>34.13</v>
+        <v>34.22</v>
       </c>
       <c r="F68" t="n">
-        <v>35.946</v>
+        <v>8934.2945</v>
       </c>
       <c r="G68" t="n">
-        <v>34.39783333333332</v>
+        <v>34.39566666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2967,14 +2785,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2984,22 +2796,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>34.2</v>
+        <v>34.13</v>
       </c>
       <c r="C69" t="n">
-        <v>34.09</v>
+        <v>34.13</v>
       </c>
       <c r="D69" t="n">
-        <v>34.2</v>
+        <v>34.13</v>
       </c>
       <c r="E69" t="n">
-        <v>34.08</v>
+        <v>34.13</v>
       </c>
       <c r="F69" t="n">
-        <v>36147.5886</v>
+        <v>35.946</v>
       </c>
       <c r="G69" t="n">
-        <v>34.40666666666666</v>
+        <v>34.39783333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3008,14 +2820,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3025,22 +2831,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="C70" t="n">
-        <v>34.2</v>
+        <v>34.09</v>
       </c>
       <c r="D70" t="n">
         <v>34.2</v>
       </c>
       <c r="E70" t="n">
-        <v>34</v>
+        <v>34.08</v>
       </c>
       <c r="F70" t="n">
-        <v>3293.496</v>
+        <v>36147.5886</v>
       </c>
       <c r="G70" t="n">
-        <v>34.40049999999999</v>
+        <v>34.40666666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3049,14 +2855,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +2866,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>34.02</v>
+        <v>34</v>
       </c>
       <c r="C71" t="n">
-        <v>33.91</v>
+        <v>34.2</v>
       </c>
       <c r="D71" t="n">
-        <v>34.02</v>
+        <v>34.2</v>
       </c>
       <c r="E71" t="n">
-        <v>33.91</v>
+        <v>34</v>
       </c>
       <c r="F71" t="n">
-        <v>10804.4919</v>
+        <v>3293.496</v>
       </c>
       <c r="G71" t="n">
-        <v>34.39549999999998</v>
+        <v>34.40049999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3090,14 +2890,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3107,22 +2901,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>34.2</v>
+        <v>34.02</v>
       </c>
       <c r="C72" t="n">
-        <v>34.2</v>
+        <v>33.91</v>
       </c>
       <c r="D72" t="n">
-        <v>34.2</v>
+        <v>34.02</v>
       </c>
       <c r="E72" t="n">
-        <v>34.2</v>
+        <v>33.91</v>
       </c>
       <c r="F72" t="n">
-        <v>1176.3529</v>
+        <v>10804.4919</v>
       </c>
       <c r="G72" t="n">
-        <v>34.39483333333332</v>
+        <v>34.39549999999998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3131,14 +2925,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3148,22 +2936,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>34.01</v>
+        <v>34.2</v>
       </c>
       <c r="C73" t="n">
-        <v>34.01</v>
+        <v>34.2</v>
       </c>
       <c r="D73" t="n">
-        <v>34.01</v>
+        <v>34.2</v>
       </c>
       <c r="E73" t="n">
-        <v>34.01</v>
+        <v>34.2</v>
       </c>
       <c r="F73" t="n">
-        <v>5084.0191</v>
+        <v>1176.3529</v>
       </c>
       <c r="G73" t="n">
-        <v>34.38633333333333</v>
+        <v>34.39483333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3172,14 +2960,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3189,22 +2971,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>34.2</v>
+        <v>34.01</v>
       </c>
       <c r="C74" t="n">
-        <v>34.2</v>
+        <v>34.01</v>
       </c>
       <c r="D74" t="n">
-        <v>34.2</v>
+        <v>34.01</v>
       </c>
       <c r="E74" t="n">
-        <v>34.2</v>
+        <v>34.01</v>
       </c>
       <c r="F74" t="n">
-        <v>2316.2197</v>
+        <v>5084.0191</v>
       </c>
       <c r="G74" t="n">
-        <v>34.38099999999999</v>
+        <v>34.38633333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3213,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3242,10 +3018,10 @@
         <v>34.2</v>
       </c>
       <c r="F75" t="n">
-        <v>1300</v>
+        <v>2316.2197</v>
       </c>
       <c r="G75" t="n">
-        <v>34.37683333333332</v>
+        <v>34.38099999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3254,14 +3030,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3271,22 +3041,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>34.07</v>
+        <v>34.2</v>
       </c>
       <c r="C76" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="D76" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="E76" t="n">
-        <v>34.07</v>
+        <v>34.2</v>
       </c>
       <c r="F76" t="n">
-        <v>3993</v>
+        <v>1300</v>
       </c>
       <c r="G76" t="n">
-        <v>34.37433333333333</v>
+        <v>34.37683333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3295,14 +3065,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3312,7 +3076,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>34.3</v>
+        <v>34.07</v>
       </c>
       <c r="C77" t="n">
         <v>34.3</v>
@@ -3321,13 +3085,13 @@
         <v>34.3</v>
       </c>
       <c r="E77" t="n">
-        <v>34.3</v>
+        <v>34.07</v>
       </c>
       <c r="F77" t="n">
-        <v>2914.5743</v>
+        <v>3993</v>
       </c>
       <c r="G77" t="n">
-        <v>34.3695</v>
+        <v>34.37433333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3336,14 +3100,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3365,10 +3123,10 @@
         <v>34.3</v>
       </c>
       <c r="F78" t="n">
-        <v>1219.3658</v>
+        <v>2914.5743</v>
       </c>
       <c r="G78" t="n">
-        <v>34.3645</v>
+        <v>34.3695</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3377,14 +3135,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3394,7 +3146,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>34.15</v>
+        <v>34.3</v>
       </c>
       <c r="C79" t="n">
         <v>34.3</v>
@@ -3403,13 +3155,13 @@
         <v>34.3</v>
       </c>
       <c r="E79" t="n">
-        <v>34.15</v>
+        <v>34.3</v>
       </c>
       <c r="F79" t="n">
-        <v>3129.7222</v>
+        <v>1219.3658</v>
       </c>
       <c r="G79" t="n">
-        <v>34.3595</v>
+        <v>34.3645</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3418,14 +3170,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3435,22 +3181,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="C80" t="n">
         <v>34.3</v>
       </c>
-      <c r="C80" t="n">
-        <v>34.4</v>
-      </c>
       <c r="D80" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="E80" t="n">
-        <v>34.3</v>
+        <v>34.15</v>
       </c>
       <c r="F80" t="n">
-        <v>44623.473</v>
+        <v>3129.7222</v>
       </c>
       <c r="G80" t="n">
-        <v>34.35616666666667</v>
+        <v>34.3595</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3459,14 +3205,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3476,7 +3216,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="C81" t="n">
         <v>34.4</v>
@@ -3485,13 +3225,13 @@
         <v>34.4</v>
       </c>
       <c r="E81" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="F81" t="n">
-        <v>5892.7678</v>
+        <v>44623.473</v>
       </c>
       <c r="G81" t="n">
-        <v>34.3575</v>
+        <v>34.35616666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3500,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3529,10 +3263,10 @@
         <v>34.4</v>
       </c>
       <c r="F82" t="n">
-        <v>499.0501</v>
+        <v>5892.7678</v>
       </c>
       <c r="G82" t="n">
-        <v>34.36383333333334</v>
+        <v>34.3575</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3541,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3570,10 +3298,10 @@
         <v>34.4</v>
       </c>
       <c r="F83" t="n">
-        <v>7965.4372</v>
+        <v>499.0501</v>
       </c>
       <c r="G83" t="n">
-        <v>34.37033333333333</v>
+        <v>34.36383333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3582,14 +3310,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3611,10 +3333,10 @@
         <v>34.4</v>
       </c>
       <c r="F84" t="n">
-        <v>2302.6908</v>
+        <v>7965.4372</v>
       </c>
       <c r="G84" t="n">
-        <v>34.38183333333334</v>
+        <v>34.37033333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3623,14 +3345,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3652,10 +3368,10 @@
         <v>34.4</v>
       </c>
       <c r="F85" t="n">
-        <v>1342.9289</v>
+        <v>2302.6908</v>
       </c>
       <c r="G85" t="n">
-        <v>34.38933333333334</v>
+        <v>34.38183333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3664,14 +3380,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3681,22 +3391,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>34.57</v>
+        <v>34.4</v>
       </c>
       <c r="C86" t="n">
-        <v>34.69</v>
+        <v>34.4</v>
       </c>
       <c r="D86" t="n">
-        <v>34.69</v>
+        <v>34.4</v>
       </c>
       <c r="E86" t="n">
-        <v>34.57</v>
+        <v>34.4</v>
       </c>
       <c r="F86" t="n">
-        <v>7437.7455</v>
+        <v>1342.9289</v>
       </c>
       <c r="G86" t="n">
-        <v>34.40083333333335</v>
+        <v>34.38933333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3705,14 +3415,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3722,22 +3426,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="C87" t="n">
         <v>34.69</v>
       </c>
-      <c r="C87" t="n">
-        <v>35</v>
-      </c>
       <c r="D87" t="n">
-        <v>35</v>
+        <v>34.69</v>
       </c>
       <c r="E87" t="n">
-        <v>34.69</v>
+        <v>34.57</v>
       </c>
       <c r="F87" t="n">
-        <v>205012.9286</v>
+        <v>7437.7455</v>
       </c>
       <c r="G87" t="n">
-        <v>34.41733333333334</v>
+        <v>34.40083333333335</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3746,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3763,7 +3461,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>35</v>
+        <v>34.69</v>
       </c>
       <c r="C88" t="n">
         <v>35</v>
@@ -3772,13 +3470,13 @@
         <v>35</v>
       </c>
       <c r="E88" t="n">
-        <v>35</v>
+        <v>34.69</v>
       </c>
       <c r="F88" t="n">
-        <v>6100</v>
+        <v>205012.9286</v>
       </c>
       <c r="G88" t="n">
-        <v>34.43233333333334</v>
+        <v>34.41733333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3787,14 +3485,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3804,22 +3496,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>35.09</v>
+        <v>35</v>
       </c>
       <c r="C89" t="n">
-        <v>35.09</v>
+        <v>35</v>
       </c>
       <c r="D89" t="n">
-        <v>35.09</v>
+        <v>35</v>
       </c>
       <c r="E89" t="n">
-        <v>35.09</v>
+        <v>35</v>
       </c>
       <c r="F89" t="n">
-        <v>1247.648</v>
+        <v>6100</v>
       </c>
       <c r="G89" t="n">
-        <v>34.45000000000001</v>
+        <v>34.43233333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3828,14 +3520,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3845,22 +3531,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>34.99</v>
+        <v>35.09</v>
       </c>
       <c r="C90" t="n">
-        <v>34.99</v>
+        <v>35.09</v>
       </c>
       <c r="D90" t="n">
-        <v>34.99</v>
+        <v>35.09</v>
       </c>
       <c r="E90" t="n">
-        <v>34.99</v>
+        <v>35.09</v>
       </c>
       <c r="F90" t="n">
-        <v>7677.3824</v>
+        <v>1247.648</v>
       </c>
       <c r="G90" t="n">
-        <v>34.46483333333334</v>
+        <v>34.45000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3869,14 +3555,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3886,22 +3566,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>34.7</v>
+        <v>34.99</v>
       </c>
       <c r="C91" t="n">
-        <v>34.71</v>
+        <v>34.99</v>
       </c>
       <c r="D91" t="n">
-        <v>34.71</v>
+        <v>34.99</v>
       </c>
       <c r="E91" t="n">
-        <v>34.7</v>
+        <v>34.99</v>
       </c>
       <c r="F91" t="n">
-        <v>1420.5948</v>
+        <v>7677.3824</v>
       </c>
       <c r="G91" t="n">
-        <v>34.47500000000001</v>
+        <v>34.46483333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3910,14 +3590,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3927,22 +3601,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>34.75</v>
+        <v>34.7</v>
       </c>
       <c r="C92" t="n">
-        <v>34.75</v>
+        <v>34.71</v>
       </c>
       <c r="D92" t="n">
-        <v>34.75</v>
+        <v>34.71</v>
       </c>
       <c r="E92" t="n">
-        <v>34.75</v>
+        <v>34.7</v>
       </c>
       <c r="F92" t="n">
-        <v>7500</v>
+        <v>1420.5948</v>
       </c>
       <c r="G92" t="n">
-        <v>34.48583333333334</v>
+        <v>34.47500000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3951,14 +3625,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3980,10 +3648,10 @@
         <v>34.75</v>
       </c>
       <c r="F93" t="n">
-        <v>15926.7722</v>
+        <v>7500</v>
       </c>
       <c r="G93" t="n">
-        <v>34.49833333333334</v>
+        <v>34.48583333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3992,14 +3660,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4021,10 +3683,10 @@
         <v>34.75</v>
       </c>
       <c r="F94" t="n">
-        <v>3851.5653</v>
+        <v>15926.7722</v>
       </c>
       <c r="G94" t="n">
-        <v>34.51116666666667</v>
+        <v>34.49833333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4033,14 +3695,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4062,10 +3718,10 @@
         <v>34.75</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0001</v>
+        <v>3851.5653</v>
       </c>
       <c r="G95" t="n">
-        <v>34.52683333333334</v>
+        <v>34.51116666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4074,14 +3730,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4091,22 +3741,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>34.9</v>
+        <v>34.75</v>
       </c>
       <c r="C96" t="n">
-        <v>34.9</v>
+        <v>34.75</v>
       </c>
       <c r="D96" t="n">
-        <v>34.9</v>
+        <v>34.75</v>
       </c>
       <c r="E96" t="n">
-        <v>34.9</v>
+        <v>34.75</v>
       </c>
       <c r="F96" t="n">
-        <v>10000</v>
+        <v>0.0001</v>
       </c>
       <c r="G96" t="n">
-        <v>34.54016666666668</v>
+        <v>34.52683333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4115,14 +3765,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4132,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C97" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D97" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E97" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F97" t="n">
-        <v>1120.3361</v>
+        <v>10000</v>
       </c>
       <c r="G97" t="n">
-        <v>34.55350000000001</v>
+        <v>34.54016666666668</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4156,14 +3800,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4176,19 +3814,19 @@
         <v>35</v>
       </c>
       <c r="C98" t="n">
-        <v>35.39</v>
+        <v>35</v>
       </c>
       <c r="D98" t="n">
-        <v>35.39</v>
+        <v>35</v>
       </c>
       <c r="E98" t="n">
         <v>35</v>
       </c>
       <c r="F98" t="n">
-        <v>27800</v>
+        <v>1120.3361</v>
       </c>
       <c r="G98" t="n">
-        <v>34.57333333333335</v>
+        <v>34.55350000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4197,14 +3835,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4217,19 +3849,19 @@
         <v>35</v>
       </c>
       <c r="C99" t="n">
-        <v>35</v>
+        <v>35.39</v>
       </c>
       <c r="D99" t="n">
-        <v>35</v>
+        <v>35.39</v>
       </c>
       <c r="E99" t="n">
         <v>35</v>
       </c>
       <c r="F99" t="n">
-        <v>3550</v>
+        <v>27800</v>
       </c>
       <c r="G99" t="n">
-        <v>34.58233333333335</v>
+        <v>34.57333333333335</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4238,14 +3870,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4267,10 +3893,10 @@
         <v>35</v>
       </c>
       <c r="F100" t="n">
-        <v>857.1428571428571</v>
+        <v>3550</v>
       </c>
       <c r="G100" t="n">
-        <v>34.58733333333335</v>
+        <v>34.58233333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4279,14 +3905,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4308,10 +3928,10 @@
         <v>35</v>
       </c>
       <c r="F101" t="n">
-        <v>3588.1177</v>
+        <v>857.1428571428571</v>
       </c>
       <c r="G101" t="n">
-        <v>34.58983333333335</v>
+        <v>34.58733333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4320,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4349,10 +3963,10 @@
         <v>35</v>
       </c>
       <c r="F102" t="n">
-        <v>1655.4966</v>
+        <v>3588.1177</v>
       </c>
       <c r="G102" t="n">
-        <v>34.59483333333336</v>
+        <v>34.58983333333335</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4361,14 +3975,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4378,22 +3986,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>34.81</v>
+        <v>35</v>
       </c>
       <c r="C103" t="n">
-        <v>35.15</v>
+        <v>35</v>
       </c>
       <c r="D103" t="n">
-        <v>35.15</v>
+        <v>35</v>
       </c>
       <c r="E103" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="F103" t="n">
-        <v>13736.62524285714</v>
+        <v>1655.4966</v>
       </c>
       <c r="G103" t="n">
-        <v>34.59733333333336</v>
+        <v>34.59483333333336</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4402,14 +4010,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4419,22 +4021,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>34.92</v>
+        <v>34.81</v>
       </c>
       <c r="C104" t="n">
-        <v>34.91</v>
+        <v>35.15</v>
       </c>
       <c r="D104" t="n">
-        <v>34.92</v>
+        <v>35.15</v>
       </c>
       <c r="E104" t="n">
-        <v>34.91</v>
+        <v>34.8</v>
       </c>
       <c r="F104" t="n">
-        <v>5680</v>
+        <v>13736.62524285714</v>
       </c>
       <c r="G104" t="n">
-        <v>34.60283333333336</v>
+        <v>34.59733333333336</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4443,14 +4045,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4460,22 +4056,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>34.91</v>
+        <v>34.92</v>
       </c>
       <c r="C105" t="n">
         <v>34.91</v>
       </c>
       <c r="D105" t="n">
-        <v>34.91</v>
+        <v>34.92</v>
       </c>
       <c r="E105" t="n">
         <v>34.91</v>
       </c>
       <c r="F105" t="n">
-        <v>1978.3825</v>
+        <v>5680</v>
       </c>
       <c r="G105" t="n">
-        <v>34.60783333333335</v>
+        <v>34.60283333333336</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4484,14 +4080,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4513,10 +4103,10 @@
         <v>34.91</v>
       </c>
       <c r="F106" t="n">
-        <v>18818.6208</v>
+        <v>1978.3825</v>
       </c>
       <c r="G106" t="n">
-        <v>34.61283333333335</v>
+        <v>34.60783333333335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4525,14 +4115,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4542,22 +4126,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>35.05</v>
+        <v>34.91</v>
       </c>
       <c r="C107" t="n">
-        <v>34.8</v>
+        <v>34.91</v>
       </c>
       <c r="D107" t="n">
-        <v>35.05</v>
+        <v>34.91</v>
       </c>
       <c r="E107" t="n">
-        <v>34.8</v>
+        <v>34.91</v>
       </c>
       <c r="F107" t="n">
-        <v>2093.3521</v>
+        <v>18818.6208</v>
       </c>
       <c r="G107" t="n">
-        <v>34.61616666666669</v>
+        <v>34.61283333333335</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4566,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4583,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>34.65</v>
+        <v>35.05</v>
       </c>
       <c r="C108" t="n">
-        <v>34.65</v>
+        <v>34.8</v>
       </c>
       <c r="D108" t="n">
-        <v>34.65</v>
+        <v>35.05</v>
       </c>
       <c r="E108" t="n">
-        <v>34.65</v>
+        <v>34.8</v>
       </c>
       <c r="F108" t="n">
-        <v>1880.5074</v>
+        <v>2093.3521</v>
       </c>
       <c r="G108" t="n">
-        <v>34.61700000000003</v>
+        <v>34.61616666666669</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4607,14 +4185,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4624,22 +4196,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>34.69</v>
+        <v>34.65</v>
       </c>
       <c r="C109" t="n">
-        <v>34.81</v>
+        <v>34.65</v>
       </c>
       <c r="D109" t="n">
-        <v>34.81</v>
+        <v>34.65</v>
       </c>
       <c r="E109" t="n">
-        <v>34.69</v>
+        <v>34.65</v>
       </c>
       <c r="F109" t="n">
-        <v>11900</v>
+        <v>1880.5074</v>
       </c>
       <c r="G109" t="n">
-        <v>34.62050000000002</v>
+        <v>34.61700000000003</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4648,14 +4220,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4665,22 +4231,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>34.75</v>
+        <v>34.69</v>
       </c>
       <c r="C110" t="n">
-        <v>34.75</v>
+        <v>34.81</v>
       </c>
       <c r="D110" t="n">
-        <v>34.75</v>
+        <v>34.81</v>
       </c>
       <c r="E110" t="n">
-        <v>34.75</v>
+        <v>34.69</v>
       </c>
       <c r="F110" t="n">
-        <v>1054.6085</v>
+        <v>11900</v>
       </c>
       <c r="G110" t="n">
-        <v>34.62450000000002</v>
+        <v>34.62050000000002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4689,14 +4255,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4706,22 +4266,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>35.15</v>
+        <v>34.75</v>
       </c>
       <c r="C111" t="n">
-        <v>35.15</v>
+        <v>34.75</v>
       </c>
       <c r="D111" t="n">
-        <v>35.15</v>
+        <v>34.75</v>
       </c>
       <c r="E111" t="n">
-        <v>35.15</v>
+        <v>34.75</v>
       </c>
       <c r="F111" t="n">
-        <v>495.8996</v>
+        <v>1054.6085</v>
       </c>
       <c r="G111" t="n">
-        <v>34.63383333333335</v>
+        <v>34.62450000000002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4730,14 +4290,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4750,19 +4304,19 @@
         <v>35.15</v>
       </c>
       <c r="C112" t="n">
-        <v>35.28</v>
+        <v>35.15</v>
       </c>
       <c r="D112" t="n">
-        <v>35.28</v>
+        <v>35.15</v>
       </c>
       <c r="E112" t="n">
         <v>35.15</v>
       </c>
       <c r="F112" t="n">
-        <v>13214.8038</v>
+        <v>495.8996</v>
       </c>
       <c r="G112" t="n">
-        <v>34.64533333333335</v>
+        <v>34.63383333333335</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4771,14 +4325,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4788,22 +4336,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>35.37</v>
+        <v>35.15</v>
       </c>
       <c r="C113" t="n">
-        <v>35.37</v>
+        <v>35.28</v>
       </c>
       <c r="D113" t="n">
-        <v>35.37</v>
+        <v>35.28</v>
       </c>
       <c r="E113" t="n">
-        <v>35.37</v>
+        <v>35.15</v>
       </c>
       <c r="F113" t="n">
-        <v>9870.6967</v>
+        <v>13214.8038</v>
       </c>
       <c r="G113" t="n">
-        <v>34.65833333333335</v>
+        <v>34.64533333333335</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4812,14 +4360,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4841,10 +4383,10 @@
         <v>35.37</v>
       </c>
       <c r="F114" t="n">
-        <v>15549.3515</v>
+        <v>9870.6967</v>
       </c>
       <c r="G114" t="n">
-        <v>34.66950000000001</v>
+        <v>34.65833333333335</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4853,14 +4395,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4870,22 +4406,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>35.38</v>
+        <v>35.37</v>
       </c>
       <c r="C115" t="n">
-        <v>35.38</v>
+        <v>35.37</v>
       </c>
       <c r="D115" t="n">
-        <v>35.38</v>
+        <v>35.37</v>
       </c>
       <c r="E115" t="n">
-        <v>35.38</v>
+        <v>35.37</v>
       </c>
       <c r="F115" t="n">
-        <v>64.89619999999999</v>
+        <v>15549.3515</v>
       </c>
       <c r="G115" t="n">
-        <v>34.68083333333335</v>
+        <v>34.66950000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4894,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4911,22 +4441,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>35.37</v>
+        <v>35.38</v>
       </c>
       <c r="C116" t="n">
-        <v>35.37</v>
+        <v>35.38</v>
       </c>
       <c r="D116" t="n">
-        <v>35.37</v>
+        <v>35.38</v>
       </c>
       <c r="E116" t="n">
-        <v>35.37</v>
+        <v>35.38</v>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>64.89619999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>34.69216666666669</v>
+        <v>34.68083333333335</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4935,14 +4465,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4964,10 +4488,10 @@
         <v>35.37</v>
       </c>
       <c r="F117" t="n">
-        <v>3504</v>
+        <v>2000</v>
       </c>
       <c r="G117" t="n">
-        <v>34.70750000000002</v>
+        <v>34.69216666666669</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4976,14 +4500,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4993,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>35.05</v>
+        <v>35.37</v>
       </c>
       <c r="C118" t="n">
-        <v>34.75</v>
+        <v>35.37</v>
       </c>
       <c r="D118" t="n">
-        <v>35.05</v>
+        <v>35.37</v>
       </c>
       <c r="E118" t="n">
-        <v>34.75</v>
+        <v>35.37</v>
       </c>
       <c r="F118" t="n">
-        <v>21053.3515</v>
+        <v>3504</v>
       </c>
       <c r="G118" t="n">
-        <v>34.71016666666669</v>
+        <v>34.70750000000002</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5017,14 +4535,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5034,22 +4546,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>35.28</v>
+        <v>35.05</v>
       </c>
       <c r="C119" t="n">
-        <v>35.28</v>
+        <v>34.75</v>
       </c>
       <c r="D119" t="n">
-        <v>35.28</v>
+        <v>35.05</v>
       </c>
       <c r="E119" t="n">
-        <v>35.28</v>
+        <v>34.75</v>
       </c>
       <c r="F119" t="n">
-        <v>247.7366</v>
+        <v>21053.3515</v>
       </c>
       <c r="G119" t="n">
-        <v>34.72000000000002</v>
+        <v>34.71016666666669</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5058,14 +4570,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5075,22 +4581,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>35.25</v>
+        <v>35.28</v>
       </c>
       <c r="C120" t="n">
-        <v>35.25</v>
+        <v>35.28</v>
       </c>
       <c r="D120" t="n">
-        <v>35.25</v>
+        <v>35.28</v>
       </c>
       <c r="E120" t="n">
-        <v>35.25</v>
+        <v>35.28</v>
       </c>
       <c r="F120" t="n">
-        <v>990</v>
+        <v>247.7366</v>
       </c>
       <c r="G120" t="n">
-        <v>34.72933333333335</v>
+        <v>34.72000000000002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5099,14 +4605,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5116,39 +4616,68 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="C121" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="D121" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="E121" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="F121" t="n">
+        <v>990</v>
+      </c>
+      <c r="G121" t="n">
+        <v>34.72933333333335</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
         <v>35.26</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C122" t="n">
         <v>35.26</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D122" t="n">
         <v>35.26</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E122" t="n">
         <v>35.26</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F122" t="n">
         <v>1643.493</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G122" t="n">
         <v>34.73883333333335</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest GNT.xlsx
+++ b/BackTest/2020-01-16 BackTest GNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>561.5267</v>
       </c>
       <c r="G2" t="n">
+        <v>33.90066666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>32.94083333333332</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>13726</v>
       </c>
       <c r="G3" t="n">
+        <v>33.97866666666665</v>
+      </c>
+      <c r="H3" t="n">
         <v>32.97999999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3701.6402</v>
       </c>
       <c r="G4" t="n">
+        <v>34.05866666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>33.01683333333332</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>987.4121</v>
       </c>
       <c r="G5" t="n">
+        <v>34.126</v>
+      </c>
+      <c r="H5" t="n">
         <v>33.05083333333332</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2203.9658</v>
       </c>
       <c r="G6" t="n">
+        <v>34.16599999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>33.0825</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>964.1469</v>
       </c>
       <c r="G7" t="n">
+        <v>34.20533333333332</v>
+      </c>
+      <c r="H7" t="n">
         <v>33.11566666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>3701.6402</v>
       </c>
       <c r="G8" t="n">
+        <v>34.24266666666665</v>
+      </c>
+      <c r="H8" t="n">
         <v>33.14866666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>63.7583</v>
       </c>
       <c r="G9" t="n">
+        <v>34.25066666666665</v>
+      </c>
+      <c r="H9" t="n">
         <v>33.17899999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1435.4015</v>
       </c>
       <c r="G10" t="n">
+        <v>34.22933333333332</v>
+      </c>
+      <c r="H10" t="n">
         <v>33.20649999999999</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,25 @@
         <v>6340</v>
       </c>
       <c r="G11" t="n">
+        <v>34.26733333333332</v>
+      </c>
+      <c r="H11" t="n">
         <v>33.25233333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>33.56</v>
+      </c>
+      <c r="L11" t="n">
+        <v>33.56</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +837,27 @@
         <v>790.7968</v>
       </c>
       <c r="G12" t="n">
+        <v>34.30599999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>33.29216666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>33.56</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +881,27 @@
         <v>2286.2017</v>
       </c>
       <c r="G13" t="n">
+        <v>34.30199999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>33.3325</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>33.56</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +925,21 @@
         <v>6955.5176</v>
       </c>
       <c r="G14" t="n">
+        <v>34.31466666666665</v>
+      </c>
+      <c r="H14" t="n">
         <v>33.37116666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +963,21 @@
         <v>2300.5116</v>
       </c>
       <c r="G15" t="n">
+        <v>34.32266666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>33.40999999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1001,21 @@
         <v>4500</v>
       </c>
       <c r="G16" t="n">
+        <v>34.32399999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>33.44766666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1039,21 @@
         <v>500</v>
       </c>
       <c r="G17" t="n">
+        <v>34.31866666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>33.48633333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1077,21 @@
         <v>2140</v>
       </c>
       <c r="G18" t="n">
+        <v>34.31333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>33.52633333333332</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1115,21 @@
         <v>89.59537572254335</v>
       </c>
       <c r="G19" t="n">
+        <v>34.30666666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>33.56466666666665</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1153,21 @@
         <v>5399.1617</v>
       </c>
       <c r="G20" t="n">
+        <v>34.324</v>
+      </c>
+      <c r="H20" t="n">
         <v>33.59949999999998</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1191,21 @@
         <v>1472.592024277457</v>
       </c>
       <c r="G21" t="n">
+        <v>34.35066666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>33.63383333333332</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1229,21 @@
         <v>1048.6122</v>
       </c>
       <c r="G22" t="n">
+        <v>34.35933333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>33.66549999999999</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1267,21 @@
         <v>1226.2111</v>
       </c>
       <c r="G23" t="n">
+        <v>34.35000000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>33.68699999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1305,21 @@
         <v>552.1739</v>
       </c>
       <c r="G24" t="n">
+        <v>34.35066666666668</v>
+      </c>
+      <c r="H24" t="n">
         <v>33.71683333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1343,21 @@
         <v>699.862</v>
       </c>
       <c r="G25" t="n">
+        <v>34.36066666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>33.73833333333332</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1381,21 @@
         <v>2989.1303</v>
       </c>
       <c r="G26" t="n">
+        <v>34.31933333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>33.75299999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,22 +1419,21 @@
         <v>1684.6478</v>
       </c>
       <c r="G27" t="n">
+        <v>34.30533333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>33.76999999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>33.95</v>
-      </c>
-      <c r="K27" t="n">
-        <v>33.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1362,26 +1457,21 @@
         <v>649.1304</v>
       </c>
       <c r="G28" t="n">
+        <v>34.29</v>
+      </c>
+      <c r="H28" t="n">
         <v>33.78283333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34</v>
-      </c>
-      <c r="K28" t="n">
-        <v>33.95</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1405,24 +1495,21 @@
         <v>1508.0117</v>
       </c>
       <c r="G29" t="n">
+        <v>34.26200000000001</v>
+      </c>
+      <c r="H29" t="n">
         <v>33.79633333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>33.95</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,18 +1533,21 @@
         <v>303.1533</v>
       </c>
       <c r="G30" t="n">
+        <v>34.22933333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>33.81183333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1481,18 +1571,25 @@
         <v>1789.9999</v>
       </c>
       <c r="G31" t="n">
+        <v>34.206</v>
+      </c>
+      <c r="H31" t="n">
         <v>33.831</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="L31" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1516,18 +1613,27 @@
         <v>3118.3355</v>
       </c>
       <c r="G32" t="n">
+        <v>34.18266666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>33.849</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1551,18 +1657,27 @@
         <v>881.6645</v>
       </c>
       <c r="G33" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="H33" t="n">
         <v>33.8755</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,18 +1701,29 @@
         <v>724.814</v>
       </c>
       <c r="G34" t="n">
+        <v>34.11</v>
+      </c>
+      <c r="H34" t="n">
         <v>33.90049999999999</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,18 +1747,29 @@
         <v>3594.6</v>
       </c>
       <c r="G35" t="n">
+        <v>34.06866666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>33.92683333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>34</v>
+      </c>
+      <c r="L35" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,18 +1793,29 @@
         <v>100</v>
       </c>
       <c r="G36" t="n">
+        <v>34.01599999999999</v>
+      </c>
+      <c r="H36" t="n">
         <v>33.95349999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>33.98</v>
+      </c>
+      <c r="L36" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,18 +1839,29 @@
         <v>4000.3998</v>
       </c>
       <c r="G37" t="n">
+        <v>34.00133333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>33.96866666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="L37" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,18 +1885,29 @@
         <v>2386.5563</v>
       </c>
       <c r="G38" t="n">
+        <v>34.01333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>33.98899999999999</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +1931,29 @@
         <v>7465.2395</v>
       </c>
       <c r="G39" t="n">
+        <v>34.026</v>
+      </c>
+      <c r="H39" t="n">
         <v>34.01333333333331</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +1977,29 @@
         <v>19034.4849</v>
       </c>
       <c r="G40" t="n">
+        <v>34.076</v>
+      </c>
+      <c r="H40" t="n">
         <v>34.03433333333331</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +2023,29 @@
         <v>30287.2787</v>
       </c>
       <c r="G41" t="n">
+        <v>34.126</v>
+      </c>
+      <c r="H41" t="n">
         <v>34.05933333333331</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>34.46</v>
+      </c>
+      <c r="L41" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,18 +2069,29 @@
         <v>5841.787</v>
       </c>
       <c r="G42" t="n">
+        <v>34.18266666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>34.08599999999998</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L42" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,18 +2115,27 @@
         <v>576.692</v>
       </c>
       <c r="G43" t="n">
+        <v>34.22866666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>34.11383333333331</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,18 +2159,27 @@
         <v>42592.4095</v>
       </c>
       <c r="G44" t="n">
+        <v>34.28866666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>34.14133333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,18 +2203,27 @@
         <v>1245.9788</v>
       </c>
       <c r="G45" t="n">
+        <v>34.32533333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>34.16183333333332</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2247,27 @@
         <v>795.0821</v>
       </c>
       <c r="G46" t="n">
+        <v>34.35933333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>34.18033333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,18 +2291,27 @@
         <v>1315.876</v>
       </c>
       <c r="G47" t="n">
+        <v>34.39333333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>34.19883333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2335,27 @@
         <v>658.228</v>
       </c>
       <c r="G48" t="n">
+        <v>34.42666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>34.21716666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,18 +2379,27 @@
         <v>11431.8627</v>
       </c>
       <c r="G49" t="n">
+        <v>34.46666666666668</v>
+      </c>
+      <c r="H49" t="n">
         <v>34.23549999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,18 +2423,27 @@
         <v>7965.3591</v>
       </c>
       <c r="G50" t="n">
+        <v>34.50800000000001</v>
+      </c>
+      <c r="H50" t="n">
         <v>34.25666666666665</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,18 +2467,29 @@
         <v>3289.1459</v>
       </c>
       <c r="G51" t="n">
+        <v>34.55466666666668</v>
+      </c>
+      <c r="H51" t="n">
         <v>34.27183333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="L51" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2513,29 @@
         <v>2706.812</v>
       </c>
       <c r="G52" t="n">
+        <v>34.58733333333335</v>
+      </c>
+      <c r="H52" t="n">
         <v>34.28833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="L52" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2559,29 @@
         <v>5316.3449</v>
       </c>
       <c r="G53" t="n">
+        <v>34.61333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>34.30483333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="L53" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2605,29 @@
         <v>1219.3658</v>
       </c>
       <c r="G54" t="n">
+        <v>34.63933333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>34.31666666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="L54" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2651,29 @@
         <v>10804.4919</v>
       </c>
       <c r="G55" t="n">
+        <v>34.65533333333335</v>
+      </c>
+      <c r="H55" t="n">
         <v>34.33033333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="L55" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2697,29 @@
         <v>7000</v>
       </c>
       <c r="G56" t="n">
+        <v>34.65533333333335</v>
+      </c>
+      <c r="H56" t="n">
         <v>34.34199999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L56" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2743,27 @@
         <v>140.669</v>
       </c>
       <c r="G57" t="n">
+        <v>34.64466666666668</v>
+      </c>
+      <c r="H57" t="n">
         <v>34.35966666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2787,27 @@
         <v>8920.718000000001</v>
       </c>
       <c r="G58" t="n">
+        <v>34.62800000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>34.36216666666665</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2831,27 @@
         <v>1770</v>
       </c>
       <c r="G59" t="n">
+        <v>34.60066666666668</v>
+      </c>
+      <c r="H59" t="n">
         <v>34.36649999999999</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2875,27 @@
         <v>10224.1671</v>
       </c>
       <c r="G60" t="n">
+        <v>34.60800000000002</v>
+      </c>
+      <c r="H60" t="n">
         <v>34.37133333333332</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +2919,27 @@
         <v>7850.3551</v>
       </c>
       <c r="G61" t="n">
+        <v>34.61333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>34.37566666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +2963,27 @@
         <v>989.2967</v>
       </c>
       <c r="G62" t="n">
+        <v>34.61866666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>34.37833333333332</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +3007,27 @@
         <v>2420.0137</v>
       </c>
       <c r="G63" t="n">
+        <v>34.62533333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>34.37883333333332</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +3051,27 @@
         <v>65.99890000000001</v>
       </c>
       <c r="G64" t="n">
+        <v>34.63200000000001</v>
+      </c>
+      <c r="H64" t="n">
         <v>34.37883333333332</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +3095,27 @@
         <v>490.759</v>
       </c>
       <c r="G65" t="n">
+        <v>34.62800000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>34.38216666666665</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +3139,27 @@
         <v>8913.1252</v>
       </c>
       <c r="G66" t="n">
+        <v>34.63200000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>34.38833333333332</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +3183,27 @@
         <v>21.1693</v>
       </c>
       <c r="G67" t="n">
+        <v>34.63066666666668</v>
+      </c>
+      <c r="H67" t="n">
         <v>34.39466666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +3227,27 @@
         <v>8934.2945</v>
       </c>
       <c r="G68" t="n">
+        <v>34.60600000000001</v>
+      </c>
+      <c r="H68" t="n">
         <v>34.39566666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,18 +3271,27 @@
         <v>35.946</v>
       </c>
       <c r="G69" t="n">
+        <v>34.57533333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>34.39783333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,18 +3315,27 @@
         <v>36147.5886</v>
       </c>
       <c r="G70" t="n">
+        <v>34.53466666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>34.40666666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,18 +3359,29 @@
         <v>3293.496</v>
       </c>
       <c r="G71" t="n">
+        <v>34.50133333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>34.40049999999999</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>34.09</v>
+      </c>
+      <c r="L71" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,18 +3405,29 @@
         <v>10804.4919</v>
       </c>
       <c r="G72" t="n">
+        <v>34.44933333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>34.39549999999998</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +3451,29 @@
         <v>1176.3529</v>
       </c>
       <c r="G73" t="n">
+        <v>34.43266666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>34.39483333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="L73" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3497,29 @@
         <v>5084.0191</v>
       </c>
       <c r="G74" t="n">
+        <v>34.394</v>
+      </c>
+      <c r="H74" t="n">
         <v>34.38633333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3543,29 @@
         <v>2316.2197</v>
       </c>
       <c r="G75" t="n">
+        <v>34.36133333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>34.38099999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>34.01</v>
+      </c>
+      <c r="L75" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3589,29 @@
         <v>1300</v>
       </c>
       <c r="G76" t="n">
+        <v>34.32866666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>34.37683333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L76" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3635,29 @@
         <v>3993</v>
       </c>
       <c r="G77" t="n">
+        <v>34.30266666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>34.37433333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3681,29 @@
         <v>2914.5743</v>
       </c>
       <c r="G78" t="n">
+        <v>34.27599999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>34.3695</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L78" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3727,29 @@
         <v>1219.3658</v>
       </c>
       <c r="G79" t="n">
+        <v>34.24933333333332</v>
+      </c>
+      <c r="H79" t="n">
         <v>34.3645</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L79" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3773,29 @@
         <v>3129.7222</v>
       </c>
       <c r="G80" t="n">
+        <v>34.23333333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>34.3595</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L80" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3819,29 @@
         <v>44623.473</v>
       </c>
       <c r="G81" t="n">
+        <v>34.22199999999998</v>
+      </c>
+      <c r="H81" t="n">
         <v>34.35616666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="L81" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3865,29 @@
         <v>5892.7678</v>
       </c>
       <c r="G82" t="n">
+        <v>34.21066666666664</v>
+      </c>
+      <c r="H82" t="n">
         <v>34.3575</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L82" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +3911,29 @@
         <v>499.0501</v>
       </c>
       <c r="G83" t="n">
+        <v>34.22266666666664</v>
+      </c>
+      <c r="H83" t="n">
         <v>34.36383333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="L83" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +3957,27 @@
         <v>7965.4372</v>
       </c>
       <c r="G84" t="n">
+        <v>34.24066666666663</v>
+      </c>
+      <c r="H84" t="n">
         <v>34.37033333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +4001,27 @@
         <v>2302.6908</v>
       </c>
       <c r="G85" t="n">
+        <v>34.2613333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>34.38183333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +4045,27 @@
         <v>1342.9289</v>
       </c>
       <c r="G86" t="n">
+        <v>34.27466666666663</v>
+      </c>
+      <c r="H86" t="n">
         <v>34.38933333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +4089,27 @@
         <v>7437.7455</v>
       </c>
       <c r="G87" t="n">
+        <v>34.32666666666663</v>
+      </c>
+      <c r="H87" t="n">
         <v>34.40083333333335</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +4133,27 @@
         <v>205012.9286</v>
       </c>
       <c r="G88" t="n">
+        <v>34.37999999999997</v>
+      </c>
+      <c r="H88" t="n">
         <v>34.41733333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +4177,27 @@
         <v>6100</v>
       </c>
       <c r="G89" t="n">
+        <v>34.44599999999996</v>
+      </c>
+      <c r="H89" t="n">
         <v>34.43233333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +4221,27 @@
         <v>1247.648</v>
       </c>
       <c r="G90" t="n">
+        <v>34.5053333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>34.45000000000001</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +4265,27 @@
         <v>7677.3824</v>
       </c>
       <c r="G91" t="n">
+        <v>34.55799999999996</v>
+      </c>
+      <c r="H91" t="n">
         <v>34.46483333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +4309,27 @@
         <v>1420.5948</v>
       </c>
       <c r="G92" t="n">
+        <v>34.5853333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>34.47500000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +4353,27 @@
         <v>7500</v>
       </c>
       <c r="G93" t="n">
+        <v>34.6153333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>34.48583333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +4397,27 @@
         <v>15926.7722</v>
       </c>
       <c r="G94" t="n">
+        <v>34.6453333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>34.49833333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +4441,27 @@
         <v>3851.5653</v>
       </c>
       <c r="G95" t="n">
+        <v>34.67533333333331</v>
+      </c>
+      <c r="H95" t="n">
         <v>34.51116666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4485,27 @@
         <v>0.0001</v>
       </c>
       <c r="G96" t="n">
+        <v>34.69866666666665</v>
+      </c>
+      <c r="H96" t="n">
         <v>34.52683333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4529,27 @@
         <v>10000</v>
       </c>
       <c r="G97" t="n">
+        <v>34.73199999999998</v>
+      </c>
+      <c r="H97" t="n">
         <v>34.54016666666668</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4573,27 @@
         <v>1120.3361</v>
       </c>
       <c r="G98" t="n">
+        <v>34.77199999999998</v>
+      </c>
+      <c r="H98" t="n">
         <v>34.55350000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4617,27 @@
         <v>27800</v>
       </c>
       <c r="G99" t="n">
+        <v>34.83799999999998</v>
+      </c>
+      <c r="H99" t="n">
         <v>34.57333333333335</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4661,27 @@
         <v>3550</v>
       </c>
       <c r="G100" t="n">
+        <v>34.87799999999998</v>
+      </c>
+      <c r="H100" t="n">
         <v>34.58233333333335</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4705,27 @@
         <v>857.1428571428571</v>
       </c>
       <c r="G101" t="n">
+        <v>34.91799999999999</v>
+      </c>
+      <c r="H101" t="n">
         <v>34.58733333333335</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4749,27 @@
         <v>3588.1177</v>
       </c>
       <c r="G102" t="n">
+        <v>34.93866666666665</v>
+      </c>
+      <c r="H102" t="n">
         <v>34.58983333333335</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4793,27 @@
         <v>1655.4966</v>
       </c>
       <c r="G103" t="n">
+        <v>34.93866666666665</v>
+      </c>
+      <c r="H103" t="n">
         <v>34.59483333333336</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,19 +4837,28 @@
         <v>13736.62524285714</v>
       </c>
       <c r="G104" t="n">
+        <v>34.94866666666665</v>
+      </c>
+      <c r="H104" t="n">
         <v>34.59733333333336</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
+      <c r="L104" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>1.027912136350279</v>
       </c>
     </row>
     <row r="105">
@@ -4071,18 +4881,21 @@
         <v>5680</v>
       </c>
       <c r="G105" t="n">
+        <v>34.93666666666664</v>
+      </c>
+      <c r="H105" t="n">
         <v>34.60283333333336</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +4919,21 @@
         <v>1978.3825</v>
       </c>
       <c r="G106" t="n">
+        <v>34.93133333333331</v>
+      </c>
+      <c r="H106" t="n">
         <v>34.60783333333335</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +4957,21 @@
         <v>18818.6208</v>
       </c>
       <c r="G107" t="n">
+        <v>34.94466666666663</v>
+      </c>
+      <c r="H107" t="n">
         <v>34.61283333333335</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +4995,21 @@
         <v>2093.3521</v>
       </c>
       <c r="G108" t="n">
+        <v>34.94799999999996</v>
+      </c>
+      <c r="H108" t="n">
         <v>34.61616666666669</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +5033,21 @@
         <v>1880.5074</v>
       </c>
       <c r="G109" t="n">
+        <v>34.9413333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>34.61700000000003</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +5071,21 @@
         <v>11900</v>
       </c>
       <c r="G110" t="n">
+        <v>34.94533333333329</v>
+      </c>
+      <c r="H110" t="n">
         <v>34.62050000000002</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +5109,21 @@
         <v>1054.6085</v>
       </c>
       <c r="G111" t="n">
+        <v>34.94533333333329</v>
+      </c>
+      <c r="H111" t="n">
         <v>34.62450000000002</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +5147,21 @@
         <v>495.8996</v>
       </c>
       <c r="G112" t="n">
+        <v>34.96199999999996</v>
+      </c>
+      <c r="H112" t="n">
         <v>34.63383333333335</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +5185,21 @@
         <v>13214.8038</v>
       </c>
       <c r="G113" t="n">
+        <v>34.98066666666662</v>
+      </c>
+      <c r="H113" t="n">
         <v>34.64533333333335</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +5223,21 @@
         <v>9870.6967</v>
       </c>
       <c r="G114" t="n">
+        <v>34.97933333333329</v>
+      </c>
+      <c r="H114" t="n">
         <v>34.65833333333335</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +5261,21 @@
         <v>15549.3515</v>
       </c>
       <c r="G115" t="n">
+        <v>35.00399999999996</v>
+      </c>
+      <c r="H115" t="n">
         <v>34.66950000000001</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +5299,21 @@
         <v>64.89619999999999</v>
       </c>
       <c r="G116" t="n">
+        <v>35.02933333333329</v>
+      </c>
+      <c r="H116" t="n">
         <v>34.68083333333335</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +5337,21 @@
         <v>2000</v>
       </c>
       <c r="G117" t="n">
+        <v>35.05399999999996</v>
+      </c>
+      <c r="H117" t="n">
         <v>34.69216666666669</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +5375,21 @@
         <v>3504</v>
       </c>
       <c r="G118" t="n">
+        <v>35.07866666666663</v>
+      </c>
+      <c r="H118" t="n">
         <v>34.70750000000002</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +5413,21 @@
         <v>21053.3515</v>
       </c>
       <c r="G119" t="n">
+        <v>35.05199999999996</v>
+      </c>
+      <c r="H119" t="n">
         <v>34.71016666666669</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +5451,21 @@
         <v>247.7366</v>
       </c>
       <c r="G120" t="n">
+        <v>35.07666666666663</v>
+      </c>
+      <c r="H120" t="n">
         <v>34.72000000000002</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +5489,21 @@
         <v>990</v>
       </c>
       <c r="G121" t="n">
+        <v>35.0993333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>34.72933333333335</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5527,401 @@
         <v>1643.493</v>
       </c>
       <c r="G122" t="n">
+        <v>35.12266666666663</v>
+      </c>
+      <c r="H122" t="n">
         <v>34.73883333333335</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="C123" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D123" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="E123" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="F123" t="n">
+        <v>132.8005</v>
+      </c>
+      <c r="G123" t="n">
+        <v>35.1413333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>34.74516666666669</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="C124" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D124" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="E124" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1090</v>
+      </c>
+      <c r="G124" t="n">
+        <v>35.16999999999997</v>
+      </c>
+      <c r="H124" t="n">
+        <v>34.75150000000003</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="C125" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D125" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="E125" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="F125" t="n">
+        <v>34.6749</v>
+      </c>
+      <c r="G125" t="n">
+        <v>35.18799999999998</v>
+      </c>
+      <c r="H125" t="n">
+        <v>34.76050000000002</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>35.22466666666664</v>
+      </c>
+      <c r="H126" t="n">
+        <v>34.77266666666669</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D127" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E127" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>35.23999999999998</v>
+      </c>
+      <c r="H127" t="n">
+        <v>34.78616666666669</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="C128" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="D128" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="E128" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="F128" t="n">
+        <v>40</v>
+      </c>
+      <c r="G128" t="n">
+        <v>35.23133333333331</v>
+      </c>
+      <c r="H128" t="n">
+        <v>34.8016666666667</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="C129" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D129" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E129" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="F129" t="n">
+        <v>11442.8095</v>
+      </c>
+      <c r="G129" t="n">
+        <v>35.23199999999998</v>
+      </c>
+      <c r="H129" t="n">
+        <v>34.82250000000003</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="C130" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D130" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E130" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3092.6702</v>
+      </c>
+      <c r="G130" t="n">
+        <v>35.23266666666665</v>
+      </c>
+      <c r="H130" t="n">
+        <v>34.84400000000003</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="C131" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D131" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E131" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3081.7939</v>
+      </c>
+      <c r="G131" t="n">
+        <v>35.23266666666665</v>
+      </c>
+      <c r="H131" t="n">
+        <v>34.8636666666667</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="C132" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D132" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E132" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10931.09330391267</v>
+      </c>
+      <c r="G132" t="n">
+        <v>35.23333333333331</v>
+      </c>
+      <c r="H132" t="n">
+        <v>34.88816666666671</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest GNT.xlsx
+++ b/BackTest/2020-01-16 BackTest GNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>34.44</v>
+        <v>32.51</v>
       </c>
       <c r="C2" t="n">
-        <v>34.53</v>
+        <v>32.51</v>
       </c>
       <c r="D2" t="n">
-        <v>34.53</v>
+        <v>32.51</v>
       </c>
       <c r="E2" t="n">
-        <v>34.44</v>
+        <v>32.51</v>
       </c>
       <c r="F2" t="n">
-        <v>561.5267</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="n">
-        <v>33.90066666666666</v>
+        <v>107243.9555</v>
       </c>
       <c r="H2" t="n">
-        <v>32.94083333333332</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.52</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>34.67</v>
+        <v>32.5</v>
       </c>
       <c r="D3" t="n">
-        <v>34.67</v>
+        <v>32.5</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52</v>
+        <v>32.5</v>
       </c>
       <c r="F3" t="n">
-        <v>13726</v>
+        <v>1780</v>
       </c>
       <c r="G3" t="n">
-        <v>33.97866666666665</v>
+        <v>105463.9555</v>
       </c>
       <c r="H3" t="n">
-        <v>32.97999999999999</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>32.51</v>
+      </c>
+      <c r="K3" t="n">
+        <v>32.51</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.7</v>
+        <v>32.4</v>
       </c>
       <c r="C4" t="n">
-        <v>34.7</v>
+        <v>32.4</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7</v>
+        <v>32.4</v>
       </c>
       <c r="E4" t="n">
-        <v>34.7</v>
+        <v>32.4</v>
       </c>
       <c r="F4" t="n">
-        <v>3701.6402</v>
+        <v>724.7080999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>34.05866666666666</v>
+        <v>104739.2474</v>
       </c>
       <c r="H4" t="n">
-        <v>33.01683333333332</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.34</v>
+        <v>32.21</v>
       </c>
       <c r="C5" t="n">
-        <v>34.34</v>
+        <v>32.21</v>
       </c>
       <c r="D5" t="n">
-        <v>34.34</v>
+        <v>32.21</v>
       </c>
       <c r="E5" t="n">
-        <v>34.34</v>
+        <v>32.21</v>
       </c>
       <c r="F5" t="n">
-        <v>987.4121</v>
+        <v>3814.0005</v>
       </c>
       <c r="G5" t="n">
-        <v>34.126</v>
+        <v>100925.2469</v>
       </c>
       <c r="H5" t="n">
-        <v>33.05083333333332</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +593,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34.25</v>
+        <v>32.51</v>
       </c>
       <c r="C6" t="n">
-        <v>34.2</v>
+        <v>33.19</v>
       </c>
       <c r="D6" t="n">
-        <v>34.25</v>
+        <v>33.19</v>
       </c>
       <c r="E6" t="n">
-        <v>34.2</v>
+        <v>32.51</v>
       </c>
       <c r="F6" t="n">
-        <v>2203.9658</v>
+        <v>4300</v>
       </c>
       <c r="G6" t="n">
-        <v>34.16599999999999</v>
+        <v>105225.2469</v>
       </c>
       <c r="H6" t="n">
-        <v>33.0825</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>32.21</v>
+      </c>
+      <c r="K6" t="n">
+        <v>32.21</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +632,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34.19</v>
+        <v>32.98</v>
       </c>
       <c r="C7" t="n">
-        <v>34.19</v>
+        <v>32.98</v>
       </c>
       <c r="D7" t="n">
-        <v>34.19</v>
+        <v>32.98</v>
       </c>
       <c r="E7" t="n">
-        <v>34.19</v>
+        <v>32.98</v>
       </c>
       <c r="F7" t="n">
-        <v>964.1469</v>
+        <v>1247.0339</v>
       </c>
       <c r="G7" t="n">
-        <v>34.20533333333332</v>
+        <v>103978.213</v>
       </c>
       <c r="H7" t="n">
-        <v>33.11566666666666</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="K7" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +675,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.16</v>
+        <v>32.93</v>
       </c>
       <c r="C8" t="n">
-        <v>34.16</v>
+        <v>32.74</v>
       </c>
       <c r="D8" t="n">
-        <v>34.16</v>
+        <v>32.93</v>
       </c>
       <c r="E8" t="n">
-        <v>34.16</v>
+        <v>32.74</v>
       </c>
       <c r="F8" t="n">
-        <v>3701.6402</v>
+        <v>7272.7713</v>
       </c>
       <c r="G8" t="n">
-        <v>34.24266666666665</v>
+        <v>96705.4417</v>
       </c>
       <c r="H8" t="n">
-        <v>33.14866666666666</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>32.98</v>
+      </c>
+      <c r="K8" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +718,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>33.2</v>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>33.2</v>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>33.2</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>33.2</v>
       </c>
       <c r="F9" t="n">
-        <v>63.7583</v>
+        <v>1350.105</v>
       </c>
       <c r="G9" t="n">
-        <v>34.25066666666665</v>
+        <v>98055.54669999999</v>
       </c>
       <c r="H9" t="n">
-        <v>33.17899999999999</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +753,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>33.56</v>
+        <v>33.2</v>
       </c>
       <c r="C10" t="n">
-        <v>33.56</v>
+        <v>33.2</v>
       </c>
       <c r="D10" t="n">
-        <v>33.56</v>
+        <v>33.2</v>
       </c>
       <c r="E10" t="n">
-        <v>33.56</v>
+        <v>33.2</v>
       </c>
       <c r="F10" t="n">
-        <v>1435.4015</v>
+        <v>1697.5092</v>
       </c>
       <c r="G10" t="n">
-        <v>34.22933333333332</v>
+        <v>98055.54669999999</v>
       </c>
       <c r="H10" t="n">
-        <v>33.20649999999999</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>33.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>33.2</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,40 +792,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>33.01</v>
       </c>
       <c r="C11" t="n">
-        <v>34.57</v>
+        <v>33.25</v>
       </c>
       <c r="D11" t="n">
-        <v>34.57</v>
+        <v>33.25</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>32.91</v>
       </c>
       <c r="F11" t="n">
-        <v>6340</v>
+        <v>11335.2919</v>
       </c>
       <c r="G11" t="n">
-        <v>34.26733333333332</v>
+        <v>109390.8386</v>
       </c>
       <c r="H11" t="n">
-        <v>33.25233333333333</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="K11" t="n">
-        <v>33.56</v>
-      </c>
-      <c r="L11" t="n">
-        <v>33.56</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -822,42 +835,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>34.21</v>
+        <v>33.03</v>
       </c>
       <c r="C12" t="n">
-        <v>34.21</v>
+        <v>33.03</v>
       </c>
       <c r="D12" t="n">
-        <v>34.21</v>
+        <v>33.03</v>
       </c>
       <c r="E12" t="n">
-        <v>34.21</v>
+        <v>33.03</v>
       </c>
       <c r="F12" t="n">
-        <v>790.7968</v>
+        <v>124.2209</v>
       </c>
       <c r="G12" t="n">
-        <v>34.30599999999999</v>
+        <v>109266.6177</v>
       </c>
       <c r="H12" t="n">
-        <v>33.29216666666666</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>33.56</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -866,42 +876,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34.6</v>
+        <v>33.3</v>
       </c>
       <c r="C13" t="n">
-        <v>34.24</v>
+        <v>33.35</v>
       </c>
       <c r="D13" t="n">
-        <v>34.6</v>
+        <v>33.35</v>
       </c>
       <c r="E13" t="n">
-        <v>34.24</v>
+        <v>33.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2286.2017</v>
+        <v>3329.8935</v>
       </c>
       <c r="G13" t="n">
-        <v>34.30199999999999</v>
+        <v>112596.5112</v>
       </c>
       <c r="H13" t="n">
-        <v>33.3325</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>33.56</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,36 +917,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>34.53</v>
+        <v>33.35</v>
       </c>
       <c r="C14" t="n">
-        <v>34.52</v>
+        <v>33.35</v>
       </c>
       <c r="D14" t="n">
-        <v>34.53</v>
+        <v>33.35</v>
       </c>
       <c r="E14" t="n">
-        <v>34.52</v>
+        <v>33.35</v>
       </c>
       <c r="F14" t="n">
-        <v>6955.5176</v>
+        <v>18999.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>34.31466666666665</v>
+        <v>112596.5112</v>
       </c>
       <c r="H14" t="n">
-        <v>33.37116666666666</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -948,36 +958,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.52</v>
+        <v>33.35</v>
       </c>
       <c r="C15" t="n">
-        <v>34.52</v>
+        <v>33.5</v>
       </c>
       <c r="D15" t="n">
-        <v>34.52</v>
+        <v>33.5</v>
       </c>
       <c r="E15" t="n">
-        <v>34.52</v>
+        <v>33.35</v>
       </c>
       <c r="F15" t="n">
-        <v>2300.5116</v>
+        <v>1653.9366</v>
       </c>
       <c r="G15" t="n">
-        <v>34.32266666666666</v>
+        <v>114250.4478</v>
       </c>
       <c r="H15" t="n">
-        <v>33.40999999999999</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -986,36 +999,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>34.45</v>
+        <v>33.5</v>
       </c>
       <c r="C16" t="n">
-        <v>34.45</v>
+        <v>33.5</v>
       </c>
       <c r="D16" t="n">
-        <v>34.45</v>
+        <v>33.5</v>
       </c>
       <c r="E16" t="n">
-        <v>34.45</v>
+        <v>33.5</v>
       </c>
       <c r="F16" t="n">
-        <v>4500</v>
+        <v>1245.3736</v>
       </c>
       <c r="G16" t="n">
-        <v>34.32399999999999</v>
+        <v>114250.4478</v>
       </c>
       <c r="H16" t="n">
-        <v>33.44766666666666</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,36 +1040,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34.45</v>
+        <v>33.5</v>
       </c>
       <c r="C17" t="n">
-        <v>34.45</v>
+        <v>33.5</v>
       </c>
       <c r="D17" t="n">
-        <v>34.45</v>
+        <v>33.5</v>
       </c>
       <c r="E17" t="n">
-        <v>34.45</v>
+        <v>33.5</v>
       </c>
       <c r="F17" t="n">
-        <v>500</v>
+        <v>19411.0317</v>
       </c>
       <c r="G17" t="n">
-        <v>34.31866666666667</v>
+        <v>114250.4478</v>
       </c>
       <c r="H17" t="n">
-        <v>33.48633333333332</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1062,36 +1081,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34.59</v>
+        <v>33.49</v>
       </c>
       <c r="C18" t="n">
-        <v>34.59</v>
+        <v>33.5</v>
       </c>
       <c r="D18" t="n">
-        <v>34.59</v>
+        <v>33.5</v>
       </c>
       <c r="E18" t="n">
-        <v>34.59</v>
+        <v>33.49</v>
       </c>
       <c r="F18" t="n">
-        <v>2140</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="n">
-        <v>34.31333333333334</v>
+        <v>114250.4478</v>
       </c>
       <c r="H18" t="n">
-        <v>33.52633333333332</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,36 +1124,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>34.6</v>
+        <v>33.33</v>
       </c>
       <c r="C19" t="n">
-        <v>34.6</v>
+        <v>33.33</v>
       </c>
       <c r="D19" t="n">
-        <v>34.6</v>
+        <v>33.33</v>
       </c>
       <c r="E19" t="n">
-        <v>34.6</v>
+        <v>33.33</v>
       </c>
       <c r="F19" t="n">
-        <v>89.59537572254335</v>
+        <v>716.6962</v>
       </c>
       <c r="G19" t="n">
-        <v>34.30666666666666</v>
+        <v>113533.7516</v>
       </c>
       <c r="H19" t="n">
-        <v>33.56466666666665</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1138,36 +1167,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>34.5</v>
+        <v>33.5</v>
       </c>
       <c r="C20" t="n">
-        <v>34.6</v>
+        <v>33.6</v>
       </c>
       <c r="D20" t="n">
-        <v>34.6</v>
+        <v>33.6</v>
       </c>
       <c r="E20" t="n">
-        <v>34.5</v>
+        <v>33.5</v>
       </c>
       <c r="F20" t="n">
-        <v>5399.1617</v>
+        <v>5456.5714</v>
       </c>
       <c r="G20" t="n">
-        <v>34.324</v>
+        <v>118990.323</v>
       </c>
       <c r="H20" t="n">
-        <v>33.59949999999998</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="K20" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1176,36 +1210,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>34.6</v>
+        <v>33.6</v>
       </c>
       <c r="C21" t="n">
-        <v>34.6</v>
+        <v>33.6</v>
       </c>
       <c r="D21" t="n">
-        <v>34.6</v>
+        <v>33.6</v>
       </c>
       <c r="E21" t="n">
-        <v>34.6</v>
+        <v>33.6</v>
       </c>
       <c r="F21" t="n">
-        <v>1472.592024277457</v>
+        <v>69</v>
       </c>
       <c r="G21" t="n">
-        <v>34.35066666666667</v>
+        <v>118990.323</v>
       </c>
       <c r="H21" t="n">
-        <v>33.63383333333332</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1214,36 +1253,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>34.32</v>
+        <v>33.6</v>
       </c>
       <c r="C22" t="n">
-        <v>34.32</v>
+        <v>33.6</v>
       </c>
       <c r="D22" t="n">
-        <v>34.32</v>
+        <v>33.6</v>
       </c>
       <c r="E22" t="n">
-        <v>34.32</v>
+        <v>33.6</v>
       </c>
       <c r="F22" t="n">
-        <v>1048.6122</v>
+        <v>0.1332</v>
       </c>
       <c r="G22" t="n">
-        <v>34.35933333333334</v>
+        <v>118990.323</v>
       </c>
       <c r="H22" t="n">
-        <v>33.66549999999999</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1252,36 +1296,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>34.02</v>
+        <v>33.88</v>
       </c>
       <c r="C23" t="n">
-        <v>34.02</v>
+        <v>33.88</v>
       </c>
       <c r="D23" t="n">
-        <v>34.02</v>
+        <v>33.88</v>
       </c>
       <c r="E23" t="n">
-        <v>34.02</v>
+        <v>33.88</v>
       </c>
       <c r="F23" t="n">
-        <v>1226.2111</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>34.35000000000001</v>
+        <v>119090.323</v>
       </c>
       <c r="H23" t="n">
-        <v>33.68699999999999</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,36 +1337,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>34.01</v>
+        <v>33.88</v>
       </c>
       <c r="C24" t="n">
-        <v>34.01</v>
+        <v>33.88</v>
       </c>
       <c r="D24" t="n">
-        <v>34.01</v>
+        <v>33.88</v>
       </c>
       <c r="E24" t="n">
-        <v>34.01</v>
+        <v>33.88</v>
       </c>
       <c r="F24" t="n">
-        <v>552.1739</v>
+        <v>1136.3877</v>
       </c>
       <c r="G24" t="n">
-        <v>34.35066666666668</v>
+        <v>119090.323</v>
       </c>
       <c r="H24" t="n">
-        <v>33.71683333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1328,36 +1378,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>33.71</v>
+        <v>33.98</v>
       </c>
       <c r="C25" t="n">
-        <v>33.71</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>33.71</v>
+        <v>34</v>
       </c>
       <c r="E25" t="n">
-        <v>33.71</v>
+        <v>33.98</v>
       </c>
       <c r="F25" t="n">
-        <v>699.862</v>
+        <v>9446.2482</v>
       </c>
       <c r="G25" t="n">
-        <v>34.36066666666667</v>
+        <v>128536.5712</v>
       </c>
       <c r="H25" t="n">
-        <v>33.73833333333332</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1366,36 +1419,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>33.72</v>
+        <v>34.11</v>
       </c>
       <c r="C26" t="n">
-        <v>33.95</v>
+        <v>33.63</v>
       </c>
       <c r="D26" t="n">
-        <v>33.95</v>
+        <v>34.39</v>
       </c>
       <c r="E26" t="n">
-        <v>33.72</v>
+        <v>33.63</v>
       </c>
       <c r="F26" t="n">
-        <v>2989.1303</v>
+        <v>26885.4836</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31933333333334</v>
+        <v>101651.0876</v>
       </c>
       <c r="H26" t="n">
-        <v>33.75299999999999</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1404,36 +1460,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="D27" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="E27" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="F27" t="n">
-        <v>1684.6478</v>
+        <v>2744.3403</v>
       </c>
       <c r="G27" t="n">
-        <v>34.30533333333334</v>
+        <v>104395.4279</v>
       </c>
       <c r="H27" t="n">
-        <v>33.76999999999999</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1442,36 +1501,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>34.01</v>
+        <v>34.33</v>
       </c>
       <c r="C28" t="n">
-        <v>34.01</v>
+        <v>34.33</v>
       </c>
       <c r="D28" t="n">
-        <v>34.01</v>
+        <v>34.33</v>
       </c>
       <c r="E28" t="n">
-        <v>34.01</v>
+        <v>34.33</v>
       </c>
       <c r="F28" t="n">
-        <v>649.1304</v>
+        <v>490</v>
       </c>
       <c r="G28" t="n">
-        <v>34.29</v>
+        <v>104885.4279</v>
       </c>
       <c r="H28" t="n">
-        <v>33.78283333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1480,36 +1542,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="C29" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="D29" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="E29" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="F29" t="n">
-        <v>1508.0117</v>
+        <v>7096.3619</v>
       </c>
       <c r="G29" t="n">
-        <v>34.26200000000001</v>
+        <v>111981.7898</v>
       </c>
       <c r="H29" t="n">
-        <v>33.79633333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,36 +1583,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>34.03</v>
+        <v>34.4</v>
       </c>
       <c r="C30" t="n">
-        <v>34.03</v>
+        <v>34.43</v>
       </c>
       <c r="D30" t="n">
-        <v>34.03</v>
+        <v>34.43</v>
       </c>
       <c r="E30" t="n">
-        <v>34.03</v>
+        <v>34.4</v>
       </c>
       <c r="F30" t="n">
-        <v>303.1533</v>
+        <v>2224.0215</v>
       </c>
       <c r="G30" t="n">
-        <v>34.22933333333334</v>
+        <v>114205.8113</v>
       </c>
       <c r="H30" t="n">
-        <v>33.81183333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1556,40 +1624,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>34.1</v>
+        <v>34.44</v>
       </c>
       <c r="C31" t="n">
-        <v>34.1</v>
+        <v>34.53</v>
       </c>
       <c r="D31" t="n">
-        <v>34.1</v>
+        <v>34.53</v>
       </c>
       <c r="E31" t="n">
-        <v>34.1</v>
+        <v>34.44</v>
       </c>
       <c r="F31" t="n">
-        <v>1789.9999</v>
+        <v>561.5267</v>
       </c>
       <c r="G31" t="n">
-        <v>34.206</v>
+        <v>114767.338</v>
       </c>
       <c r="H31" t="n">
-        <v>33.831</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="L31" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1598,42 +1665,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>34</v>
+        <v>34.52</v>
       </c>
       <c r="C32" t="n">
-        <v>34.1</v>
+        <v>34.67</v>
       </c>
       <c r="D32" t="n">
-        <v>34.1</v>
+        <v>34.67</v>
       </c>
       <c r="E32" t="n">
-        <v>34</v>
+        <v>34.52</v>
       </c>
       <c r="F32" t="n">
-        <v>3118.3355</v>
+        <v>13726</v>
       </c>
       <c r="G32" t="n">
-        <v>34.18266666666667</v>
+        <v>128493.338</v>
       </c>
       <c r="H32" t="n">
-        <v>33.849</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1642,42 +1706,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>34.1</v>
+        <v>34.7</v>
       </c>
       <c r="C33" t="n">
-        <v>34.1</v>
+        <v>34.7</v>
       </c>
       <c r="D33" t="n">
-        <v>34.1</v>
+        <v>34.7</v>
       </c>
       <c r="E33" t="n">
-        <v>34.1</v>
+        <v>34.7</v>
       </c>
       <c r="F33" t="n">
-        <v>881.6645</v>
+        <v>3701.6402</v>
       </c>
       <c r="G33" t="n">
-        <v>34.15</v>
+        <v>132194.9782</v>
       </c>
       <c r="H33" t="n">
-        <v>33.8755</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1686,44 +1747,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>34</v>
+        <v>34.34</v>
       </c>
       <c r="C34" t="n">
-        <v>34</v>
+        <v>34.34</v>
       </c>
       <c r="D34" t="n">
-        <v>34</v>
+        <v>34.34</v>
       </c>
       <c r="E34" t="n">
-        <v>34</v>
+        <v>34.34</v>
       </c>
       <c r="F34" t="n">
-        <v>724.814</v>
+        <v>987.4121</v>
       </c>
       <c r="G34" t="n">
-        <v>34.11</v>
+        <v>131207.5661</v>
       </c>
       <c r="H34" t="n">
-        <v>33.90049999999999</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1732,44 +1788,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>34</v>
+        <v>34.25</v>
       </c>
       <c r="C35" t="n">
-        <v>33.98</v>
+        <v>34.2</v>
       </c>
       <c r="D35" t="n">
-        <v>34</v>
+        <v>34.25</v>
       </c>
       <c r="E35" t="n">
-        <v>33.98</v>
+        <v>34.2</v>
       </c>
       <c r="F35" t="n">
-        <v>3594.6</v>
+        <v>2203.9658</v>
       </c>
       <c r="G35" t="n">
-        <v>34.06866666666667</v>
+        <v>129003.6003</v>
       </c>
       <c r="H35" t="n">
-        <v>33.92683333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>34</v>
-      </c>
-      <c r="L35" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,44 +1829,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>33.81</v>
+        <v>34.19</v>
       </c>
       <c r="C36" t="n">
-        <v>33.81</v>
+        <v>34.19</v>
       </c>
       <c r="D36" t="n">
-        <v>33.81</v>
+        <v>34.19</v>
       </c>
       <c r="E36" t="n">
-        <v>33.81</v>
+        <v>34.19</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>964.1469</v>
       </c>
       <c r="G36" t="n">
-        <v>34.01599999999999</v>
+        <v>128039.4534</v>
       </c>
       <c r="H36" t="n">
-        <v>33.95349999999999</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>33.98</v>
-      </c>
-      <c r="L36" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1824,44 +1870,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>34</v>
+        <v>34.16</v>
       </c>
       <c r="C37" t="n">
-        <v>34.1</v>
+        <v>34.16</v>
       </c>
       <c r="D37" t="n">
-        <v>34.1</v>
+        <v>34.16</v>
       </c>
       <c r="E37" t="n">
-        <v>34</v>
+        <v>34.16</v>
       </c>
       <c r="F37" t="n">
-        <v>4000.3998</v>
+        <v>3701.6402</v>
       </c>
       <c r="G37" t="n">
-        <v>34.00133333333333</v>
+        <v>124337.8132</v>
       </c>
       <c r="H37" t="n">
-        <v>33.96866666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>33.81</v>
-      </c>
-      <c r="L37" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1870,44 +1911,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="C38" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="D38" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="E38" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="F38" t="n">
-        <v>2386.5563</v>
+        <v>63.7583</v>
       </c>
       <c r="G38" t="n">
-        <v>34.01333333333333</v>
+        <v>124274.0549</v>
       </c>
       <c r="H38" t="n">
-        <v>33.98899999999999</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1916,44 +1952,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.2</v>
+        <v>33.56</v>
       </c>
       <c r="C39" t="n">
-        <v>34.2</v>
+        <v>33.56</v>
       </c>
       <c r="D39" t="n">
-        <v>34.2</v>
+        <v>33.56</v>
       </c>
       <c r="E39" t="n">
-        <v>34.2</v>
+        <v>33.56</v>
       </c>
       <c r="F39" t="n">
-        <v>7465.2395</v>
+        <v>1435.4015</v>
       </c>
       <c r="G39" t="n">
-        <v>34.026</v>
+        <v>122838.6534</v>
       </c>
       <c r="H39" t="n">
-        <v>34.01333333333331</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L39" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1962,44 +1993,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="C40" t="n">
-        <v>34.46</v>
+        <v>34.57</v>
       </c>
       <c r="D40" t="n">
-        <v>34.46</v>
+        <v>34.57</v>
       </c>
       <c r="E40" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="F40" t="n">
-        <v>19034.4849</v>
+        <v>6340</v>
       </c>
       <c r="G40" t="n">
-        <v>34.076</v>
+        <v>129178.6534</v>
       </c>
       <c r="H40" t="n">
-        <v>34.03433333333331</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,44 +2034,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34.46</v>
+        <v>34.21</v>
       </c>
       <c r="C41" t="n">
-        <v>34.7</v>
+        <v>34.21</v>
       </c>
       <c r="D41" t="n">
-        <v>34.7</v>
+        <v>34.21</v>
       </c>
       <c r="E41" t="n">
-        <v>34.46</v>
+        <v>34.21</v>
       </c>
       <c r="F41" t="n">
-        <v>30287.2787</v>
+        <v>790.7968</v>
       </c>
       <c r="G41" t="n">
-        <v>34.126</v>
+        <v>128387.8566</v>
       </c>
       <c r="H41" t="n">
-        <v>34.05933333333331</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>34.46</v>
-      </c>
-      <c r="L41" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2054,44 +2075,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C42" t="n">
-        <v>34.85</v>
+        <v>34.24</v>
       </c>
       <c r="D42" t="n">
-        <v>34.85</v>
+        <v>34.6</v>
       </c>
       <c r="E42" t="n">
-        <v>34.7</v>
+        <v>34.24</v>
       </c>
       <c r="F42" t="n">
-        <v>5841.787</v>
+        <v>2286.2017</v>
       </c>
       <c r="G42" t="n">
-        <v>34.18266666666667</v>
+        <v>130674.0583</v>
       </c>
       <c r="H42" t="n">
-        <v>34.08599999999998</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="L42" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2100,42 +2116,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>34.7</v>
+        <v>34.53</v>
       </c>
       <c r="C43" t="n">
-        <v>34.7</v>
+        <v>34.52</v>
       </c>
       <c r="D43" t="n">
-        <v>34.7</v>
+        <v>34.53</v>
       </c>
       <c r="E43" t="n">
-        <v>34.7</v>
+        <v>34.52</v>
       </c>
       <c r="F43" t="n">
-        <v>576.692</v>
+        <v>6955.5176</v>
       </c>
       <c r="G43" t="n">
-        <v>34.22866666666667</v>
+        <v>137629.5759</v>
       </c>
       <c r="H43" t="n">
-        <v>34.11383333333331</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,42 +2157,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>34.7</v>
+        <v>34.52</v>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>34.52</v>
       </c>
       <c r="D44" t="n">
-        <v>35</v>
+        <v>34.52</v>
       </c>
       <c r="E44" t="n">
-        <v>34.7</v>
+        <v>34.52</v>
       </c>
       <c r="F44" t="n">
-        <v>42592.4095</v>
+        <v>2300.5116</v>
       </c>
       <c r="G44" t="n">
-        <v>34.28866666666667</v>
+        <v>137629.5759</v>
       </c>
       <c r="H44" t="n">
-        <v>34.14133333333332</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2188,42 +2198,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34.58</v>
+        <v>34.45</v>
       </c>
       <c r="C45" t="n">
-        <v>34.58</v>
+        <v>34.45</v>
       </c>
       <c r="D45" t="n">
-        <v>34.58</v>
+        <v>34.45</v>
       </c>
       <c r="E45" t="n">
-        <v>34.58</v>
+        <v>34.45</v>
       </c>
       <c r="F45" t="n">
-        <v>1245.9788</v>
+        <v>4500</v>
       </c>
       <c r="G45" t="n">
-        <v>34.32533333333334</v>
+        <v>133129.5759</v>
       </c>
       <c r="H45" t="n">
-        <v>34.16183333333332</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2232,42 +2239,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>34.61</v>
+        <v>34.45</v>
       </c>
       <c r="C46" t="n">
-        <v>34.61</v>
+        <v>34.45</v>
       </c>
       <c r="D46" t="n">
-        <v>34.61</v>
+        <v>34.45</v>
       </c>
       <c r="E46" t="n">
-        <v>34.61</v>
+        <v>34.45</v>
       </c>
       <c r="F46" t="n">
-        <v>795.0821</v>
+        <v>500</v>
       </c>
       <c r="G46" t="n">
-        <v>34.35933333333334</v>
+        <v>133129.5759</v>
       </c>
       <c r="H46" t="n">
-        <v>34.18033333333332</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2276,42 +2280,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>34.61</v>
+        <v>34.59</v>
       </c>
       <c r="C47" t="n">
-        <v>34.61</v>
+        <v>34.59</v>
       </c>
       <c r="D47" t="n">
-        <v>34.61</v>
+        <v>34.59</v>
       </c>
       <c r="E47" t="n">
-        <v>34.61</v>
+        <v>34.59</v>
       </c>
       <c r="F47" t="n">
-        <v>1315.876</v>
+        <v>2140</v>
       </c>
       <c r="G47" t="n">
-        <v>34.39333333333334</v>
+        <v>135269.5759</v>
       </c>
       <c r="H47" t="n">
-        <v>34.19883333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2320,42 +2321,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34.61</v>
+        <v>34.6</v>
       </c>
       <c r="C48" t="n">
         <v>34.6</v>
       </c>
       <c r="D48" t="n">
-        <v>34.61</v>
+        <v>34.6</v>
       </c>
       <c r="E48" t="n">
         <v>34.6</v>
       </c>
       <c r="F48" t="n">
-        <v>658.228</v>
+        <v>89.59537572254335</v>
       </c>
       <c r="G48" t="n">
-        <v>34.42666666666667</v>
+        <v>135359.1712757226</v>
       </c>
       <c r="H48" t="n">
-        <v>34.21716666666666</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,30 +2374,27 @@
         <v>34.5</v>
       </c>
       <c r="F49" t="n">
-        <v>11431.8627</v>
+        <v>5399.1617</v>
       </c>
       <c r="G49" t="n">
-        <v>34.46666666666668</v>
+        <v>135359.1712757226</v>
       </c>
       <c r="H49" t="n">
-        <v>34.23549999999999</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2420,30 +2415,27 @@
         <v>34.6</v>
       </c>
       <c r="F50" t="n">
-        <v>7965.3591</v>
+        <v>1472.592024277457</v>
       </c>
       <c r="G50" t="n">
-        <v>34.50800000000001</v>
+        <v>135359.1712757226</v>
       </c>
       <c r="H50" t="n">
-        <v>34.25666666666665</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,44 +2444,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>34.51</v>
+        <v>34.32</v>
       </c>
       <c r="C51" t="n">
-        <v>34.51</v>
+        <v>34.32</v>
       </c>
       <c r="D51" t="n">
-        <v>34.51</v>
+        <v>34.32</v>
       </c>
       <c r="E51" t="n">
-        <v>34.51</v>
+        <v>34.32</v>
       </c>
       <c r="F51" t="n">
-        <v>3289.1459</v>
+        <v>1048.6122</v>
       </c>
       <c r="G51" t="n">
-        <v>34.55466666666668</v>
+        <v>134310.5590757226</v>
       </c>
       <c r="H51" t="n">
-        <v>34.27183333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="L51" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,44 +2485,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>34.59</v>
+        <v>34.02</v>
       </c>
       <c r="C52" t="n">
-        <v>34.59</v>
+        <v>34.02</v>
       </c>
       <c r="D52" t="n">
-        <v>34.59</v>
+        <v>34.02</v>
       </c>
       <c r="E52" t="n">
-        <v>34.59</v>
+        <v>34.02</v>
       </c>
       <c r="F52" t="n">
-        <v>2706.812</v>
+        <v>1226.2111</v>
       </c>
       <c r="G52" t="n">
-        <v>34.58733333333335</v>
+        <v>133084.3479757226</v>
       </c>
       <c r="H52" t="n">
-        <v>34.28833333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>34.51</v>
-      </c>
-      <c r="L52" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2544,44 +2526,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>34.59</v>
+        <v>34.01</v>
       </c>
       <c r="C53" t="n">
-        <v>34.59</v>
+        <v>34.01</v>
       </c>
       <c r="D53" t="n">
-        <v>34.59</v>
+        <v>34.01</v>
       </c>
       <c r="E53" t="n">
-        <v>34.59</v>
+        <v>34.01</v>
       </c>
       <c r="F53" t="n">
-        <v>5316.3449</v>
+        <v>552.1739</v>
       </c>
       <c r="G53" t="n">
-        <v>34.61333333333334</v>
+        <v>132532.1740757226</v>
       </c>
       <c r="H53" t="n">
-        <v>34.30483333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>34.59</v>
-      </c>
-      <c r="L53" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,44 +2567,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>34.59</v>
+        <v>33.71</v>
       </c>
       <c r="C54" t="n">
-        <v>34.59</v>
+        <v>33.71</v>
       </c>
       <c r="D54" t="n">
-        <v>34.59</v>
+        <v>33.71</v>
       </c>
       <c r="E54" t="n">
-        <v>34.59</v>
+        <v>33.71</v>
       </c>
       <c r="F54" t="n">
-        <v>1219.3658</v>
+        <v>699.862</v>
       </c>
       <c r="G54" t="n">
-        <v>34.63933333333334</v>
+        <v>131832.3120757226</v>
       </c>
       <c r="H54" t="n">
-        <v>34.31666666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>34.59</v>
-      </c>
-      <c r="L54" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,44 +2608,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>34.59</v>
+        <v>33.72</v>
       </c>
       <c r="C55" t="n">
-        <v>34.7</v>
+        <v>33.95</v>
       </c>
       <c r="D55" t="n">
-        <v>34.7</v>
+        <v>33.95</v>
       </c>
       <c r="E55" t="n">
-        <v>34.59</v>
+        <v>33.72</v>
       </c>
       <c r="F55" t="n">
-        <v>10804.4919</v>
+        <v>2989.1303</v>
       </c>
       <c r="G55" t="n">
-        <v>34.65533333333335</v>
+        <v>134821.4423757226</v>
       </c>
       <c r="H55" t="n">
-        <v>34.33033333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>34.59</v>
-      </c>
-      <c r="L55" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,44 +2649,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>34.47</v>
+        <v>34</v>
       </c>
       <c r="C56" t="n">
-        <v>34.7</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
-        <v>34.7</v>
+        <v>34</v>
       </c>
       <c r="E56" t="n">
-        <v>34.47</v>
+        <v>34</v>
       </c>
       <c r="F56" t="n">
-        <v>7000</v>
+        <v>1684.6478</v>
       </c>
       <c r="G56" t="n">
-        <v>34.65533333333335</v>
+        <v>136506.0901757226</v>
       </c>
       <c r="H56" t="n">
-        <v>34.34199999999999</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="L56" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2728,42 +2690,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>34.69</v>
+        <v>34.01</v>
       </c>
       <c r="C57" t="n">
-        <v>34.69</v>
+        <v>34.01</v>
       </c>
       <c r="D57" t="n">
-        <v>34.69</v>
+        <v>34.01</v>
       </c>
       <c r="E57" t="n">
-        <v>34.69</v>
+        <v>34.01</v>
       </c>
       <c r="F57" t="n">
-        <v>140.669</v>
+        <v>649.1304</v>
       </c>
       <c r="G57" t="n">
-        <v>34.64466666666668</v>
+        <v>137155.2205757226</v>
       </c>
       <c r="H57" t="n">
-        <v>34.35966666666666</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2772,42 +2731,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>34.47</v>
+        <v>34.1</v>
       </c>
       <c r="C58" t="n">
-        <v>34.45</v>
+        <v>34.1</v>
       </c>
       <c r="D58" t="n">
-        <v>34.47</v>
+        <v>34.1</v>
       </c>
       <c r="E58" t="n">
-        <v>34.45</v>
+        <v>34.1</v>
       </c>
       <c r="F58" t="n">
-        <v>8920.718000000001</v>
+        <v>1508.0117</v>
       </c>
       <c r="G58" t="n">
-        <v>34.62800000000001</v>
+        <v>138663.2322757226</v>
       </c>
       <c r="H58" t="n">
-        <v>34.36216666666665</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2816,42 +2772,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>34.59</v>
+        <v>34.03</v>
       </c>
       <c r="C59" t="n">
-        <v>34.59</v>
+        <v>34.03</v>
       </c>
       <c r="D59" t="n">
-        <v>34.59</v>
+        <v>34.03</v>
       </c>
       <c r="E59" t="n">
-        <v>34.59</v>
+        <v>34.03</v>
       </c>
       <c r="F59" t="n">
-        <v>1770</v>
+        <v>303.1533</v>
       </c>
       <c r="G59" t="n">
-        <v>34.60066666666668</v>
+        <v>138360.0789757226</v>
       </c>
       <c r="H59" t="n">
-        <v>34.36649999999999</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2860,42 +2813,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>34.59</v>
+        <v>34.1</v>
       </c>
       <c r="C60" t="n">
-        <v>34.69</v>
+        <v>34.1</v>
       </c>
       <c r="D60" t="n">
-        <v>34.69</v>
+        <v>34.1</v>
       </c>
       <c r="E60" t="n">
-        <v>34.59</v>
+        <v>34.1</v>
       </c>
       <c r="F60" t="n">
-        <v>10224.1671</v>
+        <v>1789.9999</v>
       </c>
       <c r="G60" t="n">
-        <v>34.60800000000002</v>
+        <v>140150.0788757226</v>
       </c>
       <c r="H60" t="n">
-        <v>34.37133333333332</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2904,42 +2854,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>34.69</v>
+        <v>34</v>
       </c>
       <c r="C61" t="n">
-        <v>34.69</v>
+        <v>34.1</v>
       </c>
       <c r="D61" t="n">
-        <v>34.69</v>
+        <v>34.1</v>
       </c>
       <c r="E61" t="n">
-        <v>34.69</v>
+        <v>34</v>
       </c>
       <c r="F61" t="n">
-        <v>7850.3551</v>
+        <v>3118.3355</v>
       </c>
       <c r="G61" t="n">
-        <v>34.61333333333334</v>
+        <v>140150.0788757226</v>
       </c>
       <c r="H61" t="n">
-        <v>34.37566666666666</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2948,42 +2895,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>34.69</v>
+        <v>34.1</v>
       </c>
       <c r="C62" t="n">
-        <v>34.69</v>
+        <v>34.1</v>
       </c>
       <c r="D62" t="n">
-        <v>34.69</v>
+        <v>34.1</v>
       </c>
       <c r="E62" t="n">
-        <v>34.69</v>
+        <v>34.1</v>
       </c>
       <c r="F62" t="n">
-        <v>989.2967</v>
+        <v>881.6645</v>
       </c>
       <c r="G62" t="n">
-        <v>34.61866666666667</v>
+        <v>140150.0788757226</v>
       </c>
       <c r="H62" t="n">
-        <v>34.37833333333332</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2992,42 +2936,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>34.7</v>
+        <v>34</v>
       </c>
       <c r="C63" t="n">
-        <v>34.7</v>
+        <v>34</v>
       </c>
       <c r="D63" t="n">
-        <v>34.7</v>
+        <v>34</v>
       </c>
       <c r="E63" t="n">
-        <v>34.7</v>
+        <v>34</v>
       </c>
       <c r="F63" t="n">
-        <v>2420.0137</v>
+        <v>724.814</v>
       </c>
       <c r="G63" t="n">
-        <v>34.62533333333334</v>
+        <v>139425.2648757226</v>
       </c>
       <c r="H63" t="n">
-        <v>34.37883333333332</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,42 +2977,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>34.7</v>
+        <v>34</v>
       </c>
       <c r="C64" t="n">
-        <v>34.7</v>
+        <v>33.98</v>
       </c>
       <c r="D64" t="n">
-        <v>34.7</v>
+        <v>34</v>
       </c>
       <c r="E64" t="n">
-        <v>34.7</v>
+        <v>33.98</v>
       </c>
       <c r="F64" t="n">
-        <v>65.99890000000001</v>
+        <v>3594.6</v>
       </c>
       <c r="G64" t="n">
-        <v>34.63200000000001</v>
+        <v>135830.6648757225</v>
       </c>
       <c r="H64" t="n">
-        <v>34.37883333333332</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3080,42 +3018,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>34.54</v>
+        <v>33.81</v>
       </c>
       <c r="C65" t="n">
-        <v>34.54</v>
+        <v>33.81</v>
       </c>
       <c r="D65" t="n">
-        <v>34.54</v>
+        <v>33.81</v>
       </c>
       <c r="E65" t="n">
-        <v>34.54</v>
+        <v>33.81</v>
       </c>
       <c r="F65" t="n">
-        <v>490.759</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>34.62800000000001</v>
+        <v>135730.6648757225</v>
       </c>
       <c r="H65" t="n">
-        <v>34.38216666666665</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,42 +3059,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>34.57</v>
+        <v>34</v>
       </c>
       <c r="C66" t="n">
-        <v>34.57</v>
+        <v>34.1</v>
       </c>
       <c r="D66" t="n">
-        <v>34.57</v>
+        <v>34.1</v>
       </c>
       <c r="E66" t="n">
-        <v>34.57</v>
+        <v>34</v>
       </c>
       <c r="F66" t="n">
-        <v>8913.1252</v>
+        <v>4000.3998</v>
       </c>
       <c r="G66" t="n">
-        <v>34.63200000000001</v>
+        <v>139731.0646757226</v>
       </c>
       <c r="H66" t="n">
-        <v>34.38833333333332</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="K66" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3168,42 +3102,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>34.57</v>
+        <v>34.2</v>
       </c>
       <c r="C67" t="n">
-        <v>34.57</v>
+        <v>34.2</v>
       </c>
       <c r="D67" t="n">
-        <v>34.57</v>
+        <v>34.2</v>
       </c>
       <c r="E67" t="n">
-        <v>34.57</v>
+        <v>34.2</v>
       </c>
       <c r="F67" t="n">
-        <v>21.1693</v>
+        <v>2386.5563</v>
       </c>
       <c r="G67" t="n">
-        <v>34.63066666666668</v>
+        <v>142117.6209757226</v>
       </c>
       <c r="H67" t="n">
-        <v>34.39466666666666</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,42 +3145,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>34.33</v>
+        <v>34.2</v>
       </c>
       <c r="C68" t="n">
-        <v>34.22</v>
+        <v>34.2</v>
       </c>
       <c r="D68" t="n">
-        <v>34.33</v>
+        <v>34.2</v>
       </c>
       <c r="E68" t="n">
-        <v>34.22</v>
+        <v>34.2</v>
       </c>
       <c r="F68" t="n">
-        <v>8934.2945</v>
+        <v>7465.2395</v>
       </c>
       <c r="G68" t="n">
-        <v>34.60600000000001</v>
+        <v>142117.6209757226</v>
       </c>
       <c r="H68" t="n">
-        <v>34.39566666666666</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="K68" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3256,42 +3188,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>34.13</v>
+        <v>34.2</v>
       </c>
       <c r="C69" t="n">
-        <v>34.13</v>
+        <v>34.46</v>
       </c>
       <c r="D69" t="n">
-        <v>34.13</v>
+        <v>34.46</v>
       </c>
       <c r="E69" t="n">
-        <v>34.13</v>
+        <v>34.2</v>
       </c>
       <c r="F69" t="n">
-        <v>35.946</v>
+        <v>19034.4849</v>
       </c>
       <c r="G69" t="n">
-        <v>34.57533333333334</v>
+        <v>161152.1058757226</v>
       </c>
       <c r="H69" t="n">
-        <v>34.39783333333332</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,42 +3229,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>34.2</v>
+        <v>34.46</v>
       </c>
       <c r="C70" t="n">
-        <v>34.09</v>
+        <v>34.7</v>
       </c>
       <c r="D70" t="n">
-        <v>34.2</v>
+        <v>34.7</v>
       </c>
       <c r="E70" t="n">
-        <v>34.08</v>
+        <v>34.46</v>
       </c>
       <c r="F70" t="n">
-        <v>36147.5886</v>
+        <v>30287.2787</v>
       </c>
       <c r="G70" t="n">
-        <v>34.53466666666667</v>
+        <v>191439.3845757226</v>
       </c>
       <c r="H70" t="n">
-        <v>34.40666666666666</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,44 +3270,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>34</v>
+        <v>34.7</v>
       </c>
       <c r="C71" t="n">
-        <v>34.2</v>
+        <v>34.85</v>
       </c>
       <c r="D71" t="n">
-        <v>34.2</v>
+        <v>34.85</v>
       </c>
       <c r="E71" t="n">
-        <v>34</v>
+        <v>34.7</v>
       </c>
       <c r="F71" t="n">
-        <v>3293.496</v>
+        <v>5841.787</v>
       </c>
       <c r="G71" t="n">
-        <v>34.50133333333334</v>
+        <v>197281.1715757226</v>
       </c>
       <c r="H71" t="n">
-        <v>34.40049999999999</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>34.09</v>
-      </c>
-      <c r="L71" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3390,44 +3311,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>34.02</v>
+        <v>34.7</v>
       </c>
       <c r="C72" t="n">
-        <v>33.91</v>
+        <v>34.7</v>
       </c>
       <c r="D72" t="n">
-        <v>34.02</v>
+        <v>34.7</v>
       </c>
       <c r="E72" t="n">
-        <v>33.91</v>
+        <v>34.7</v>
       </c>
       <c r="F72" t="n">
-        <v>10804.4919</v>
+        <v>576.692</v>
       </c>
       <c r="G72" t="n">
-        <v>34.44933333333334</v>
+        <v>196704.4795757226</v>
       </c>
       <c r="H72" t="n">
-        <v>34.39549999999998</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L72" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,44 +3352,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>34.2</v>
+        <v>34.7</v>
       </c>
       <c r="C73" t="n">
-        <v>34.2</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
-        <v>34.2</v>
+        <v>35</v>
       </c>
       <c r="E73" t="n">
-        <v>34.2</v>
+        <v>34.7</v>
       </c>
       <c r="F73" t="n">
-        <v>1176.3529</v>
+        <v>42592.4095</v>
       </c>
       <c r="G73" t="n">
-        <v>34.43266666666667</v>
+        <v>239296.8890757226</v>
       </c>
       <c r="H73" t="n">
-        <v>34.39483333333332</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>33.91</v>
-      </c>
-      <c r="L73" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,44 +3393,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>34.01</v>
+        <v>34.58</v>
       </c>
       <c r="C74" t="n">
-        <v>34.01</v>
+        <v>34.58</v>
       </c>
       <c r="D74" t="n">
-        <v>34.01</v>
+        <v>34.58</v>
       </c>
       <c r="E74" t="n">
-        <v>34.01</v>
+        <v>34.58</v>
       </c>
       <c r="F74" t="n">
-        <v>5084.0191</v>
+        <v>1245.9788</v>
       </c>
       <c r="G74" t="n">
-        <v>34.394</v>
+        <v>238050.9102757226</v>
       </c>
       <c r="H74" t="n">
-        <v>34.38633333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L74" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,44 +3434,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>34.2</v>
+        <v>34.61</v>
       </c>
       <c r="C75" t="n">
-        <v>34.2</v>
+        <v>34.61</v>
       </c>
       <c r="D75" t="n">
-        <v>34.2</v>
+        <v>34.61</v>
       </c>
       <c r="E75" t="n">
-        <v>34.2</v>
+        <v>34.61</v>
       </c>
       <c r="F75" t="n">
-        <v>2316.2197</v>
+        <v>795.0821</v>
       </c>
       <c r="G75" t="n">
-        <v>34.36133333333334</v>
+        <v>238845.9923757226</v>
       </c>
       <c r="H75" t="n">
-        <v>34.38099999999999</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>34.01</v>
-      </c>
-      <c r="L75" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,44 +3475,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>34.2</v>
+        <v>34.61</v>
       </c>
       <c r="C76" t="n">
-        <v>34.2</v>
+        <v>34.61</v>
       </c>
       <c r="D76" t="n">
-        <v>34.2</v>
+        <v>34.61</v>
       </c>
       <c r="E76" t="n">
-        <v>34.2</v>
+        <v>34.61</v>
       </c>
       <c r="F76" t="n">
-        <v>1300</v>
+        <v>1315.876</v>
       </c>
       <c r="G76" t="n">
-        <v>34.32866666666667</v>
+        <v>238845.9923757226</v>
       </c>
       <c r="H76" t="n">
-        <v>34.37683333333332</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L76" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3620,44 +3516,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>34.07</v>
+        <v>34.61</v>
       </c>
       <c r="C77" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="D77" t="n">
-        <v>34.3</v>
+        <v>34.61</v>
       </c>
       <c r="E77" t="n">
-        <v>34.07</v>
+        <v>34.6</v>
       </c>
       <c r="F77" t="n">
-        <v>3993</v>
+        <v>658.228</v>
       </c>
       <c r="G77" t="n">
-        <v>34.30266666666667</v>
+        <v>238187.7643757226</v>
       </c>
       <c r="H77" t="n">
-        <v>34.37433333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L77" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3666,44 +3557,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="C78" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="D78" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="E78" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="F78" t="n">
-        <v>2914.5743</v>
+        <v>11431.8627</v>
       </c>
       <c r="G78" t="n">
-        <v>34.27599999999999</v>
+        <v>238187.7643757226</v>
       </c>
       <c r="H78" t="n">
-        <v>34.3695</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L78" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,44 +3598,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="C79" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="D79" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="E79" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="F79" t="n">
-        <v>1219.3658</v>
+        <v>7965.3591</v>
       </c>
       <c r="G79" t="n">
-        <v>34.24933333333332</v>
+        <v>238187.7643757226</v>
       </c>
       <c r="H79" t="n">
-        <v>34.3645</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L79" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,44 +3639,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>34.15</v>
+        <v>34.51</v>
       </c>
       <c r="C80" t="n">
-        <v>34.3</v>
+        <v>34.51</v>
       </c>
       <c r="D80" t="n">
-        <v>34.3</v>
+        <v>34.51</v>
       </c>
       <c r="E80" t="n">
-        <v>34.15</v>
+        <v>34.51</v>
       </c>
       <c r="F80" t="n">
-        <v>3129.7222</v>
+        <v>3289.1459</v>
       </c>
       <c r="G80" t="n">
-        <v>34.23333333333332</v>
+        <v>234898.6184757226</v>
       </c>
       <c r="H80" t="n">
-        <v>34.3595</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L80" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,44 +3680,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>34.3</v>
+        <v>34.59</v>
       </c>
       <c r="C81" t="n">
-        <v>34.4</v>
+        <v>34.59</v>
       </c>
       <c r="D81" t="n">
-        <v>34.4</v>
+        <v>34.59</v>
       </c>
       <c r="E81" t="n">
-        <v>34.3</v>
+        <v>34.59</v>
       </c>
       <c r="F81" t="n">
-        <v>44623.473</v>
+        <v>2706.812</v>
       </c>
       <c r="G81" t="n">
-        <v>34.22199999999998</v>
+        <v>237605.4304757226</v>
       </c>
       <c r="H81" t="n">
-        <v>34.35616666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="L81" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3850,44 +3721,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>34.4</v>
+        <v>34.59</v>
       </c>
       <c r="C82" t="n">
-        <v>34.4</v>
+        <v>34.59</v>
       </c>
       <c r="D82" t="n">
-        <v>34.4</v>
+        <v>34.59</v>
       </c>
       <c r="E82" t="n">
-        <v>34.4</v>
+        <v>34.59</v>
       </c>
       <c r="F82" t="n">
-        <v>5892.7678</v>
+        <v>5316.3449</v>
       </c>
       <c r="G82" t="n">
-        <v>34.21066666666664</v>
+        <v>237605.4304757226</v>
       </c>
       <c r="H82" t="n">
-        <v>34.3575</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L82" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,44 +3762,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>34.4</v>
+        <v>34.59</v>
       </c>
       <c r="C83" t="n">
-        <v>34.4</v>
+        <v>34.59</v>
       </c>
       <c r="D83" t="n">
-        <v>34.4</v>
+        <v>34.59</v>
       </c>
       <c r="E83" t="n">
-        <v>34.4</v>
+        <v>34.59</v>
       </c>
       <c r="F83" t="n">
-        <v>499.0501</v>
+        <v>1219.3658</v>
       </c>
       <c r="G83" t="n">
-        <v>34.22266666666664</v>
+        <v>237605.4304757226</v>
       </c>
       <c r="H83" t="n">
-        <v>34.36383333333334</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="L83" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3942,42 +3803,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>34.4</v>
+        <v>34.59</v>
       </c>
       <c r="C84" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="D84" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="E84" t="n">
-        <v>34.4</v>
+        <v>34.59</v>
       </c>
       <c r="F84" t="n">
-        <v>7965.4372</v>
+        <v>10804.4919</v>
       </c>
       <c r="G84" t="n">
-        <v>34.24066666666663</v>
+        <v>248409.9223757226</v>
       </c>
       <c r="H84" t="n">
-        <v>34.37033333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3986,42 +3844,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>34.4</v>
+        <v>34.47</v>
       </c>
       <c r="C85" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="D85" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="E85" t="n">
-        <v>34.4</v>
+        <v>34.47</v>
       </c>
       <c r="F85" t="n">
-        <v>2302.6908</v>
+        <v>7000</v>
       </c>
       <c r="G85" t="n">
-        <v>34.2613333333333</v>
+        <v>248409.9223757226</v>
       </c>
       <c r="H85" t="n">
-        <v>34.38183333333334</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,42 +3885,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>34.4</v>
+        <v>34.69</v>
       </c>
       <c r="C86" t="n">
-        <v>34.4</v>
+        <v>34.69</v>
       </c>
       <c r="D86" t="n">
-        <v>34.4</v>
+        <v>34.69</v>
       </c>
       <c r="E86" t="n">
-        <v>34.4</v>
+        <v>34.69</v>
       </c>
       <c r="F86" t="n">
-        <v>1342.9289</v>
+        <v>140.669</v>
       </c>
       <c r="G86" t="n">
-        <v>34.27466666666663</v>
+        <v>248269.2533757226</v>
       </c>
       <c r="H86" t="n">
-        <v>34.38933333333334</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4074,42 +3926,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>34.57</v>
+        <v>34.47</v>
       </c>
       <c r="C87" t="n">
-        <v>34.69</v>
+        <v>34.45</v>
       </c>
       <c r="D87" t="n">
-        <v>34.69</v>
+        <v>34.47</v>
       </c>
       <c r="E87" t="n">
-        <v>34.57</v>
+        <v>34.45</v>
       </c>
       <c r="F87" t="n">
-        <v>7437.7455</v>
+        <v>8920.718000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>34.32666666666663</v>
+        <v>239348.5353757226</v>
       </c>
       <c r="H87" t="n">
-        <v>34.40083333333335</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4118,42 +3967,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>34.69</v>
+        <v>34.59</v>
       </c>
       <c r="C88" t="n">
-        <v>35</v>
+        <v>34.59</v>
       </c>
       <c r="D88" t="n">
-        <v>35</v>
+        <v>34.59</v>
       </c>
       <c r="E88" t="n">
-        <v>34.69</v>
+        <v>34.59</v>
       </c>
       <c r="F88" t="n">
-        <v>205012.9286</v>
+        <v>1770</v>
       </c>
       <c r="G88" t="n">
-        <v>34.37999999999997</v>
+        <v>241118.5353757226</v>
       </c>
       <c r="H88" t="n">
-        <v>34.41733333333334</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,42 +4008,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>35</v>
+        <v>34.59</v>
       </c>
       <c r="C89" t="n">
-        <v>35</v>
+        <v>34.69</v>
       </c>
       <c r="D89" t="n">
-        <v>35</v>
+        <v>34.69</v>
       </c>
       <c r="E89" t="n">
-        <v>35</v>
+        <v>34.59</v>
       </c>
       <c r="F89" t="n">
-        <v>6100</v>
+        <v>10224.1671</v>
       </c>
       <c r="G89" t="n">
-        <v>34.44599999999996</v>
+        <v>251342.7024757226</v>
       </c>
       <c r="H89" t="n">
-        <v>34.43233333333334</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,42 +4049,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>35.09</v>
+        <v>34.69</v>
       </c>
       <c r="C90" t="n">
-        <v>35.09</v>
+        <v>34.69</v>
       </c>
       <c r="D90" t="n">
-        <v>35.09</v>
+        <v>34.69</v>
       </c>
       <c r="E90" t="n">
-        <v>35.09</v>
+        <v>34.69</v>
       </c>
       <c r="F90" t="n">
-        <v>1247.648</v>
+        <v>7850.3551</v>
       </c>
       <c r="G90" t="n">
-        <v>34.5053333333333</v>
+        <v>251342.7024757226</v>
       </c>
       <c r="H90" t="n">
-        <v>34.45000000000001</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4250,42 +4090,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>34.99</v>
+        <v>34.69</v>
       </c>
       <c r="C91" t="n">
-        <v>34.99</v>
+        <v>34.69</v>
       </c>
       <c r="D91" t="n">
-        <v>34.99</v>
+        <v>34.69</v>
       </c>
       <c r="E91" t="n">
-        <v>34.99</v>
+        <v>34.69</v>
       </c>
       <c r="F91" t="n">
-        <v>7677.3824</v>
+        <v>989.2967</v>
       </c>
       <c r="G91" t="n">
-        <v>34.55799999999996</v>
+        <v>251342.7024757226</v>
       </c>
       <c r="H91" t="n">
-        <v>34.46483333333334</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4297,39 +4134,36 @@
         <v>34.7</v>
       </c>
       <c r="C92" t="n">
-        <v>34.71</v>
+        <v>34.7</v>
       </c>
       <c r="D92" t="n">
-        <v>34.71</v>
+        <v>34.7</v>
       </c>
       <c r="E92" t="n">
         <v>34.7</v>
       </c>
       <c r="F92" t="n">
-        <v>1420.5948</v>
+        <v>2420.0137</v>
       </c>
       <c r="G92" t="n">
-        <v>34.5853333333333</v>
+        <v>253762.7161757226</v>
       </c>
       <c r="H92" t="n">
-        <v>34.47500000000001</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4338,42 +4172,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>34.75</v>
+        <v>34.7</v>
       </c>
       <c r="C93" t="n">
-        <v>34.75</v>
+        <v>34.7</v>
       </c>
       <c r="D93" t="n">
-        <v>34.75</v>
+        <v>34.7</v>
       </c>
       <c r="E93" t="n">
-        <v>34.75</v>
+        <v>34.7</v>
       </c>
       <c r="F93" t="n">
-        <v>7500</v>
+        <v>65.99890000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>34.6153333333333</v>
+        <v>253762.7161757226</v>
       </c>
       <c r="H93" t="n">
-        <v>34.48583333333334</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4382,42 +4213,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>34.75</v>
+        <v>34.54</v>
       </c>
       <c r="C94" t="n">
-        <v>34.75</v>
+        <v>34.54</v>
       </c>
       <c r="D94" t="n">
-        <v>34.75</v>
+        <v>34.54</v>
       </c>
       <c r="E94" t="n">
-        <v>34.75</v>
+        <v>34.54</v>
       </c>
       <c r="F94" t="n">
-        <v>15926.7722</v>
+        <v>490.759</v>
       </c>
       <c r="G94" t="n">
-        <v>34.6453333333333</v>
+        <v>253271.9571757226</v>
       </c>
       <c r="H94" t="n">
-        <v>34.49833333333334</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,42 +4254,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>34.75</v>
+        <v>34.57</v>
       </c>
       <c r="C95" t="n">
-        <v>34.75</v>
+        <v>34.57</v>
       </c>
       <c r="D95" t="n">
-        <v>34.75</v>
+        <v>34.57</v>
       </c>
       <c r="E95" t="n">
-        <v>34.75</v>
+        <v>34.57</v>
       </c>
       <c r="F95" t="n">
-        <v>3851.5653</v>
+        <v>8913.1252</v>
       </c>
       <c r="G95" t="n">
-        <v>34.67533333333331</v>
+        <v>262185.0823757226</v>
       </c>
       <c r="H95" t="n">
-        <v>34.51116666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4470,42 +4295,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>34.75</v>
+        <v>34.57</v>
       </c>
       <c r="C96" t="n">
-        <v>34.75</v>
+        <v>34.57</v>
       </c>
       <c r="D96" t="n">
-        <v>34.75</v>
+        <v>34.57</v>
       </c>
       <c r="E96" t="n">
-        <v>34.75</v>
+        <v>34.57</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0001</v>
+        <v>21.1693</v>
       </c>
       <c r="G96" t="n">
-        <v>34.69866666666665</v>
+        <v>262185.0823757226</v>
       </c>
       <c r="H96" t="n">
-        <v>34.52683333333334</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4514,42 +4336,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>34.9</v>
+        <v>34.33</v>
       </c>
       <c r="C97" t="n">
-        <v>34.9</v>
+        <v>34.22</v>
       </c>
       <c r="D97" t="n">
-        <v>34.9</v>
+        <v>34.33</v>
       </c>
       <c r="E97" t="n">
-        <v>34.9</v>
+        <v>34.22</v>
       </c>
       <c r="F97" t="n">
-        <v>10000</v>
+        <v>8934.2945</v>
       </c>
       <c r="G97" t="n">
-        <v>34.73199999999998</v>
+        <v>253250.7878757226</v>
       </c>
       <c r="H97" t="n">
-        <v>34.54016666666668</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,42 +4377,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>35</v>
+        <v>34.13</v>
       </c>
       <c r="C98" t="n">
-        <v>35</v>
+        <v>34.13</v>
       </c>
       <c r="D98" t="n">
-        <v>35</v>
+        <v>34.13</v>
       </c>
       <c r="E98" t="n">
-        <v>35</v>
+        <v>34.13</v>
       </c>
       <c r="F98" t="n">
-        <v>1120.3361</v>
+        <v>35.946</v>
       </c>
       <c r="G98" t="n">
-        <v>34.77199999999998</v>
+        <v>253214.8418757226</v>
       </c>
       <c r="H98" t="n">
-        <v>34.55350000000001</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4602,42 +4418,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>35</v>
+        <v>34.2</v>
       </c>
       <c r="C99" t="n">
-        <v>35.39</v>
+        <v>34.09</v>
       </c>
       <c r="D99" t="n">
-        <v>35.39</v>
+        <v>34.2</v>
       </c>
       <c r="E99" t="n">
-        <v>35</v>
+        <v>34.08</v>
       </c>
       <c r="F99" t="n">
-        <v>27800</v>
+        <v>36147.5886</v>
       </c>
       <c r="G99" t="n">
-        <v>34.83799999999998</v>
+        <v>217067.2532757226</v>
       </c>
       <c r="H99" t="n">
-        <v>34.57333333333335</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4646,42 +4459,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C100" t="n">
-        <v>35</v>
+        <v>34.2</v>
       </c>
       <c r="D100" t="n">
-        <v>35</v>
+        <v>34.2</v>
       </c>
       <c r="E100" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F100" t="n">
-        <v>3550</v>
+        <v>3293.496</v>
       </c>
       <c r="G100" t="n">
-        <v>34.87799999999998</v>
+        <v>220360.7492757226</v>
       </c>
       <c r="H100" t="n">
-        <v>34.58233333333335</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,42 +4500,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>35</v>
+        <v>34.02</v>
       </c>
       <c r="C101" t="n">
-        <v>35</v>
+        <v>33.91</v>
       </c>
       <c r="D101" t="n">
-        <v>35</v>
+        <v>34.02</v>
       </c>
       <c r="E101" t="n">
-        <v>35</v>
+        <v>33.91</v>
       </c>
       <c r="F101" t="n">
-        <v>857.1428571428571</v>
+        <v>10804.4919</v>
       </c>
       <c r="G101" t="n">
-        <v>34.91799999999999</v>
+        <v>209556.2573757226</v>
       </c>
       <c r="H101" t="n">
-        <v>34.58733333333335</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,42 +4541,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>35</v>
+        <v>34.2</v>
       </c>
       <c r="C102" t="n">
-        <v>35</v>
+        <v>34.2</v>
       </c>
       <c r="D102" t="n">
-        <v>35</v>
+        <v>34.2</v>
       </c>
       <c r="E102" t="n">
-        <v>35</v>
+        <v>34.2</v>
       </c>
       <c r="F102" t="n">
-        <v>3588.1177</v>
+        <v>1176.3529</v>
       </c>
       <c r="G102" t="n">
-        <v>34.93866666666665</v>
+        <v>210732.6102757226</v>
       </c>
       <c r="H102" t="n">
-        <v>34.58983333333335</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,42 +4582,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>35</v>
+        <v>34.01</v>
       </c>
       <c r="C103" t="n">
-        <v>35</v>
+        <v>34.01</v>
       </c>
       <c r="D103" t="n">
-        <v>35</v>
+        <v>34.01</v>
       </c>
       <c r="E103" t="n">
-        <v>35</v>
+        <v>34.01</v>
       </c>
       <c r="F103" t="n">
-        <v>1655.4966</v>
+        <v>5084.0191</v>
       </c>
       <c r="G103" t="n">
-        <v>34.93866666666665</v>
+        <v>205648.5911757226</v>
       </c>
       <c r="H103" t="n">
-        <v>34.59483333333336</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,43 +4623,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>34.81</v>
+        <v>34.2</v>
       </c>
       <c r="C104" t="n">
-        <v>35.15</v>
+        <v>34.2</v>
       </c>
       <c r="D104" t="n">
-        <v>35.15</v>
+        <v>34.2</v>
       </c>
       <c r="E104" t="n">
-        <v>34.8</v>
+        <v>34.2</v>
       </c>
       <c r="F104" t="n">
-        <v>13736.62524285714</v>
+        <v>2316.2197</v>
       </c>
       <c r="G104" t="n">
-        <v>34.94866666666665</v>
+        <v>207964.8108757226</v>
       </c>
       <c r="H104" t="n">
-        <v>34.59733333333336</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
-        <v>1.027912136350279</v>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4866,36 +4664,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>34.92</v>
+        <v>34.2</v>
       </c>
       <c r="C105" t="n">
-        <v>34.91</v>
+        <v>34.2</v>
       </c>
       <c r="D105" t="n">
-        <v>34.92</v>
+        <v>34.2</v>
       </c>
       <c r="E105" t="n">
-        <v>34.91</v>
+        <v>34.2</v>
       </c>
       <c r="F105" t="n">
-        <v>5680</v>
+        <v>1300</v>
       </c>
       <c r="G105" t="n">
-        <v>34.93666666666664</v>
+        <v>207964.8108757226</v>
       </c>
       <c r="H105" t="n">
-        <v>34.60283333333336</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4904,36 +4705,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>34.91</v>
+        <v>34.07</v>
       </c>
       <c r="C106" t="n">
-        <v>34.91</v>
+        <v>34.3</v>
       </c>
       <c r="D106" t="n">
-        <v>34.91</v>
+        <v>34.3</v>
       </c>
       <c r="E106" t="n">
-        <v>34.91</v>
+        <v>34.07</v>
       </c>
       <c r="F106" t="n">
-        <v>1978.3825</v>
+        <v>3993</v>
       </c>
       <c r="G106" t="n">
-        <v>34.93133333333331</v>
+        <v>211957.8108757226</v>
       </c>
       <c r="H106" t="n">
-        <v>34.60783333333335</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4942,36 +4746,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>34.91</v>
+        <v>34.3</v>
       </c>
       <c r="C107" t="n">
-        <v>34.91</v>
+        <v>34.3</v>
       </c>
       <c r="D107" t="n">
-        <v>34.91</v>
+        <v>34.3</v>
       </c>
       <c r="E107" t="n">
-        <v>34.91</v>
+        <v>34.3</v>
       </c>
       <c r="F107" t="n">
-        <v>18818.6208</v>
+        <v>2914.5743</v>
       </c>
       <c r="G107" t="n">
-        <v>34.94466666666663</v>
+        <v>211957.8108757226</v>
       </c>
       <c r="H107" t="n">
-        <v>34.61283333333335</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4980,36 +4787,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>35.05</v>
+        <v>34.3</v>
       </c>
       <c r="C108" t="n">
-        <v>34.8</v>
+        <v>34.3</v>
       </c>
       <c r="D108" t="n">
-        <v>35.05</v>
+        <v>34.3</v>
       </c>
       <c r="E108" t="n">
-        <v>34.8</v>
+        <v>34.3</v>
       </c>
       <c r="F108" t="n">
-        <v>2093.3521</v>
+        <v>1219.3658</v>
       </c>
       <c r="G108" t="n">
-        <v>34.94799999999996</v>
+        <v>211957.8108757226</v>
       </c>
       <c r="H108" t="n">
-        <v>34.61616666666669</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,36 +4828,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>34.65</v>
+        <v>34.15</v>
       </c>
       <c r="C109" t="n">
-        <v>34.65</v>
+        <v>34.3</v>
       </c>
       <c r="D109" t="n">
-        <v>34.65</v>
+        <v>34.3</v>
       </c>
       <c r="E109" t="n">
-        <v>34.65</v>
+        <v>34.15</v>
       </c>
       <c r="F109" t="n">
-        <v>1880.5074</v>
+        <v>3129.7222</v>
       </c>
       <c r="G109" t="n">
-        <v>34.9413333333333</v>
+        <v>211957.8108757226</v>
       </c>
       <c r="H109" t="n">
-        <v>34.61700000000003</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5056,36 +4869,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>34.69</v>
+        <v>34.3</v>
       </c>
       <c r="C110" t="n">
-        <v>34.81</v>
+        <v>34.4</v>
       </c>
       <c r="D110" t="n">
-        <v>34.81</v>
+        <v>34.4</v>
       </c>
       <c r="E110" t="n">
-        <v>34.69</v>
+        <v>34.3</v>
       </c>
       <c r="F110" t="n">
-        <v>11900</v>
+        <v>44623.473</v>
       </c>
       <c r="G110" t="n">
-        <v>34.94533333333329</v>
+        <v>256581.2838757226</v>
       </c>
       <c r="H110" t="n">
-        <v>34.62050000000002</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5094,36 +4910,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>34.75</v>
+        <v>34.4</v>
       </c>
       <c r="C111" t="n">
-        <v>34.75</v>
+        <v>34.4</v>
       </c>
       <c r="D111" t="n">
-        <v>34.75</v>
+        <v>34.4</v>
       </c>
       <c r="E111" t="n">
-        <v>34.75</v>
+        <v>34.4</v>
       </c>
       <c r="F111" t="n">
-        <v>1054.6085</v>
+        <v>5892.7678</v>
       </c>
       <c r="G111" t="n">
-        <v>34.94533333333329</v>
+        <v>256581.2838757226</v>
       </c>
       <c r="H111" t="n">
-        <v>34.62450000000002</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,36 +4951,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>35.15</v>
+        <v>34.4</v>
       </c>
       <c r="C112" t="n">
-        <v>35.15</v>
+        <v>34.4</v>
       </c>
       <c r="D112" t="n">
-        <v>35.15</v>
+        <v>34.4</v>
       </c>
       <c r="E112" t="n">
-        <v>35.15</v>
+        <v>34.4</v>
       </c>
       <c r="F112" t="n">
-        <v>495.8996</v>
+        <v>499.0501</v>
       </c>
       <c r="G112" t="n">
-        <v>34.96199999999996</v>
+        <v>256581.2838757226</v>
       </c>
       <c r="H112" t="n">
-        <v>34.63383333333335</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5170,36 +4992,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>35.15</v>
+        <v>34.4</v>
       </c>
       <c r="C113" t="n">
-        <v>35.28</v>
+        <v>34.4</v>
       </c>
       <c r="D113" t="n">
-        <v>35.28</v>
+        <v>34.4</v>
       </c>
       <c r="E113" t="n">
-        <v>35.15</v>
+        <v>34.4</v>
       </c>
       <c r="F113" t="n">
-        <v>13214.8038</v>
+        <v>7965.4372</v>
       </c>
       <c r="G113" t="n">
-        <v>34.98066666666662</v>
+        <v>256581.2838757226</v>
       </c>
       <c r="H113" t="n">
-        <v>34.64533333333335</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,36 +5033,41 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>35.37</v>
+        <v>34.4</v>
       </c>
       <c r="C114" t="n">
-        <v>35.37</v>
+        <v>34.4</v>
       </c>
       <c r="D114" t="n">
-        <v>35.37</v>
+        <v>34.4</v>
       </c>
       <c r="E114" t="n">
-        <v>35.37</v>
+        <v>34.4</v>
       </c>
       <c r="F114" t="n">
-        <v>9870.6967</v>
+        <v>2302.6908</v>
       </c>
       <c r="G114" t="n">
-        <v>34.97933333333329</v>
+        <v>256581.2838757226</v>
       </c>
       <c r="H114" t="n">
-        <v>34.65833333333335</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K114" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5246,36 +5076,41 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>35.37</v>
+        <v>34.4</v>
       </c>
       <c r="C115" t="n">
-        <v>35.37</v>
+        <v>34.4</v>
       </c>
       <c r="D115" t="n">
-        <v>35.37</v>
+        <v>34.4</v>
       </c>
       <c r="E115" t="n">
-        <v>35.37</v>
+        <v>34.4</v>
       </c>
       <c r="F115" t="n">
-        <v>15549.3515</v>
+        <v>1342.9289</v>
       </c>
       <c r="G115" t="n">
-        <v>35.00399999999996</v>
+        <v>256581.2838757226</v>
       </c>
       <c r="H115" t="n">
-        <v>34.66950000000001</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K115" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5284,36 +5119,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>35.38</v>
+        <v>34.57</v>
       </c>
       <c r="C116" t="n">
-        <v>35.38</v>
+        <v>34.69</v>
       </c>
       <c r="D116" t="n">
-        <v>35.38</v>
+        <v>34.69</v>
       </c>
       <c r="E116" t="n">
-        <v>35.38</v>
+        <v>34.57</v>
       </c>
       <c r="F116" t="n">
-        <v>64.89619999999999</v>
+        <v>7437.7455</v>
       </c>
       <c r="G116" t="n">
-        <v>35.02933333333329</v>
+        <v>264019.0293757226</v>
       </c>
       <c r="H116" t="n">
-        <v>34.68083333333335</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>1</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5322,36 +5160,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>35.37</v>
+        <v>34.69</v>
       </c>
       <c r="C117" t="n">
-        <v>35.37</v>
+        <v>35</v>
       </c>
       <c r="D117" t="n">
-        <v>35.37</v>
+        <v>35</v>
       </c>
       <c r="E117" t="n">
-        <v>35.37</v>
+        <v>34.69</v>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>205012.9286</v>
       </c>
       <c r="G117" t="n">
-        <v>35.05399999999996</v>
+        <v>469031.9579757226</v>
       </c>
       <c r="H117" t="n">
-        <v>34.69216666666669</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5360,36 +5201,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>35.37</v>
+        <v>35</v>
       </c>
       <c r="C118" t="n">
-        <v>35.37</v>
+        <v>35</v>
       </c>
       <c r="D118" t="n">
-        <v>35.37</v>
+        <v>35</v>
       </c>
       <c r="E118" t="n">
-        <v>35.37</v>
+        <v>35</v>
       </c>
       <c r="F118" t="n">
-        <v>3504</v>
+        <v>6100</v>
       </c>
       <c r="G118" t="n">
-        <v>35.07866666666663</v>
+        <v>469031.9579757226</v>
       </c>
       <c r="H118" t="n">
-        <v>34.70750000000002</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5398,36 +5242,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>35.05</v>
+        <v>35.09</v>
       </c>
       <c r="C119" t="n">
-        <v>34.75</v>
+        <v>35.09</v>
       </c>
       <c r="D119" t="n">
-        <v>35.05</v>
+        <v>35.09</v>
       </c>
       <c r="E119" t="n">
-        <v>34.75</v>
+        <v>35.09</v>
       </c>
       <c r="F119" t="n">
-        <v>21053.3515</v>
+        <v>1247.648</v>
       </c>
       <c r="G119" t="n">
-        <v>35.05199999999996</v>
+        <v>470279.6059757226</v>
       </c>
       <c r="H119" t="n">
-        <v>34.71016666666669</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,36 +5283,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>35.28</v>
+        <v>34.99</v>
       </c>
       <c r="C120" t="n">
-        <v>35.28</v>
+        <v>34.99</v>
       </c>
       <c r="D120" t="n">
-        <v>35.28</v>
+        <v>34.99</v>
       </c>
       <c r="E120" t="n">
-        <v>35.28</v>
+        <v>34.99</v>
       </c>
       <c r="F120" t="n">
-        <v>247.7366</v>
+        <v>7677.3824</v>
       </c>
       <c r="G120" t="n">
-        <v>35.07666666666663</v>
+        <v>462602.2235757226</v>
       </c>
       <c r="H120" t="n">
-        <v>34.72000000000002</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,36 +5324,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>35.25</v>
+        <v>34.7</v>
       </c>
       <c r="C121" t="n">
-        <v>35.25</v>
+        <v>34.71</v>
       </c>
       <c r="D121" t="n">
-        <v>35.25</v>
+        <v>34.71</v>
       </c>
       <c r="E121" t="n">
-        <v>35.25</v>
+        <v>34.7</v>
       </c>
       <c r="F121" t="n">
-        <v>990</v>
+        <v>1420.5948</v>
       </c>
       <c r="G121" t="n">
-        <v>35.0993333333333</v>
+        <v>461181.6287757226</v>
       </c>
       <c r="H121" t="n">
-        <v>34.72933333333335</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5512,36 +5365,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>35.26</v>
+        <v>34.75</v>
       </c>
       <c r="C122" t="n">
-        <v>35.26</v>
+        <v>34.75</v>
       </c>
       <c r="D122" t="n">
-        <v>35.26</v>
+        <v>34.75</v>
       </c>
       <c r="E122" t="n">
-        <v>35.26</v>
+        <v>34.75</v>
       </c>
       <c r="F122" t="n">
-        <v>1643.493</v>
+        <v>7500</v>
       </c>
       <c r="G122" t="n">
-        <v>35.12266666666663</v>
+        <v>468681.6287757226</v>
       </c>
       <c r="H122" t="n">
-        <v>34.73883333333335</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5550,36 +5406,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>35.08</v>
+        <v>34.75</v>
       </c>
       <c r="C123" t="n">
-        <v>35.08</v>
+        <v>34.75</v>
       </c>
       <c r="D123" t="n">
-        <v>35.08</v>
+        <v>34.75</v>
       </c>
       <c r="E123" t="n">
-        <v>35.08</v>
+        <v>34.75</v>
       </c>
       <c r="F123" t="n">
-        <v>132.8005</v>
+        <v>15926.7722</v>
       </c>
       <c r="G123" t="n">
-        <v>35.1413333333333</v>
+        <v>468681.6287757226</v>
       </c>
       <c r="H123" t="n">
-        <v>34.74516666666669</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5588,36 +5447,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>35.08</v>
+        <v>34.75</v>
       </c>
       <c r="C124" t="n">
-        <v>35.08</v>
+        <v>34.75</v>
       </c>
       <c r="D124" t="n">
-        <v>35.08</v>
+        <v>34.75</v>
       </c>
       <c r="E124" t="n">
-        <v>35.08</v>
+        <v>34.75</v>
       </c>
       <c r="F124" t="n">
-        <v>1090</v>
+        <v>3851.5653</v>
       </c>
       <c r="G124" t="n">
-        <v>35.16999999999997</v>
+        <v>468681.6287757226</v>
       </c>
       <c r="H124" t="n">
-        <v>34.75150000000003</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>1</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5626,36 +5488,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>35.08</v>
+        <v>34.75</v>
       </c>
       <c r="C125" t="n">
-        <v>35.08</v>
+        <v>34.75</v>
       </c>
       <c r="D125" t="n">
-        <v>35.08</v>
+        <v>34.75</v>
       </c>
       <c r="E125" t="n">
-        <v>35.08</v>
+        <v>34.75</v>
       </c>
       <c r="F125" t="n">
-        <v>34.6749</v>
+        <v>0.0001</v>
       </c>
       <c r="G125" t="n">
-        <v>35.18799999999998</v>
+        <v>468681.6287757226</v>
       </c>
       <c r="H125" t="n">
-        <v>34.76050000000002</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,36 +5529,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="C126" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="D126" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="E126" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="F126" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G126" t="n">
-        <v>35.22466666666664</v>
+        <v>478681.6287757226</v>
       </c>
       <c r="H126" t="n">
-        <v>34.77266666666669</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5702,36 +5570,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="C127" t="n">
-        <v>35.38</v>
+        <v>35</v>
       </c>
       <c r="D127" t="n">
-        <v>35.38</v>
+        <v>35</v>
       </c>
       <c r="E127" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="F127" t="n">
-        <v>10000</v>
+        <v>1120.3361</v>
       </c>
       <c r="G127" t="n">
-        <v>35.23999999999998</v>
+        <v>479801.9648757226</v>
       </c>
       <c r="H127" t="n">
-        <v>34.78616666666669</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>1</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,36 +5611,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>35.15</v>
+        <v>35</v>
       </c>
       <c r="C128" t="n">
-        <v>35.15</v>
+        <v>35.39</v>
       </c>
       <c r="D128" t="n">
-        <v>35.15</v>
+        <v>35.39</v>
       </c>
       <c r="E128" t="n">
-        <v>35.15</v>
+        <v>35</v>
       </c>
       <c r="F128" t="n">
-        <v>40</v>
+        <v>27800</v>
       </c>
       <c r="G128" t="n">
-        <v>35.23133333333331</v>
+        <v>507601.9648757226</v>
       </c>
       <c r="H128" t="n">
-        <v>34.8016666666667</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5778,36 +5652,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>35.27</v>
+        <v>35</v>
       </c>
       <c r="C129" t="n">
-        <v>35.38</v>
+        <v>35</v>
       </c>
       <c r="D129" t="n">
-        <v>35.38</v>
+        <v>35</v>
       </c>
       <c r="E129" t="n">
-        <v>35.27</v>
+        <v>35</v>
       </c>
       <c r="F129" t="n">
-        <v>11442.8095</v>
+        <v>3550</v>
       </c>
       <c r="G129" t="n">
-        <v>35.23199999999998</v>
+        <v>504051.9648757226</v>
       </c>
       <c r="H129" t="n">
-        <v>34.82250000000003</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5816,36 +5693,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>35.38</v>
+        <v>35</v>
       </c>
       <c r="C130" t="n">
-        <v>35.38</v>
+        <v>35</v>
       </c>
       <c r="D130" t="n">
-        <v>35.38</v>
+        <v>35</v>
       </c>
       <c r="E130" t="n">
-        <v>35.38</v>
+        <v>35</v>
       </c>
       <c r="F130" t="n">
-        <v>3092.6702</v>
+        <v>857.1428571428571</v>
       </c>
       <c r="G130" t="n">
-        <v>35.23266666666665</v>
+        <v>504051.9648757226</v>
       </c>
       <c r="H130" t="n">
-        <v>34.84400000000003</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,36 +5734,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>35.38</v>
+        <v>35</v>
       </c>
       <c r="C131" t="n">
-        <v>35.38</v>
+        <v>35</v>
       </c>
       <c r="D131" t="n">
-        <v>35.38</v>
+        <v>35</v>
       </c>
       <c r="E131" t="n">
-        <v>35.38</v>
+        <v>35</v>
       </c>
       <c r="F131" t="n">
-        <v>3081.7939</v>
+        <v>3588.1177</v>
       </c>
       <c r="G131" t="n">
-        <v>35.23266666666665</v>
+        <v>504051.9648757226</v>
       </c>
       <c r="H131" t="n">
-        <v>34.8636666666667</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,36 +5775,1120 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>35</v>
+      </c>
+      <c r="C132" t="n">
+        <v>35</v>
+      </c>
+      <c r="D132" t="n">
+        <v>35</v>
+      </c>
+      <c r="E132" t="n">
+        <v>35</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1655.4966</v>
+      </c>
+      <c r="G132" t="n">
+        <v>504051.9648757226</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="C133" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="D133" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="E133" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>13736.62524285714</v>
+      </c>
+      <c r="G133" t="n">
+        <v>517788.5901185797</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>34.92</v>
+      </c>
+      <c r="C134" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="D134" t="n">
+        <v>34.92</v>
+      </c>
+      <c r="E134" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5680</v>
+      </c>
+      <c r="G134" t="n">
+        <v>512108.5901185797</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="C135" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="D135" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="E135" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1978.3825</v>
+      </c>
+      <c r="G135" t="n">
+        <v>512108.5901185797</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="C136" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="D136" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="E136" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18818.6208</v>
+      </c>
+      <c r="G136" t="n">
+        <v>512108.5901185797</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="C137" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="E137" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2093.3521</v>
+      </c>
+      <c r="G137" t="n">
+        <v>510015.2380185797</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="C138" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="D138" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="E138" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1880.5074</v>
+      </c>
+      <c r="G138" t="n">
+        <v>508134.7306185797</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="C139" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="D139" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="E139" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="F139" t="n">
+        <v>11900</v>
+      </c>
+      <c r="G139" t="n">
+        <v>520034.7306185797</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="C140" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="D140" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="E140" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1054.6085</v>
+      </c>
+      <c r="G140" t="n">
+        <v>518980.1221185797</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="C141" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="D141" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="E141" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="F141" t="n">
+        <v>495.8996</v>
+      </c>
+      <c r="G141" t="n">
+        <v>519476.0217185798</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="C142" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="D142" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="E142" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="F142" t="n">
+        <v>13214.8038</v>
+      </c>
+      <c r="G142" t="n">
+        <v>532690.8255185798</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="C143" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="D143" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="E143" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9870.6967</v>
+      </c>
+      <c r="G143" t="n">
+        <v>542561.5222185798</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1.060361445783133</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="C144" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="D144" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="E144" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15549.3515</v>
+      </c>
+      <c r="G144" t="n">
+        <v>542561.5222185798</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
         <v>35.38</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C145" t="n">
         <v>35.38</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D145" t="n">
         <v>35.38</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E145" t="n">
         <v>35.38</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F145" t="n">
+        <v>64.89619999999999</v>
+      </c>
+      <c r="G145" t="n">
+        <v>542626.4184185797</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="C146" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="D146" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="E146" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>540626.4184185797</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="C147" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="D147" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="E147" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3504</v>
+      </c>
+      <c r="G147" t="n">
+        <v>540626.4184185797</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="C148" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="D148" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="E148" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="F148" t="n">
+        <v>21053.3515</v>
+      </c>
+      <c r="G148" t="n">
+        <v>519573.0669185797</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="C149" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="D149" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="E149" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="F149" t="n">
+        <v>247.7366</v>
+      </c>
+      <c r="G149" t="n">
+        <v>519820.8035185797</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="C150" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="D150" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="E150" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="F150" t="n">
+        <v>990</v>
+      </c>
+      <c r="G150" t="n">
+        <v>518830.8035185797</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="C151" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="D151" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="E151" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1643.493</v>
+      </c>
+      <c r="G151" t="n">
+        <v>520474.2965185798</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="C152" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D152" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="E152" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="F152" t="n">
+        <v>132.8005</v>
+      </c>
+      <c r="G152" t="n">
+        <v>520341.4960185798</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="C153" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D153" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="E153" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1090</v>
+      </c>
+      <c r="G153" t="n">
+        <v>520341.4960185798</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="C154" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D154" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="E154" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="F154" t="n">
+        <v>34.6749</v>
+      </c>
+      <c r="G154" t="n">
+        <v>520341.4960185798</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>522341.4960185798</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D156" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E156" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>532341.4960185797</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="C157" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="D157" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="E157" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="F157" t="n">
+        <v>40</v>
+      </c>
+      <c r="G157" t="n">
+        <v>532301.4960185797</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="C158" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D158" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E158" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="F158" t="n">
+        <v>11442.8095</v>
+      </c>
+      <c r="G158" t="n">
+        <v>543744.3055185797</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="C159" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D159" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E159" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3092.6702</v>
+      </c>
+      <c r="G159" t="n">
+        <v>543744.3055185797</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="C160" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D160" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E160" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3081.7939</v>
+      </c>
+      <c r="G160" t="n">
+        <v>543744.3055185797</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="C161" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D161" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E161" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="F161" t="n">
         <v>10931.09330391267</v>
       </c>
-      <c r="G132" t="n">
-        <v>35.23333333333331</v>
-      </c>
-      <c r="H132" t="n">
-        <v>34.88816666666671</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="G161" t="n">
+        <v>543744.3055185797</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest GNT.xlsx
+++ b/BackTest/2020-01-16 BackTest GNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.51</v>
+        <v>34.52</v>
       </c>
       <c r="C2" t="n">
-        <v>32.51</v>
+        <v>34.52</v>
       </c>
       <c r="D2" t="n">
-        <v>32.51</v>
+        <v>34.52</v>
       </c>
       <c r="E2" t="n">
-        <v>32.51</v>
+        <v>34.52</v>
       </c>
       <c r="F2" t="n">
-        <v>1000</v>
+        <v>2300.5116</v>
       </c>
       <c r="G2" t="n">
-        <v>107243.9555</v>
+        <v>137629.5759</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,278 +467,245 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>34.45</v>
       </c>
       <c r="C3" t="n">
-        <v>32.5</v>
+        <v>34.45</v>
       </c>
       <c r="D3" t="n">
-        <v>32.5</v>
+        <v>34.45</v>
       </c>
       <c r="E3" t="n">
-        <v>32.5</v>
+        <v>34.45</v>
       </c>
       <c r="F3" t="n">
-        <v>1780</v>
+        <v>4500</v>
       </c>
       <c r="G3" t="n">
-        <v>105463.9555</v>
+        <v>133129.5759</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>32.51</v>
-      </c>
-      <c r="K3" t="n">
-        <v>32.51</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.4</v>
+        <v>34.45</v>
       </c>
       <c r="C4" t="n">
-        <v>32.4</v>
+        <v>34.45</v>
       </c>
       <c r="D4" t="n">
-        <v>32.4</v>
+        <v>34.45</v>
       </c>
       <c r="E4" t="n">
-        <v>32.4</v>
+        <v>34.45</v>
       </c>
       <c r="F4" t="n">
-        <v>724.7080999999999</v>
+        <v>500</v>
       </c>
       <c r="G4" t="n">
-        <v>104739.2474</v>
+        <v>133129.5759</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32.51</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32.21</v>
+        <v>34.59</v>
       </c>
       <c r="C5" t="n">
-        <v>32.21</v>
+        <v>34.59</v>
       </c>
       <c r="D5" t="n">
-        <v>32.21</v>
+        <v>34.59</v>
       </c>
       <c r="E5" t="n">
-        <v>32.21</v>
+        <v>34.59</v>
       </c>
       <c r="F5" t="n">
-        <v>3814.0005</v>
+        <v>2140</v>
       </c>
       <c r="G5" t="n">
-        <v>100925.2469</v>
+        <v>135269.5759</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>32.51</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.51</v>
+        <v>34.6</v>
       </c>
       <c r="C6" t="n">
-        <v>33.19</v>
+        <v>34.6</v>
       </c>
       <c r="D6" t="n">
-        <v>33.19</v>
+        <v>34.6</v>
       </c>
       <c r="E6" t="n">
-        <v>32.51</v>
+        <v>34.6</v>
       </c>
       <c r="F6" t="n">
-        <v>4300</v>
+        <v>89.59537572254335</v>
       </c>
       <c r="G6" t="n">
-        <v>105225.2469</v>
+        <v>135359.1712757226</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>32.21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>32.21</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.98</v>
+        <v>34.5</v>
       </c>
       <c r="C7" t="n">
-        <v>32.98</v>
+        <v>34.6</v>
       </c>
       <c r="D7" t="n">
-        <v>32.98</v>
+        <v>34.6</v>
       </c>
       <c r="E7" t="n">
-        <v>32.98</v>
+        <v>34.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1247.0339</v>
+        <v>5399.1617</v>
       </c>
       <c r="G7" t="n">
-        <v>103978.213</v>
+        <v>135359.1712757226</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>33.19</v>
-      </c>
-      <c r="K7" t="n">
-        <v>32.21</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>32.93</v>
+        <v>34.6</v>
       </c>
       <c r="C8" t="n">
-        <v>32.74</v>
+        <v>34.6</v>
       </c>
       <c r="D8" t="n">
-        <v>32.93</v>
+        <v>34.6</v>
       </c>
       <c r="E8" t="n">
-        <v>32.74</v>
+        <v>34.6</v>
       </c>
       <c r="F8" t="n">
-        <v>7272.7713</v>
+        <v>1472.592024277457</v>
       </c>
       <c r="G8" t="n">
-        <v>96705.4417</v>
+        <v>135359.1712757226</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>32.98</v>
-      </c>
-      <c r="K8" t="n">
-        <v>32.21</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33.2</v>
+        <v>34.32</v>
       </c>
       <c r="C9" t="n">
-        <v>33.2</v>
+        <v>34.32</v>
       </c>
       <c r="D9" t="n">
-        <v>33.2</v>
+        <v>34.32</v>
       </c>
       <c r="E9" t="n">
-        <v>33.2</v>
+        <v>34.32</v>
       </c>
       <c r="F9" t="n">
-        <v>1350.105</v>
+        <v>1048.6122</v>
       </c>
       <c r="G9" t="n">
-        <v>98055.54669999999</v>
+        <v>134310.5590757226</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -747,67 +719,65 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="C10" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="D10" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="E10" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="F10" t="n">
-        <v>1697.5092</v>
+        <v>1226.2111</v>
       </c>
       <c r="G10" t="n">
-        <v>98055.54669999999</v>
+        <v>133084.3479757226</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>33.2</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>33.01</v>
+        <v>34.01</v>
       </c>
       <c r="C11" t="n">
-        <v>33.25</v>
+        <v>34.01</v>
       </c>
       <c r="D11" t="n">
-        <v>33.25</v>
+        <v>34.01</v>
       </c>
       <c r="E11" t="n">
-        <v>32.91</v>
+        <v>34.01</v>
       </c>
       <c r="F11" t="n">
-        <v>11335.2919</v>
+        <v>552.1739</v>
       </c>
       <c r="G11" t="n">
-        <v>109390.8386</v>
+        <v>132532.1740757226</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -816,133 +786,138 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="K11" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>34.02</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>33.03</v>
+        <v>33.71</v>
       </c>
       <c r="C12" t="n">
-        <v>33.03</v>
+        <v>33.71</v>
       </c>
       <c r="D12" t="n">
-        <v>33.03</v>
+        <v>33.71</v>
       </c>
       <c r="E12" t="n">
-        <v>33.03</v>
+        <v>33.71</v>
       </c>
       <c r="F12" t="n">
-        <v>124.2209</v>
+        <v>699.862</v>
       </c>
       <c r="G12" t="n">
-        <v>109266.6177</v>
+        <v>131832.3120757226</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>34.01</v>
+      </c>
       <c r="K12" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>33.3</v>
+        <v>33.72</v>
       </c>
       <c r="C13" t="n">
-        <v>33.35</v>
+        <v>33.95</v>
       </c>
       <c r="D13" t="n">
-        <v>33.35</v>
+        <v>33.95</v>
       </c>
       <c r="E13" t="n">
-        <v>33.3</v>
+        <v>33.72</v>
       </c>
       <c r="F13" t="n">
-        <v>3329.8935</v>
+        <v>2989.1303</v>
       </c>
       <c r="G13" t="n">
-        <v>112596.5112</v>
+        <v>134821.4423757226</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>33.71</v>
+      </c>
       <c r="K13" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>33.35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>33.35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
-        <v>33.35</v>
+        <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>33.35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="n">
-        <v>18999.9999</v>
+        <v>1684.6478</v>
       </c>
       <c r="G14" t="n">
-        <v>112596.5112</v>
+        <v>136506.0901757226</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>33.95</v>
+      </c>
       <c r="K14" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -952,38 +927,41 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>33.35</v>
+        <v>34.01</v>
       </c>
       <c r="C15" t="n">
-        <v>33.5</v>
+        <v>34.01</v>
       </c>
       <c r="D15" t="n">
-        <v>33.5</v>
+        <v>34.01</v>
       </c>
       <c r="E15" t="n">
-        <v>33.35</v>
+        <v>34.01</v>
       </c>
       <c r="F15" t="n">
-        <v>1653.9366</v>
+        <v>649.1304</v>
       </c>
       <c r="G15" t="n">
-        <v>114250.4478</v>
+        <v>137155.2205757226</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>34</v>
+      </c>
       <c r="K15" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -993,38 +971,41 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>33.5</v>
+        <v>34.1</v>
       </c>
       <c r="C16" t="n">
-        <v>33.5</v>
+        <v>34.1</v>
       </c>
       <c r="D16" t="n">
-        <v>33.5</v>
+        <v>34.1</v>
       </c>
       <c r="E16" t="n">
-        <v>33.5</v>
+        <v>34.1</v>
       </c>
       <c r="F16" t="n">
-        <v>1245.3736</v>
+        <v>1508.0117</v>
       </c>
       <c r="G16" t="n">
-        <v>114250.4478</v>
+        <v>138663.2322757226</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>34.01</v>
+      </c>
       <c r="K16" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1034,38 +1015,41 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>33.5</v>
+        <v>34.03</v>
       </c>
       <c r="C17" t="n">
-        <v>33.5</v>
+        <v>34.03</v>
       </c>
       <c r="D17" t="n">
-        <v>33.5</v>
+        <v>34.03</v>
       </c>
       <c r="E17" t="n">
-        <v>33.5</v>
+        <v>34.03</v>
       </c>
       <c r="F17" t="n">
-        <v>19411.0317</v>
+        <v>303.1533</v>
       </c>
       <c r="G17" t="n">
-        <v>114250.4478</v>
+        <v>138360.0789757226</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>34.1</v>
+      </c>
       <c r="K17" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1075,28 +1059,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>33.49</v>
+        <v>34.1</v>
       </c>
       <c r="C18" t="n">
-        <v>33.5</v>
+        <v>34.1</v>
       </c>
       <c r="D18" t="n">
-        <v>33.5</v>
+        <v>34.1</v>
       </c>
       <c r="E18" t="n">
-        <v>33.49</v>
+        <v>34.1</v>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>1789.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>114250.4478</v>
+        <v>140150.0788757226</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1105,10 +1090,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.5</v>
+        <v>34.03</v>
       </c>
       <c r="K18" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1118,28 +1103,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>33.33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>33.33</v>
+        <v>34.1</v>
       </c>
       <c r="D19" t="n">
-        <v>33.33</v>
+        <v>34.1</v>
       </c>
       <c r="E19" t="n">
-        <v>33.33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>716.6962</v>
+        <v>3118.3355</v>
       </c>
       <c r="G19" t="n">
-        <v>113533.7516</v>
+        <v>140150.0788757226</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1148,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.5</v>
+        <v>34.1</v>
       </c>
       <c r="K19" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1161,28 +1147,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>33.5</v>
+        <v>34.1</v>
       </c>
       <c r="C20" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="D20" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="E20" t="n">
-        <v>33.5</v>
+        <v>34.1</v>
       </c>
       <c r="F20" t="n">
-        <v>5456.5714</v>
+        <v>881.6645</v>
       </c>
       <c r="G20" t="n">
-        <v>118990.323</v>
+        <v>140150.0788757226</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1191,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>33.33</v>
+        <v>34.1</v>
       </c>
       <c r="K20" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1204,28 +1191,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>33.6</v>
+        <v>34</v>
       </c>
       <c r="C21" t="n">
-        <v>33.6</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
-        <v>33.6</v>
+        <v>34</v>
       </c>
       <c r="E21" t="n">
-        <v>33.6</v>
+        <v>34</v>
       </c>
       <c r="F21" t="n">
-        <v>69</v>
+        <v>724.814</v>
       </c>
       <c r="G21" t="n">
-        <v>118990.323</v>
+        <v>139425.2648757226</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1234,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="K21" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1247,28 +1235,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>33.6</v>
+        <v>34</v>
       </c>
       <c r="C22" t="n">
-        <v>33.6</v>
+        <v>33.98</v>
       </c>
       <c r="D22" t="n">
-        <v>33.6</v>
+        <v>34</v>
       </c>
       <c r="E22" t="n">
-        <v>33.6</v>
+        <v>33.98</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1332</v>
+        <v>3594.6</v>
       </c>
       <c r="G22" t="n">
-        <v>118990.323</v>
+        <v>135830.6648757225</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1277,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.6</v>
+        <v>34</v>
       </c>
       <c r="K22" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1290,38 +1279,41 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>33.88</v>
+        <v>33.81</v>
       </c>
       <c r="C23" t="n">
-        <v>33.88</v>
+        <v>33.81</v>
       </c>
       <c r="D23" t="n">
-        <v>33.88</v>
+        <v>33.81</v>
       </c>
       <c r="E23" t="n">
-        <v>33.88</v>
+        <v>33.81</v>
       </c>
       <c r="F23" t="n">
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>119090.323</v>
+        <v>135730.6648757225</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>33.98</v>
+      </c>
       <c r="K23" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1331,38 +1323,41 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>33.88</v>
+        <v>34</v>
       </c>
       <c r="C24" t="n">
-        <v>33.88</v>
+        <v>34.1</v>
       </c>
       <c r="D24" t="n">
-        <v>33.88</v>
+        <v>34.1</v>
       </c>
       <c r="E24" t="n">
-        <v>33.88</v>
+        <v>34</v>
       </c>
       <c r="F24" t="n">
-        <v>1136.3877</v>
+        <v>4000.3998</v>
       </c>
       <c r="G24" t="n">
-        <v>119090.323</v>
+        <v>139731.0646757226</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>33.81</v>
+      </c>
       <c r="K24" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1372,38 +1367,41 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>33.98</v>
+        <v>34.2</v>
       </c>
       <c r="C25" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="D25" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="E25" t="n">
-        <v>33.98</v>
+        <v>34.2</v>
       </c>
       <c r="F25" t="n">
-        <v>9446.2482</v>
+        <v>2386.5563</v>
       </c>
       <c r="G25" t="n">
-        <v>128536.5712</v>
+        <v>142117.6209757226</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>34.1</v>
+      </c>
       <c r="K25" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1413,38 +1411,41 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>34.11</v>
+        <v>34.2</v>
       </c>
       <c r="C26" t="n">
-        <v>33.63</v>
+        <v>34.2</v>
       </c>
       <c r="D26" t="n">
-        <v>34.39</v>
+        <v>34.2</v>
       </c>
       <c r="E26" t="n">
-        <v>33.63</v>
+        <v>34.2</v>
       </c>
       <c r="F26" t="n">
-        <v>26885.4836</v>
+        <v>7465.2395</v>
       </c>
       <c r="G26" t="n">
-        <v>101651.0876</v>
+        <v>142117.6209757226</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K26" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1454,38 +1455,41 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="C27" t="n">
-        <v>34.3</v>
+        <v>34.46</v>
       </c>
       <c r="D27" t="n">
-        <v>34.3</v>
+        <v>34.46</v>
       </c>
       <c r="E27" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="F27" t="n">
-        <v>2744.3403</v>
+        <v>19034.4849</v>
       </c>
       <c r="G27" t="n">
-        <v>104395.4279</v>
+        <v>161152.1058757226</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K27" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1495,38 +1499,41 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>34.33</v>
+        <v>34.46</v>
       </c>
       <c r="C28" t="n">
-        <v>34.33</v>
+        <v>34.7</v>
       </c>
       <c r="D28" t="n">
-        <v>34.33</v>
+        <v>34.7</v>
       </c>
       <c r="E28" t="n">
-        <v>34.33</v>
+        <v>34.46</v>
       </c>
       <c r="F28" t="n">
-        <v>490</v>
+        <v>30287.2787</v>
       </c>
       <c r="G28" t="n">
-        <v>104885.4279</v>
+        <v>191439.3845757226</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>34.46</v>
+      </c>
       <c r="K28" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1536,28 +1543,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="C29" t="n">
-        <v>34.4</v>
+        <v>34.85</v>
       </c>
       <c r="D29" t="n">
-        <v>34.4</v>
+        <v>34.85</v>
       </c>
       <c r="E29" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="F29" t="n">
-        <v>7096.3619</v>
+        <v>5841.787</v>
       </c>
       <c r="G29" t="n">
-        <v>111981.7898</v>
+        <v>197281.1715757226</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1567,7 +1575,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1577,28 +1585,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="C30" t="n">
-        <v>34.43</v>
+        <v>34.7</v>
       </c>
       <c r="D30" t="n">
-        <v>34.43</v>
+        <v>34.7</v>
       </c>
       <c r="E30" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="F30" t="n">
-        <v>2224.0215</v>
+        <v>576.692</v>
       </c>
       <c r="G30" t="n">
-        <v>114205.8113</v>
+        <v>196704.4795757226</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1608,7 +1617,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1618,28 +1627,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>34.44</v>
+        <v>34.7</v>
       </c>
       <c r="C31" t="n">
-        <v>34.53</v>
+        <v>35</v>
       </c>
       <c r="D31" t="n">
-        <v>34.53</v>
+        <v>35</v>
       </c>
       <c r="E31" t="n">
-        <v>34.44</v>
+        <v>34.7</v>
       </c>
       <c r="F31" t="n">
-        <v>561.5267</v>
+        <v>42592.4095</v>
       </c>
       <c r="G31" t="n">
-        <v>114767.338</v>
+        <v>239296.8890757226</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1649,7 +1659,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1659,28 +1669,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>34.52</v>
+        <v>34.58</v>
       </c>
       <c r="C32" t="n">
-        <v>34.67</v>
+        <v>34.58</v>
       </c>
       <c r="D32" t="n">
-        <v>34.67</v>
+        <v>34.58</v>
       </c>
       <c r="E32" t="n">
-        <v>34.52</v>
+        <v>34.58</v>
       </c>
       <c r="F32" t="n">
-        <v>13726</v>
+        <v>1245.9788</v>
       </c>
       <c r="G32" t="n">
-        <v>128493.338</v>
+        <v>238050.9102757226</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1690,7 +1701,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1700,28 +1711,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>34.7</v>
+        <v>34.61</v>
       </c>
       <c r="C33" t="n">
-        <v>34.7</v>
+        <v>34.61</v>
       </c>
       <c r="D33" t="n">
-        <v>34.7</v>
+        <v>34.61</v>
       </c>
       <c r="E33" t="n">
-        <v>34.7</v>
+        <v>34.61</v>
       </c>
       <c r="F33" t="n">
-        <v>3701.6402</v>
+        <v>795.0821</v>
       </c>
       <c r="G33" t="n">
-        <v>132194.9782</v>
+        <v>238845.9923757226</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1731,7 +1743,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1741,28 +1753,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>34.34</v>
+        <v>34.61</v>
       </c>
       <c r="C34" t="n">
-        <v>34.34</v>
+        <v>34.61</v>
       </c>
       <c r="D34" t="n">
-        <v>34.34</v>
+        <v>34.61</v>
       </c>
       <c r="E34" t="n">
-        <v>34.34</v>
+        <v>34.61</v>
       </c>
       <c r="F34" t="n">
-        <v>987.4121</v>
+        <v>1315.876</v>
       </c>
       <c r="G34" t="n">
-        <v>131207.5661</v>
+        <v>238845.9923757226</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1772,7 +1785,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1782,28 +1795,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>34.25</v>
+        <v>34.61</v>
       </c>
       <c r="C35" t="n">
-        <v>34.2</v>
+        <v>34.6</v>
       </c>
       <c r="D35" t="n">
-        <v>34.25</v>
+        <v>34.61</v>
       </c>
       <c r="E35" t="n">
-        <v>34.2</v>
+        <v>34.6</v>
       </c>
       <c r="F35" t="n">
-        <v>2203.9658</v>
+        <v>658.228</v>
       </c>
       <c r="G35" t="n">
-        <v>129003.6003</v>
+        <v>238187.7643757226</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1813,7 +1827,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1823,28 +1837,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34.19</v>
+        <v>34.5</v>
       </c>
       <c r="C36" t="n">
-        <v>34.19</v>
+        <v>34.6</v>
       </c>
       <c r="D36" t="n">
-        <v>34.19</v>
+        <v>34.6</v>
       </c>
       <c r="E36" t="n">
-        <v>34.19</v>
+        <v>34.5</v>
       </c>
       <c r="F36" t="n">
-        <v>964.1469</v>
+        <v>11431.8627</v>
       </c>
       <c r="G36" t="n">
-        <v>128039.4534</v>
+        <v>238187.7643757226</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1854,7 +1869,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1864,28 +1879,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>34.16</v>
+        <v>34.6</v>
       </c>
       <c r="C37" t="n">
-        <v>34.16</v>
+        <v>34.6</v>
       </c>
       <c r="D37" t="n">
-        <v>34.16</v>
+        <v>34.6</v>
       </c>
       <c r="E37" t="n">
-        <v>34.16</v>
+        <v>34.6</v>
       </c>
       <c r="F37" t="n">
-        <v>3701.6402</v>
+        <v>7965.3591</v>
       </c>
       <c r="G37" t="n">
-        <v>124337.8132</v>
+        <v>238187.7643757226</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1895,7 +1911,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1905,28 +1921,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34</v>
+        <v>34.51</v>
       </c>
       <c r="C38" t="n">
-        <v>34</v>
+        <v>34.51</v>
       </c>
       <c r="D38" t="n">
-        <v>34</v>
+        <v>34.51</v>
       </c>
       <c r="E38" t="n">
-        <v>34</v>
+        <v>34.51</v>
       </c>
       <c r="F38" t="n">
-        <v>63.7583</v>
+        <v>3289.1459</v>
       </c>
       <c r="G38" t="n">
-        <v>124274.0549</v>
+        <v>234898.6184757226</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1936,7 +1953,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1946,28 +1963,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>33.56</v>
+        <v>34.59</v>
       </c>
       <c r="C39" t="n">
-        <v>33.56</v>
+        <v>34.59</v>
       </c>
       <c r="D39" t="n">
-        <v>33.56</v>
+        <v>34.59</v>
       </c>
       <c r="E39" t="n">
-        <v>33.56</v>
+        <v>34.59</v>
       </c>
       <c r="F39" t="n">
-        <v>1435.4015</v>
+        <v>2706.812</v>
       </c>
       <c r="G39" t="n">
-        <v>122838.6534</v>
+        <v>237605.4304757226</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1977,7 +1995,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1987,28 +2005,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34</v>
+        <v>34.59</v>
       </c>
       <c r="C40" t="n">
-        <v>34.57</v>
+        <v>34.59</v>
       </c>
       <c r="D40" t="n">
-        <v>34.57</v>
+        <v>34.59</v>
       </c>
       <c r="E40" t="n">
-        <v>34</v>
+        <v>34.59</v>
       </c>
       <c r="F40" t="n">
-        <v>6340</v>
+        <v>5316.3449</v>
       </c>
       <c r="G40" t="n">
-        <v>129178.6534</v>
+        <v>237605.4304757226</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2018,7 +2037,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2028,28 +2047,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34.21</v>
+        <v>34.59</v>
       </c>
       <c r="C41" t="n">
-        <v>34.21</v>
+        <v>34.59</v>
       </c>
       <c r="D41" t="n">
-        <v>34.21</v>
+        <v>34.59</v>
       </c>
       <c r="E41" t="n">
-        <v>34.21</v>
+        <v>34.59</v>
       </c>
       <c r="F41" t="n">
-        <v>790.7968</v>
+        <v>1219.3658</v>
       </c>
       <c r="G41" t="n">
-        <v>128387.8566</v>
+        <v>237605.4304757226</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2059,7 +2079,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2069,28 +2089,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>34.6</v>
+        <v>34.59</v>
       </c>
       <c r="C42" t="n">
-        <v>34.24</v>
+        <v>34.7</v>
       </c>
       <c r="D42" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E42" t="n">
-        <v>34.24</v>
+        <v>34.59</v>
       </c>
       <c r="F42" t="n">
-        <v>2286.2017</v>
+        <v>10804.4919</v>
       </c>
       <c r="G42" t="n">
-        <v>130674.0583</v>
+        <v>248409.9223757226</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2100,7 +2121,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2110,28 +2131,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>34.53</v>
+        <v>34.47</v>
       </c>
       <c r="C43" t="n">
-        <v>34.52</v>
+        <v>34.7</v>
       </c>
       <c r="D43" t="n">
-        <v>34.53</v>
+        <v>34.7</v>
       </c>
       <c r="E43" t="n">
-        <v>34.52</v>
+        <v>34.47</v>
       </c>
       <c r="F43" t="n">
-        <v>6955.5176</v>
+        <v>7000</v>
       </c>
       <c r="G43" t="n">
-        <v>137629.5759</v>
+        <v>248409.9223757226</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2141,7 +2163,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2151,28 +2173,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>34.52</v>
+        <v>34.69</v>
       </c>
       <c r="C44" t="n">
-        <v>34.52</v>
+        <v>34.69</v>
       </c>
       <c r="D44" t="n">
-        <v>34.52</v>
+        <v>34.69</v>
       </c>
       <c r="E44" t="n">
-        <v>34.52</v>
+        <v>34.69</v>
       </c>
       <c r="F44" t="n">
-        <v>2300.5116</v>
+        <v>140.669</v>
       </c>
       <c r="G44" t="n">
-        <v>137629.5759</v>
+        <v>248269.2533757226</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2182,7 +2205,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2192,28 +2215,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34.45</v>
+        <v>34.47</v>
       </c>
       <c r="C45" t="n">
         <v>34.45</v>
       </c>
       <c r="D45" t="n">
-        <v>34.45</v>
+        <v>34.47</v>
       </c>
       <c r="E45" t="n">
         <v>34.45</v>
       </c>
       <c r="F45" t="n">
-        <v>4500</v>
+        <v>8920.718000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>133129.5759</v>
+        <v>239348.5353757226</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2223,7 +2247,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2233,28 +2257,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>34.45</v>
+        <v>34.59</v>
       </c>
       <c r="C46" t="n">
-        <v>34.45</v>
+        <v>34.59</v>
       </c>
       <c r="D46" t="n">
-        <v>34.45</v>
+        <v>34.59</v>
       </c>
       <c r="E46" t="n">
-        <v>34.45</v>
+        <v>34.59</v>
       </c>
       <c r="F46" t="n">
-        <v>500</v>
+        <v>1770</v>
       </c>
       <c r="G46" t="n">
-        <v>133129.5759</v>
+        <v>241118.5353757226</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2264,7 +2289,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2274,6 +2299,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2283,19 +2309,19 @@
         <v>34.59</v>
       </c>
       <c r="C47" t="n">
-        <v>34.59</v>
+        <v>34.69</v>
       </c>
       <c r="D47" t="n">
-        <v>34.59</v>
+        <v>34.69</v>
       </c>
       <c r="E47" t="n">
         <v>34.59</v>
       </c>
       <c r="F47" t="n">
-        <v>2140</v>
+        <v>10224.1671</v>
       </c>
       <c r="G47" t="n">
-        <v>135269.5759</v>
+        <v>251342.7024757226</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2305,7 +2331,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2315,28 +2341,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34.6</v>
+        <v>34.69</v>
       </c>
       <c r="C48" t="n">
-        <v>34.6</v>
+        <v>34.69</v>
       </c>
       <c r="D48" t="n">
-        <v>34.6</v>
+        <v>34.69</v>
       </c>
       <c r="E48" t="n">
-        <v>34.6</v>
+        <v>34.69</v>
       </c>
       <c r="F48" t="n">
-        <v>89.59537572254335</v>
+        <v>7850.3551</v>
       </c>
       <c r="G48" t="n">
-        <v>135359.1712757226</v>
+        <v>251342.7024757226</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2346,7 +2373,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2356,28 +2383,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>34.5</v>
+        <v>34.69</v>
       </c>
       <c r="C49" t="n">
-        <v>34.6</v>
+        <v>34.69</v>
       </c>
       <c r="D49" t="n">
-        <v>34.6</v>
+        <v>34.69</v>
       </c>
       <c r="E49" t="n">
-        <v>34.5</v>
+        <v>34.69</v>
       </c>
       <c r="F49" t="n">
-        <v>5399.1617</v>
+        <v>989.2967</v>
       </c>
       <c r="G49" t="n">
-        <v>135359.1712757226</v>
+        <v>251342.7024757226</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2387,7 +2415,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2397,28 +2425,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="C50" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="D50" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E50" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="F50" t="n">
-        <v>1472.592024277457</v>
+        <v>2420.0137</v>
       </c>
       <c r="G50" t="n">
-        <v>135359.1712757226</v>
+        <v>253762.7161757226</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2428,7 +2457,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2438,28 +2467,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>34.32</v>
+        <v>34.7</v>
       </c>
       <c r="C51" t="n">
-        <v>34.32</v>
+        <v>34.7</v>
       </c>
       <c r="D51" t="n">
-        <v>34.32</v>
+        <v>34.7</v>
       </c>
       <c r="E51" t="n">
-        <v>34.32</v>
+        <v>34.7</v>
       </c>
       <c r="F51" t="n">
-        <v>1048.6122</v>
+        <v>65.99890000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>134310.5590757226</v>
+        <v>253762.7161757226</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2469,7 +2499,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2479,28 +2509,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>34.02</v>
+        <v>34.54</v>
       </c>
       <c r="C52" t="n">
-        <v>34.02</v>
+        <v>34.54</v>
       </c>
       <c r="D52" t="n">
-        <v>34.02</v>
+        <v>34.54</v>
       </c>
       <c r="E52" t="n">
-        <v>34.02</v>
+        <v>34.54</v>
       </c>
       <c r="F52" t="n">
-        <v>1226.2111</v>
+        <v>490.759</v>
       </c>
       <c r="G52" t="n">
-        <v>133084.3479757226</v>
+        <v>253271.9571757226</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2510,7 +2541,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2520,28 +2551,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>34.01</v>
+        <v>34.57</v>
       </c>
       <c r="C53" t="n">
-        <v>34.01</v>
+        <v>34.57</v>
       </c>
       <c r="D53" t="n">
-        <v>34.01</v>
+        <v>34.57</v>
       </c>
       <c r="E53" t="n">
-        <v>34.01</v>
+        <v>34.57</v>
       </c>
       <c r="F53" t="n">
-        <v>552.1739</v>
+        <v>8913.1252</v>
       </c>
       <c r="G53" t="n">
-        <v>132532.1740757226</v>
+        <v>262185.0823757226</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2551,7 +2583,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2561,28 +2593,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>33.71</v>
+        <v>34.57</v>
       </c>
       <c r="C54" t="n">
-        <v>33.71</v>
+        <v>34.57</v>
       </c>
       <c r="D54" t="n">
-        <v>33.71</v>
+        <v>34.57</v>
       </c>
       <c r="E54" t="n">
-        <v>33.71</v>
+        <v>34.57</v>
       </c>
       <c r="F54" t="n">
-        <v>699.862</v>
+        <v>21.1693</v>
       </c>
       <c r="G54" t="n">
-        <v>131832.3120757226</v>
+        <v>262185.0823757226</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2592,7 +2625,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2602,28 +2635,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>33.72</v>
+        <v>34.33</v>
       </c>
       <c r="C55" t="n">
-        <v>33.95</v>
+        <v>34.22</v>
       </c>
       <c r="D55" t="n">
-        <v>33.95</v>
+        <v>34.33</v>
       </c>
       <c r="E55" t="n">
-        <v>33.72</v>
+        <v>34.22</v>
       </c>
       <c r="F55" t="n">
-        <v>2989.1303</v>
+        <v>8934.2945</v>
       </c>
       <c r="G55" t="n">
-        <v>134821.4423757226</v>
+        <v>253250.7878757226</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2633,7 +2667,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2643,28 +2677,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>34</v>
+        <v>34.13</v>
       </c>
       <c r="C56" t="n">
-        <v>34</v>
+        <v>34.13</v>
       </c>
       <c r="D56" t="n">
-        <v>34</v>
+        <v>34.13</v>
       </c>
       <c r="E56" t="n">
-        <v>34</v>
+        <v>34.13</v>
       </c>
       <c r="F56" t="n">
-        <v>1684.6478</v>
+        <v>35.946</v>
       </c>
       <c r="G56" t="n">
-        <v>136506.0901757226</v>
+        <v>253214.8418757226</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2674,7 +2709,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2684,28 +2719,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>34.01</v>
+        <v>34.2</v>
       </c>
       <c r="C57" t="n">
-        <v>34.01</v>
+        <v>34.09</v>
       </c>
       <c r="D57" t="n">
-        <v>34.01</v>
+        <v>34.2</v>
       </c>
       <c r="E57" t="n">
-        <v>34.01</v>
+        <v>34.08</v>
       </c>
       <c r="F57" t="n">
-        <v>649.1304</v>
+        <v>36147.5886</v>
       </c>
       <c r="G57" t="n">
-        <v>137155.2205757226</v>
+        <v>217067.2532757226</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2715,7 +2751,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2725,38 +2761,41 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D58" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E58" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="F58" t="n">
-        <v>1508.0117</v>
+        <v>3293.496</v>
       </c>
       <c r="G58" t="n">
-        <v>138663.2322757226</v>
+        <v>220360.7492757226</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>34.09</v>
+      </c>
       <c r="K58" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2766,38 +2805,41 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>34.03</v>
+        <v>34.02</v>
       </c>
       <c r="C59" t="n">
-        <v>34.03</v>
+        <v>33.91</v>
       </c>
       <c r="D59" t="n">
-        <v>34.03</v>
+        <v>34.02</v>
       </c>
       <c r="E59" t="n">
-        <v>34.03</v>
+        <v>33.91</v>
       </c>
       <c r="F59" t="n">
-        <v>303.1533</v>
+        <v>10804.4919</v>
       </c>
       <c r="G59" t="n">
-        <v>138360.0789757226</v>
+        <v>209556.2573757226</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K59" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2807,38 +2849,41 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="C60" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D60" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E60" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="F60" t="n">
-        <v>1789.9999</v>
+        <v>1176.3529</v>
       </c>
       <c r="G60" t="n">
-        <v>140150.0788757226</v>
+        <v>210732.6102757226</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>33.91</v>
+      </c>
       <c r="K60" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2848,38 +2893,41 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>34</v>
+        <v>34.01</v>
       </c>
       <c r="C61" t="n">
-        <v>34.1</v>
+        <v>34.01</v>
       </c>
       <c r="D61" t="n">
-        <v>34.1</v>
+        <v>34.01</v>
       </c>
       <c r="E61" t="n">
-        <v>34</v>
+        <v>34.01</v>
       </c>
       <c r="F61" t="n">
-        <v>3118.3355</v>
+        <v>5084.0191</v>
       </c>
       <c r="G61" t="n">
-        <v>140150.0788757226</v>
+        <v>205648.5911757226</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K61" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2889,38 +2937,41 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="C62" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D62" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E62" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="F62" t="n">
-        <v>881.6645</v>
+        <v>2316.2197</v>
       </c>
       <c r="G62" t="n">
-        <v>140150.0788757226</v>
+        <v>207964.8108757226</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>34.01</v>
+      </c>
       <c r="K62" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2930,38 +2981,41 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="C63" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="D63" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="E63" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="F63" t="n">
-        <v>724.814</v>
+        <v>1300</v>
       </c>
       <c r="G63" t="n">
-        <v>139425.2648757226</v>
+        <v>207964.8108757226</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K63" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2971,38 +3025,41 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>34</v>
+        <v>34.07</v>
       </c>
       <c r="C64" t="n">
-        <v>33.98</v>
+        <v>34.3</v>
       </c>
       <c r="D64" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="E64" t="n">
-        <v>33.98</v>
+        <v>34.07</v>
       </c>
       <c r="F64" t="n">
-        <v>3594.6</v>
+        <v>3993</v>
       </c>
       <c r="G64" t="n">
-        <v>135830.6648757225</v>
+        <v>211957.8108757226</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>34.2</v>
+      </c>
       <c r="K64" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3012,38 +3069,41 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>33.81</v>
+        <v>34.3</v>
       </c>
       <c r="C65" t="n">
-        <v>33.81</v>
+        <v>34.3</v>
       </c>
       <c r="D65" t="n">
-        <v>33.81</v>
+        <v>34.3</v>
       </c>
       <c r="E65" t="n">
-        <v>33.81</v>
+        <v>34.3</v>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>2914.5743</v>
       </c>
       <c r="G65" t="n">
-        <v>135730.6648757225</v>
+        <v>211957.8108757226</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>34.3</v>
+      </c>
       <c r="K65" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3053,28 +3113,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="C66" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="D66" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="E66" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="F66" t="n">
-        <v>4000.3998</v>
+        <v>1219.3658</v>
       </c>
       <c r="G66" t="n">
-        <v>139731.0646757226</v>
+        <v>211957.8108757226</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -3083,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>33.81</v>
+        <v>34.3</v>
       </c>
       <c r="K66" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3096,28 +3157,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>34.2</v>
+        <v>34.15</v>
       </c>
       <c r="C67" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="D67" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="E67" t="n">
-        <v>34.2</v>
+        <v>34.15</v>
       </c>
       <c r="F67" t="n">
-        <v>2386.5563</v>
+        <v>3129.7222</v>
       </c>
       <c r="G67" t="n">
-        <v>142117.6209757226</v>
+        <v>211957.8108757226</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
@@ -3126,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="K67" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3139,28 +3201,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="C68" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="D68" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="E68" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="F68" t="n">
-        <v>7465.2395</v>
+        <v>44623.473</v>
       </c>
       <c r="G68" t="n">
-        <v>142117.6209757226</v>
+        <v>256581.2838757226</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -3169,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="K68" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3182,38 +3245,41 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="C69" t="n">
-        <v>34.46</v>
+        <v>34.4</v>
       </c>
       <c r="D69" t="n">
-        <v>34.46</v>
+        <v>34.4</v>
       </c>
       <c r="E69" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="F69" t="n">
-        <v>19034.4849</v>
+        <v>5892.7678</v>
       </c>
       <c r="G69" t="n">
-        <v>161152.1058757226</v>
+        <v>256581.2838757226</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K69" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3223,38 +3289,41 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>34.46</v>
+        <v>34.4</v>
       </c>
       <c r="C70" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="D70" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="E70" t="n">
-        <v>34.46</v>
+        <v>34.4</v>
       </c>
       <c r="F70" t="n">
-        <v>30287.2787</v>
+        <v>499.0501</v>
       </c>
       <c r="G70" t="n">
-        <v>191439.3845757226</v>
+        <v>256581.2838757226</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K70" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3264,38 +3333,41 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="C71" t="n">
-        <v>34.85</v>
+        <v>34.4</v>
       </c>
       <c r="D71" t="n">
-        <v>34.85</v>
+        <v>34.4</v>
       </c>
       <c r="E71" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="F71" t="n">
-        <v>5841.787</v>
+        <v>7965.4372</v>
       </c>
       <c r="G71" t="n">
-        <v>197281.1715757226</v>
+        <v>256581.2838757226</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K71" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3305,38 +3377,41 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="C72" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="D72" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="E72" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="F72" t="n">
-        <v>576.692</v>
+        <v>2302.6908</v>
       </c>
       <c r="G72" t="n">
-        <v>196704.4795757226</v>
+        <v>256581.2838757226</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K72" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3346,38 +3421,41 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="C73" t="n">
-        <v>35</v>
+        <v>34.4</v>
       </c>
       <c r="D73" t="n">
-        <v>35</v>
+        <v>34.4</v>
       </c>
       <c r="E73" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="F73" t="n">
-        <v>42592.4095</v>
+        <v>1342.9289</v>
       </c>
       <c r="G73" t="n">
-        <v>239296.8890757226</v>
+        <v>256581.2838757226</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K73" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3387,38 +3465,41 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>34.58</v>
+        <v>34.57</v>
       </c>
       <c r="C74" t="n">
-        <v>34.58</v>
+        <v>34.69</v>
       </c>
       <c r="D74" t="n">
-        <v>34.58</v>
+        <v>34.69</v>
       </c>
       <c r="E74" t="n">
-        <v>34.58</v>
+        <v>34.57</v>
       </c>
       <c r="F74" t="n">
-        <v>1245.9788</v>
+        <v>7437.7455</v>
       </c>
       <c r="G74" t="n">
-        <v>238050.9102757226</v>
+        <v>264019.0293757226</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>34.4</v>
+      </c>
       <c r="K74" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3428,38 +3509,41 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>34.61</v>
+        <v>34.69</v>
       </c>
       <c r="C75" t="n">
-        <v>34.61</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>34.61</v>
+        <v>35</v>
       </c>
       <c r="E75" t="n">
-        <v>34.61</v>
+        <v>34.69</v>
       </c>
       <c r="F75" t="n">
-        <v>795.0821</v>
+        <v>205012.9286</v>
       </c>
       <c r="G75" t="n">
-        <v>238845.9923757226</v>
+        <v>469031.9579757226</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>34.69</v>
+      </c>
       <c r="K75" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3469,28 +3553,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>34.61</v>
+        <v>35</v>
       </c>
       <c r="C76" t="n">
-        <v>34.61</v>
+        <v>35</v>
       </c>
       <c r="D76" t="n">
-        <v>34.61</v>
+        <v>35</v>
       </c>
       <c r="E76" t="n">
-        <v>34.61</v>
+        <v>35</v>
       </c>
       <c r="F76" t="n">
-        <v>1315.876</v>
+        <v>6100</v>
       </c>
       <c r="G76" t="n">
-        <v>238845.9923757226</v>
+        <v>469031.9579757226</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3500,7 +3585,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3510,28 +3595,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>34.61</v>
+        <v>35.09</v>
       </c>
       <c r="C77" t="n">
-        <v>34.6</v>
+        <v>35.09</v>
       </c>
       <c r="D77" t="n">
-        <v>34.61</v>
+        <v>35.09</v>
       </c>
       <c r="E77" t="n">
-        <v>34.6</v>
+        <v>35.09</v>
       </c>
       <c r="F77" t="n">
-        <v>658.228</v>
+        <v>1247.648</v>
       </c>
       <c r="G77" t="n">
-        <v>238187.7643757226</v>
+        <v>470279.6059757226</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3541,7 +3627,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3551,28 +3637,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>34.5</v>
+        <v>34.99</v>
       </c>
       <c r="C78" t="n">
-        <v>34.6</v>
+        <v>34.99</v>
       </c>
       <c r="D78" t="n">
-        <v>34.6</v>
+        <v>34.99</v>
       </c>
       <c r="E78" t="n">
-        <v>34.5</v>
+        <v>34.99</v>
       </c>
       <c r="F78" t="n">
-        <v>11431.8627</v>
+        <v>7677.3824</v>
       </c>
       <c r="G78" t="n">
-        <v>238187.7643757226</v>
+        <v>462602.2235757226</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3582,7 +3669,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3592,28 +3679,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="C79" t="n">
-        <v>34.6</v>
+        <v>34.71</v>
       </c>
       <c r="D79" t="n">
-        <v>34.6</v>
+        <v>34.71</v>
       </c>
       <c r="E79" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="F79" t="n">
-        <v>7965.3591</v>
+        <v>1420.5948</v>
       </c>
       <c r="G79" t="n">
-        <v>238187.7643757226</v>
+        <v>461181.6287757226</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3623,7 +3711,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3633,28 +3721,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>34.51</v>
+        <v>34.75</v>
       </c>
       <c r="C80" t="n">
-        <v>34.51</v>
+        <v>34.75</v>
       </c>
       <c r="D80" t="n">
-        <v>34.51</v>
+        <v>34.75</v>
       </c>
       <c r="E80" t="n">
-        <v>34.51</v>
+        <v>34.75</v>
       </c>
       <c r="F80" t="n">
-        <v>3289.1459</v>
+        <v>7500</v>
       </c>
       <c r="G80" t="n">
-        <v>234898.6184757226</v>
+        <v>468681.6287757226</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3664,7 +3753,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3674,28 +3763,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>34.59</v>
+        <v>34.75</v>
       </c>
       <c r="C81" t="n">
-        <v>34.59</v>
+        <v>34.75</v>
       </c>
       <c r="D81" t="n">
-        <v>34.59</v>
+        <v>34.75</v>
       </c>
       <c r="E81" t="n">
-        <v>34.59</v>
+        <v>34.75</v>
       </c>
       <c r="F81" t="n">
-        <v>2706.812</v>
+        <v>15926.7722</v>
       </c>
       <c r="G81" t="n">
-        <v>237605.4304757226</v>
+        <v>468681.6287757226</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3705,7 +3795,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3715,28 +3805,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>34.59</v>
+        <v>34.75</v>
       </c>
       <c r="C82" t="n">
-        <v>34.59</v>
+        <v>34.75</v>
       </c>
       <c r="D82" t="n">
-        <v>34.59</v>
+        <v>34.75</v>
       </c>
       <c r="E82" t="n">
-        <v>34.59</v>
+        <v>34.75</v>
       </c>
       <c r="F82" t="n">
-        <v>5316.3449</v>
+        <v>3851.5653</v>
       </c>
       <c r="G82" t="n">
-        <v>237605.4304757226</v>
+        <v>468681.6287757226</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3746,7 +3837,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3756,28 +3847,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>34.59</v>
+        <v>34.75</v>
       </c>
       <c r="C83" t="n">
-        <v>34.59</v>
+        <v>34.75</v>
       </c>
       <c r="D83" t="n">
-        <v>34.59</v>
+        <v>34.75</v>
       </c>
       <c r="E83" t="n">
-        <v>34.59</v>
+        <v>34.75</v>
       </c>
       <c r="F83" t="n">
-        <v>1219.3658</v>
+        <v>0.0001</v>
       </c>
       <c r="G83" t="n">
-        <v>237605.4304757226</v>
+        <v>468681.6287757226</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3787,7 +3879,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3797,28 +3889,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>34.59</v>
+        <v>34.9</v>
       </c>
       <c r="C84" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="D84" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="E84" t="n">
-        <v>34.59</v>
+        <v>34.9</v>
       </c>
       <c r="F84" t="n">
-        <v>10804.4919</v>
+        <v>10000</v>
       </c>
       <c r="G84" t="n">
-        <v>248409.9223757226</v>
+        <v>478681.6287757226</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3828,7 +3921,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3838,28 +3931,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>34.47</v>
+        <v>35</v>
       </c>
       <c r="C85" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="E85" t="n">
-        <v>34.47</v>
+        <v>35</v>
       </c>
       <c r="F85" t="n">
-        <v>7000</v>
+        <v>1120.3361</v>
       </c>
       <c r="G85" t="n">
-        <v>248409.9223757226</v>
+        <v>479801.9648757226</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3869,7 +3963,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3879,28 +3973,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>34.69</v>
+        <v>35</v>
       </c>
       <c r="C86" t="n">
-        <v>34.69</v>
+        <v>35.39</v>
       </c>
       <c r="D86" t="n">
-        <v>34.69</v>
+        <v>35.39</v>
       </c>
       <c r="E86" t="n">
-        <v>34.69</v>
+        <v>35</v>
       </c>
       <c r="F86" t="n">
-        <v>140.669</v>
+        <v>27800</v>
       </c>
       <c r="G86" t="n">
-        <v>248269.2533757226</v>
+        <v>507601.9648757226</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3910,7 +4005,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3920,28 +4015,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>34.47</v>
+        <v>35</v>
       </c>
       <c r="C87" t="n">
-        <v>34.45</v>
+        <v>35</v>
       </c>
       <c r="D87" t="n">
-        <v>34.47</v>
+        <v>35</v>
       </c>
       <c r="E87" t="n">
-        <v>34.45</v>
+        <v>35</v>
       </c>
       <c r="F87" t="n">
-        <v>8920.718000000001</v>
+        <v>3550</v>
       </c>
       <c r="G87" t="n">
-        <v>239348.5353757226</v>
+        <v>504051.9648757226</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3951,7 +4047,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3961,28 +4057,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>34.59</v>
+        <v>35</v>
       </c>
       <c r="C88" t="n">
-        <v>34.59</v>
+        <v>35</v>
       </c>
       <c r="D88" t="n">
-        <v>34.59</v>
+        <v>35</v>
       </c>
       <c r="E88" t="n">
-        <v>34.59</v>
+        <v>35</v>
       </c>
       <c r="F88" t="n">
-        <v>1770</v>
+        <v>857.1428571428571</v>
       </c>
       <c r="G88" t="n">
-        <v>241118.5353757226</v>
+        <v>504051.9648757226</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3992,7 +4089,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4002,28 +4099,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>34.59</v>
+        <v>35</v>
       </c>
       <c r="C89" t="n">
-        <v>34.69</v>
+        <v>35</v>
       </c>
       <c r="D89" t="n">
-        <v>34.69</v>
+        <v>35</v>
       </c>
       <c r="E89" t="n">
-        <v>34.59</v>
+        <v>35</v>
       </c>
       <c r="F89" t="n">
-        <v>10224.1671</v>
+        <v>3588.1177</v>
       </c>
       <c r="G89" t="n">
-        <v>251342.7024757226</v>
+        <v>504051.9648757226</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4033,7 +4131,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4043,28 +4141,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>34.69</v>
+        <v>35</v>
       </c>
       <c r="C90" t="n">
-        <v>34.69</v>
+        <v>35</v>
       </c>
       <c r="D90" t="n">
-        <v>34.69</v>
+        <v>35</v>
       </c>
       <c r="E90" t="n">
-        <v>34.69</v>
+        <v>35</v>
       </c>
       <c r="F90" t="n">
-        <v>7850.3551</v>
+        <v>1655.4966</v>
       </c>
       <c r="G90" t="n">
-        <v>251342.7024757226</v>
+        <v>504051.9648757226</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4074,7 +4173,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4084,151 +4183,143 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>34.69</v>
+        <v>34.81</v>
       </c>
       <c r="C91" t="n">
-        <v>34.69</v>
+        <v>35.15</v>
       </c>
       <c r="D91" t="n">
-        <v>34.69</v>
+        <v>35.15</v>
       </c>
       <c r="E91" t="n">
-        <v>34.69</v>
+        <v>34.8</v>
       </c>
       <c r="F91" t="n">
-        <v>989.2967</v>
+        <v>13736.62524285714</v>
       </c>
       <c r="G91" t="n">
-        <v>251342.7024757226</v>
+        <v>517788.5901185797</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>33.2</v>
+        <v>34.02</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
-      </c>
+        <v>1.028215755437978</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>34.7</v>
+        <v>34.92</v>
       </c>
       <c r="C92" t="n">
-        <v>34.7</v>
+        <v>34.91</v>
       </c>
       <c r="D92" t="n">
-        <v>34.7</v>
+        <v>34.92</v>
       </c>
       <c r="E92" t="n">
-        <v>34.7</v>
+        <v>34.91</v>
       </c>
       <c r="F92" t="n">
-        <v>2420.0137</v>
+        <v>5680</v>
       </c>
       <c r="G92" t="n">
-        <v>253762.7161757226</v>
+        <v>512108.5901185797</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>34.7</v>
+        <v>34.91</v>
       </c>
       <c r="C93" t="n">
-        <v>34.7</v>
+        <v>34.91</v>
       </c>
       <c r="D93" t="n">
-        <v>34.7</v>
+        <v>34.91</v>
       </c>
       <c r="E93" t="n">
-        <v>34.7</v>
+        <v>34.91</v>
       </c>
       <c r="F93" t="n">
-        <v>65.99890000000001</v>
+        <v>1978.3825</v>
       </c>
       <c r="G93" t="n">
-        <v>253762.7161757226</v>
+        <v>512108.5901185797</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>34.54</v>
+        <v>34.91</v>
       </c>
       <c r="C94" t="n">
-        <v>34.54</v>
+        <v>34.91</v>
       </c>
       <c r="D94" t="n">
-        <v>34.54</v>
+        <v>34.91</v>
       </c>
       <c r="E94" t="n">
-        <v>34.54</v>
+        <v>34.91</v>
       </c>
       <c r="F94" t="n">
-        <v>490.759</v>
+        <v>18818.6208</v>
       </c>
       <c r="G94" t="n">
-        <v>253271.9571757226</v>
+        <v>512108.5901185797</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4237,39 +4328,34 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>34.57</v>
+        <v>35.05</v>
       </c>
       <c r="C95" t="n">
-        <v>34.57</v>
+        <v>34.8</v>
       </c>
       <c r="D95" t="n">
-        <v>34.57</v>
+        <v>35.05</v>
       </c>
       <c r="E95" t="n">
-        <v>34.57</v>
+        <v>34.8</v>
       </c>
       <c r="F95" t="n">
-        <v>8913.1252</v>
+        <v>2093.3521</v>
       </c>
       <c r="G95" t="n">
-        <v>262185.0823757226</v>
+        <v>510015.2380185797</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4278,39 +4364,34 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>34.57</v>
+        <v>34.65</v>
       </c>
       <c r="C96" t="n">
-        <v>34.57</v>
+        <v>34.65</v>
       </c>
       <c r="D96" t="n">
-        <v>34.57</v>
+        <v>34.65</v>
       </c>
       <c r="E96" t="n">
-        <v>34.57</v>
+        <v>34.65</v>
       </c>
       <c r="F96" t="n">
-        <v>21.1693</v>
+        <v>1880.5074</v>
       </c>
       <c r="G96" t="n">
-        <v>262185.0823757226</v>
+        <v>508134.7306185797</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4319,39 +4400,34 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>34.33</v>
+        <v>34.69</v>
       </c>
       <c r="C97" t="n">
-        <v>34.22</v>
+        <v>34.81</v>
       </c>
       <c r="D97" t="n">
-        <v>34.33</v>
+        <v>34.81</v>
       </c>
       <c r="E97" t="n">
-        <v>34.22</v>
+        <v>34.69</v>
       </c>
       <c r="F97" t="n">
-        <v>8934.2945</v>
+        <v>11900</v>
       </c>
       <c r="G97" t="n">
-        <v>253250.7878757226</v>
+        <v>520034.7306185797</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4360,39 +4436,34 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>34.13</v>
+        <v>34.75</v>
       </c>
       <c r="C98" t="n">
-        <v>34.13</v>
+        <v>34.75</v>
       </c>
       <c r="D98" t="n">
-        <v>34.13</v>
+        <v>34.75</v>
       </c>
       <c r="E98" t="n">
-        <v>34.13</v>
+        <v>34.75</v>
       </c>
       <c r="F98" t="n">
-        <v>35.946</v>
+        <v>1054.6085</v>
       </c>
       <c r="G98" t="n">
-        <v>253214.8418757226</v>
+        <v>518980.1221185797</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4401,39 +4472,34 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>34.2</v>
+        <v>35.15</v>
       </c>
       <c r="C99" t="n">
-        <v>34.09</v>
+        <v>35.15</v>
       </c>
       <c r="D99" t="n">
-        <v>34.2</v>
+        <v>35.15</v>
       </c>
       <c r="E99" t="n">
-        <v>34.08</v>
+        <v>35.15</v>
       </c>
       <c r="F99" t="n">
-        <v>36147.5886</v>
+        <v>495.8996</v>
       </c>
       <c r="G99" t="n">
-        <v>217067.2532757226</v>
+        <v>519476.0217185798</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4442,39 +4508,34 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>34</v>
+        <v>35.15</v>
       </c>
       <c r="C100" t="n">
-        <v>34.2</v>
+        <v>35.28</v>
       </c>
       <c r="D100" t="n">
-        <v>34.2</v>
+        <v>35.28</v>
       </c>
       <c r="E100" t="n">
-        <v>34</v>
+        <v>35.15</v>
       </c>
       <c r="F100" t="n">
-        <v>3293.496</v>
+        <v>13214.8038</v>
       </c>
       <c r="G100" t="n">
-        <v>220360.7492757226</v>
+        <v>532690.8255185798</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4483,285 +4544,250 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>34.02</v>
+        <v>35.37</v>
       </c>
       <c r="C101" t="n">
-        <v>33.91</v>
+        <v>35.37</v>
       </c>
       <c r="D101" t="n">
-        <v>34.02</v>
+        <v>35.37</v>
       </c>
       <c r="E101" t="n">
-        <v>33.91</v>
+        <v>35.37</v>
       </c>
       <c r="F101" t="n">
-        <v>10804.4919</v>
+        <v>9870.6967</v>
       </c>
       <c r="G101" t="n">
-        <v>209556.2573757226</v>
+        <v>542561.5222185798</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>34.2</v>
+        <v>35.37</v>
       </c>
       <c r="C102" t="n">
-        <v>34.2</v>
+        <v>35.37</v>
       </c>
       <c r="D102" t="n">
-        <v>34.2</v>
+        <v>35.37</v>
       </c>
       <c r="E102" t="n">
-        <v>34.2</v>
+        <v>35.37</v>
       </c>
       <c r="F102" t="n">
-        <v>1176.3529</v>
+        <v>15549.3515</v>
       </c>
       <c r="G102" t="n">
-        <v>210732.6102757226</v>
+        <v>542561.5222185798</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>34.01</v>
+        <v>35.38</v>
       </c>
       <c r="C103" t="n">
-        <v>34.01</v>
+        <v>35.38</v>
       </c>
       <c r="D103" t="n">
-        <v>34.01</v>
+        <v>35.38</v>
       </c>
       <c r="E103" t="n">
-        <v>34.01</v>
+        <v>35.38</v>
       </c>
       <c r="F103" t="n">
-        <v>5084.0191</v>
+        <v>64.89619999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>205648.5911757226</v>
+        <v>542626.4184185797</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>34.2</v>
+        <v>35.37</v>
       </c>
       <c r="C104" t="n">
-        <v>34.2</v>
+        <v>35.37</v>
       </c>
       <c r="D104" t="n">
-        <v>34.2</v>
+        <v>35.37</v>
       </c>
       <c r="E104" t="n">
-        <v>34.2</v>
+        <v>35.37</v>
       </c>
       <c r="F104" t="n">
-        <v>2316.2197</v>
+        <v>2000</v>
       </c>
       <c r="G104" t="n">
-        <v>207964.8108757226</v>
+        <v>540626.4184185797</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>34.2</v>
+        <v>35.37</v>
       </c>
       <c r="C105" t="n">
-        <v>34.2</v>
+        <v>35.37</v>
       </c>
       <c r="D105" t="n">
-        <v>34.2</v>
+        <v>35.37</v>
       </c>
       <c r="E105" t="n">
-        <v>34.2</v>
+        <v>35.37</v>
       </c>
       <c r="F105" t="n">
-        <v>1300</v>
+        <v>3504</v>
       </c>
       <c r="G105" t="n">
-        <v>207964.8108757226</v>
+        <v>540626.4184185797</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>34.07</v>
+        <v>35.05</v>
       </c>
       <c r="C106" t="n">
-        <v>34.3</v>
+        <v>34.75</v>
       </c>
       <c r="D106" t="n">
-        <v>34.3</v>
+        <v>35.05</v>
       </c>
       <c r="E106" t="n">
-        <v>34.07</v>
+        <v>34.75</v>
       </c>
       <c r="F106" t="n">
-        <v>3993</v>
+        <v>21053.3515</v>
       </c>
       <c r="G106" t="n">
-        <v>211957.8108757226</v>
+        <v>519573.0669185797</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>34.3</v>
+        <v>35.28</v>
       </c>
       <c r="C107" t="n">
-        <v>34.3</v>
+        <v>35.28</v>
       </c>
       <c r="D107" t="n">
-        <v>34.3</v>
+        <v>35.28</v>
       </c>
       <c r="E107" t="n">
-        <v>34.3</v>
+        <v>35.28</v>
       </c>
       <c r="F107" t="n">
-        <v>2914.5743</v>
+        <v>247.7366</v>
       </c>
       <c r="G107" t="n">
-        <v>211957.8108757226</v>
+        <v>519820.8035185797</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4770,39 +4796,34 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>34.3</v>
+        <v>35.25</v>
       </c>
       <c r="C108" t="n">
-        <v>34.3</v>
+        <v>35.25</v>
       </c>
       <c r="D108" t="n">
-        <v>34.3</v>
+        <v>35.25</v>
       </c>
       <c r="E108" t="n">
-        <v>34.3</v>
+        <v>35.25</v>
       </c>
       <c r="F108" t="n">
-        <v>1219.3658</v>
+        <v>990</v>
       </c>
       <c r="G108" t="n">
-        <v>211957.8108757226</v>
+        <v>518830.8035185797</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4811,39 +4832,34 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>34.15</v>
+        <v>35.26</v>
       </c>
       <c r="C109" t="n">
-        <v>34.3</v>
+        <v>35.26</v>
       </c>
       <c r="D109" t="n">
-        <v>34.3</v>
+        <v>35.26</v>
       </c>
       <c r="E109" t="n">
-        <v>34.15</v>
+        <v>35.26</v>
       </c>
       <c r="F109" t="n">
-        <v>3129.7222</v>
+        <v>1643.493</v>
       </c>
       <c r="G109" t="n">
-        <v>211957.8108757226</v>
+        <v>520474.2965185798</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4852,39 +4868,34 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>34.3</v>
+        <v>35.08</v>
       </c>
       <c r="C110" t="n">
-        <v>34.4</v>
+        <v>35.08</v>
       </c>
       <c r="D110" t="n">
-        <v>34.4</v>
+        <v>35.08</v>
       </c>
       <c r="E110" t="n">
-        <v>34.3</v>
+        <v>35.08</v>
       </c>
       <c r="F110" t="n">
-        <v>44623.473</v>
+        <v>132.8005</v>
       </c>
       <c r="G110" t="n">
-        <v>256581.2838757226</v>
+        <v>520341.4960185798</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4893,39 +4904,34 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>34.4</v>
+        <v>35.08</v>
       </c>
       <c r="C111" t="n">
-        <v>34.4</v>
+        <v>35.08</v>
       </c>
       <c r="D111" t="n">
-        <v>34.4</v>
+        <v>35.08</v>
       </c>
       <c r="E111" t="n">
-        <v>34.4</v>
+        <v>35.08</v>
       </c>
       <c r="F111" t="n">
-        <v>5892.7678</v>
+        <v>1090</v>
       </c>
       <c r="G111" t="n">
-        <v>256581.2838757226</v>
+        <v>520341.4960185798</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4934,1963 +4940,300 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>34.4</v>
+        <v>35.08</v>
       </c>
       <c r="C112" t="n">
-        <v>34.4</v>
+        <v>35.08</v>
       </c>
       <c r="D112" t="n">
-        <v>34.4</v>
+        <v>35.08</v>
       </c>
       <c r="E112" t="n">
-        <v>34.4</v>
+        <v>35.08</v>
       </c>
       <c r="F112" t="n">
-        <v>499.0501</v>
+        <v>34.6749</v>
       </c>
       <c r="G112" t="n">
-        <v>256581.2838757226</v>
+        <v>520341.4960185798</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>34.4</v>
+        <v>35.3</v>
       </c>
       <c r="C113" t="n">
-        <v>34.4</v>
+        <v>35.3</v>
       </c>
       <c r="D113" t="n">
-        <v>34.4</v>
+        <v>35.3</v>
       </c>
       <c r="E113" t="n">
-        <v>34.4</v>
+        <v>35.3</v>
       </c>
       <c r="F113" t="n">
-        <v>7965.4372</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="n">
-        <v>256581.2838757226</v>
+        <v>522341.4960185798</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>34.4</v>
+        <v>35.3</v>
       </c>
       <c r="C114" t="n">
-        <v>34.4</v>
+        <v>35.38</v>
       </c>
       <c r="D114" t="n">
-        <v>34.4</v>
+        <v>35.38</v>
       </c>
       <c r="E114" t="n">
-        <v>34.4</v>
+        <v>35.3</v>
       </c>
       <c r="F114" t="n">
-        <v>2302.6908</v>
+        <v>10000</v>
       </c>
       <c r="G114" t="n">
-        <v>256581.2838757226</v>
+        <v>532341.4960185797</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K114" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>34.4</v>
+        <v>35.15</v>
       </c>
       <c r="C115" t="n">
-        <v>34.4</v>
+        <v>35.15</v>
       </c>
       <c r="D115" t="n">
-        <v>34.4</v>
+        <v>35.15</v>
       </c>
       <c r="E115" t="n">
-        <v>34.4</v>
+        <v>35.15</v>
       </c>
       <c r="F115" t="n">
-        <v>1342.9289</v>
+        <v>40</v>
       </c>
       <c r="G115" t="n">
-        <v>256581.2838757226</v>
+        <v>532301.4960185797</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K115" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>34.57</v>
+        <v>35.27</v>
       </c>
       <c r="C116" t="n">
-        <v>34.69</v>
+        <v>35.38</v>
       </c>
       <c r="D116" t="n">
-        <v>34.69</v>
+        <v>35.38</v>
       </c>
       <c r="E116" t="n">
-        <v>34.57</v>
+        <v>35.27</v>
       </c>
       <c r="F116" t="n">
-        <v>7437.7455</v>
+        <v>11442.8095</v>
       </c>
       <c r="G116" t="n">
-        <v>264019.0293757226</v>
+        <v>543744.3055185797</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>34.69</v>
+        <v>35.38</v>
       </c>
       <c r="C117" t="n">
-        <v>35</v>
+        <v>35.38</v>
       </c>
       <c r="D117" t="n">
-        <v>35</v>
+        <v>35.38</v>
       </c>
       <c r="E117" t="n">
-        <v>34.69</v>
+        <v>35.38</v>
       </c>
       <c r="F117" t="n">
-        <v>205012.9286</v>
+        <v>3092.6702</v>
       </c>
       <c r="G117" t="n">
-        <v>469031.9579757226</v>
+        <v>543744.3055185797</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>35</v>
+        <v>35.38</v>
       </c>
       <c r="C118" t="n">
-        <v>35</v>
+        <v>35.38</v>
       </c>
       <c r="D118" t="n">
-        <v>35</v>
+        <v>35.38</v>
       </c>
       <c r="E118" t="n">
-        <v>35</v>
+        <v>35.38</v>
       </c>
       <c r="F118" t="n">
-        <v>6100</v>
+        <v>3081.7939</v>
       </c>
       <c r="G118" t="n">
-        <v>469031.9579757226</v>
+        <v>543744.3055185797</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>35.09</v>
+        <v>35.38</v>
       </c>
       <c r="C119" t="n">
-        <v>35.09</v>
+        <v>35.38</v>
       </c>
       <c r="D119" t="n">
-        <v>35.09</v>
+        <v>35.38</v>
       </c>
       <c r="E119" t="n">
-        <v>35.09</v>
+        <v>35.38</v>
       </c>
       <c r="F119" t="n">
-        <v>1247.648</v>
+        <v>10931.09330391267</v>
       </c>
       <c r="G119" t="n">
-        <v>470279.6059757226</v>
+        <v>543744.3055185797</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>34.99</v>
-      </c>
-      <c r="C120" t="n">
-        <v>34.99</v>
-      </c>
-      <c r="D120" t="n">
-        <v>34.99</v>
-      </c>
-      <c r="E120" t="n">
-        <v>34.99</v>
-      </c>
-      <c r="F120" t="n">
-        <v>7677.3824</v>
-      </c>
-      <c r="G120" t="n">
-        <v>462602.2235757226</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="C121" t="n">
-        <v>34.71</v>
-      </c>
-      <c r="D121" t="n">
-        <v>34.71</v>
-      </c>
-      <c r="E121" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1420.5948</v>
-      </c>
-      <c r="G121" t="n">
-        <v>461181.6287757226</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="C122" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="D122" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="E122" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="F122" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G122" t="n">
-        <v>468681.6287757226</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="C123" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="D123" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="E123" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="F123" t="n">
-        <v>15926.7722</v>
-      </c>
-      <c r="G123" t="n">
-        <v>468681.6287757226</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="C124" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="D124" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="E124" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="F124" t="n">
-        <v>3851.5653</v>
-      </c>
-      <c r="G124" t="n">
-        <v>468681.6287757226</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="C125" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="D125" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="E125" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G125" t="n">
-        <v>468681.6287757226</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="C126" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="D126" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="E126" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="F126" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G126" t="n">
-        <v>478681.6287757226</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>35</v>
-      </c>
-      <c r="C127" t="n">
-        <v>35</v>
-      </c>
-      <c r="D127" t="n">
-        <v>35</v>
-      </c>
-      <c r="E127" t="n">
-        <v>35</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1120.3361</v>
-      </c>
-      <c r="G127" t="n">
-        <v>479801.9648757226</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>35</v>
-      </c>
-      <c r="C128" t="n">
-        <v>35.39</v>
-      </c>
-      <c r="D128" t="n">
-        <v>35.39</v>
-      </c>
-      <c r="E128" t="n">
-        <v>35</v>
-      </c>
-      <c r="F128" t="n">
-        <v>27800</v>
-      </c>
-      <c r="G128" t="n">
-        <v>507601.9648757226</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>35</v>
-      </c>
-      <c r="C129" t="n">
-        <v>35</v>
-      </c>
-      <c r="D129" t="n">
-        <v>35</v>
-      </c>
-      <c r="E129" t="n">
-        <v>35</v>
-      </c>
-      <c r="F129" t="n">
-        <v>3550</v>
-      </c>
-      <c r="G129" t="n">
-        <v>504051.9648757226</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>35</v>
-      </c>
-      <c r="C130" t="n">
-        <v>35</v>
-      </c>
-      <c r="D130" t="n">
-        <v>35</v>
-      </c>
-      <c r="E130" t="n">
-        <v>35</v>
-      </c>
-      <c r="F130" t="n">
-        <v>857.1428571428571</v>
-      </c>
-      <c r="G130" t="n">
-        <v>504051.9648757226</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>35</v>
-      </c>
-      <c r="C131" t="n">
-        <v>35</v>
-      </c>
-      <c r="D131" t="n">
-        <v>35</v>
-      </c>
-      <c r="E131" t="n">
-        <v>35</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3588.1177</v>
-      </c>
-      <c r="G131" t="n">
-        <v>504051.9648757226</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>35</v>
-      </c>
-      <c r="C132" t="n">
-        <v>35</v>
-      </c>
-      <c r="D132" t="n">
-        <v>35</v>
-      </c>
-      <c r="E132" t="n">
-        <v>35</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1655.4966</v>
-      </c>
-      <c r="G132" t="n">
-        <v>504051.9648757226</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>34.81</v>
-      </c>
-      <c r="C133" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="D133" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="E133" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>13736.62524285714</v>
-      </c>
-      <c r="G133" t="n">
-        <v>517788.5901185797</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>34.92</v>
-      </c>
-      <c r="C134" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="D134" t="n">
-        <v>34.92</v>
-      </c>
-      <c r="E134" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="F134" t="n">
-        <v>5680</v>
-      </c>
-      <c r="G134" t="n">
-        <v>512108.5901185797</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="C135" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="D135" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="E135" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1978.3825</v>
-      </c>
-      <c r="G135" t="n">
-        <v>512108.5901185797</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="C136" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="D136" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="E136" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="F136" t="n">
-        <v>18818.6208</v>
-      </c>
-      <c r="G136" t="n">
-        <v>512108.5901185797</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>35.05</v>
-      </c>
-      <c r="C137" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D137" t="n">
-        <v>35.05</v>
-      </c>
-      <c r="E137" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2093.3521</v>
-      </c>
-      <c r="G137" t="n">
-        <v>510015.2380185797</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>34.65</v>
-      </c>
-      <c r="C138" t="n">
-        <v>34.65</v>
-      </c>
-      <c r="D138" t="n">
-        <v>34.65</v>
-      </c>
-      <c r="E138" t="n">
-        <v>34.65</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1880.5074</v>
-      </c>
-      <c r="G138" t="n">
-        <v>508134.7306185797</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>34.69</v>
-      </c>
-      <c r="C139" t="n">
-        <v>34.81</v>
-      </c>
-      <c r="D139" t="n">
-        <v>34.81</v>
-      </c>
-      <c r="E139" t="n">
-        <v>34.69</v>
-      </c>
-      <c r="F139" t="n">
-        <v>11900</v>
-      </c>
-      <c r="G139" t="n">
-        <v>520034.7306185797</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="C140" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="D140" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="E140" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1054.6085</v>
-      </c>
-      <c r="G140" t="n">
-        <v>518980.1221185797</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="C141" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="D141" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="E141" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="F141" t="n">
-        <v>495.8996</v>
-      </c>
-      <c r="G141" t="n">
-        <v>519476.0217185798</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="C142" t="n">
-        <v>35.28</v>
-      </c>
-      <c r="D142" t="n">
-        <v>35.28</v>
-      </c>
-      <c r="E142" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="F142" t="n">
-        <v>13214.8038</v>
-      </c>
-      <c r="G142" t="n">
-        <v>532690.8255185798</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="C143" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="D143" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="E143" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="F143" t="n">
-        <v>9870.6967</v>
-      </c>
-      <c r="G143" t="n">
-        <v>542561.5222185798</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1.060361445783133</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="C144" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="D144" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="E144" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="F144" t="n">
-        <v>15549.3515</v>
-      </c>
-      <c r="G144" t="n">
-        <v>542561.5222185798</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="C145" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="D145" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="E145" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="F145" t="n">
-        <v>64.89619999999999</v>
-      </c>
-      <c r="G145" t="n">
-        <v>542626.4184185797</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="C146" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="D146" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="E146" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G146" t="n">
-        <v>540626.4184185797</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="C147" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="D147" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="E147" t="n">
-        <v>35.37</v>
-      </c>
-      <c r="F147" t="n">
-        <v>3504</v>
-      </c>
-      <c r="G147" t="n">
-        <v>540626.4184185797</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>35.05</v>
-      </c>
-      <c r="C148" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="D148" t="n">
-        <v>35.05</v>
-      </c>
-      <c r="E148" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="F148" t="n">
-        <v>21053.3515</v>
-      </c>
-      <c r="G148" t="n">
-        <v>519573.0669185797</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>35.28</v>
-      </c>
-      <c r="C149" t="n">
-        <v>35.28</v>
-      </c>
-      <c r="D149" t="n">
-        <v>35.28</v>
-      </c>
-      <c r="E149" t="n">
-        <v>35.28</v>
-      </c>
-      <c r="F149" t="n">
-        <v>247.7366</v>
-      </c>
-      <c r="G149" t="n">
-        <v>519820.8035185797</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>35.25</v>
-      </c>
-      <c r="C150" t="n">
-        <v>35.25</v>
-      </c>
-      <c r="D150" t="n">
-        <v>35.25</v>
-      </c>
-      <c r="E150" t="n">
-        <v>35.25</v>
-      </c>
-      <c r="F150" t="n">
-        <v>990</v>
-      </c>
-      <c r="G150" t="n">
-        <v>518830.8035185797</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>35.26</v>
-      </c>
-      <c r="C151" t="n">
-        <v>35.26</v>
-      </c>
-      <c r="D151" t="n">
-        <v>35.26</v>
-      </c>
-      <c r="E151" t="n">
-        <v>35.26</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1643.493</v>
-      </c>
-      <c r="G151" t="n">
-        <v>520474.2965185798</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="C152" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="D152" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="E152" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="F152" t="n">
-        <v>132.8005</v>
-      </c>
-      <c r="G152" t="n">
-        <v>520341.4960185798</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="C153" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="D153" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="E153" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1090</v>
-      </c>
-      <c r="G153" t="n">
-        <v>520341.4960185798</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="C154" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="D154" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="E154" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="F154" t="n">
-        <v>34.6749</v>
-      </c>
-      <c r="G154" t="n">
-        <v>520341.4960185798</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="C155" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D155" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="E155" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G155" t="n">
-        <v>522341.4960185798</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="C156" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="D156" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="E156" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="F156" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G156" t="n">
-        <v>532341.4960185797</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="C157" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="D157" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="E157" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="F157" t="n">
-        <v>40</v>
-      </c>
-      <c r="G157" t="n">
-        <v>532301.4960185797</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>35.27</v>
-      </c>
-      <c r="C158" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="D158" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="E158" t="n">
-        <v>35.27</v>
-      </c>
-      <c r="F158" t="n">
-        <v>11442.8095</v>
-      </c>
-      <c r="G158" t="n">
-        <v>543744.3055185797</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="C159" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="D159" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="E159" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3092.6702</v>
-      </c>
-      <c r="G159" t="n">
-        <v>543744.3055185797</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="C160" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="D160" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="E160" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="F160" t="n">
-        <v>3081.7939</v>
-      </c>
-      <c r="G160" t="n">
-        <v>543744.3055185797</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="C161" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="D161" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="E161" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="F161" t="n">
-        <v>10931.09330391267</v>
-      </c>
-      <c r="G161" t="n">
-        <v>543744.3055185797</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
+      <c r="N119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest GNT.xlsx
+++ b/BackTest/2020-01-16 BackTest GNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>34.52</v>
+        <v>32.31</v>
       </c>
       <c r="C2" t="n">
-        <v>34.52</v>
+        <v>32.49</v>
       </c>
       <c r="D2" t="n">
-        <v>34.52</v>
+        <v>32.49</v>
       </c>
       <c r="E2" t="n">
-        <v>34.52</v>
+        <v>32.31</v>
       </c>
       <c r="F2" t="n">
-        <v>2300.5116</v>
+        <v>7751.4276</v>
       </c>
       <c r="G2" t="n">
-        <v>137629.5759</v>
+        <v>34347.2066</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.45</v>
+        <v>32.3</v>
       </c>
       <c r="C3" t="n">
-        <v>34.45</v>
+        <v>32.3</v>
       </c>
       <c r="D3" t="n">
-        <v>34.45</v>
+        <v>32.3</v>
       </c>
       <c r="E3" t="n">
-        <v>34.45</v>
+        <v>32.3</v>
       </c>
       <c r="F3" t="n">
-        <v>4500</v>
+        <v>841.5157</v>
       </c>
       <c r="G3" t="n">
-        <v>133129.5759</v>
+        <v>33505.69089999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.45</v>
+        <v>32.3</v>
       </c>
       <c r="C4" t="n">
-        <v>34.45</v>
+        <v>32.3</v>
       </c>
       <c r="D4" t="n">
-        <v>34.45</v>
+        <v>32.3</v>
       </c>
       <c r="E4" t="n">
-        <v>34.45</v>
+        <v>32.3</v>
       </c>
       <c r="F4" t="n">
-        <v>500</v>
+        <v>2238.3715</v>
       </c>
       <c r="G4" t="n">
-        <v>133129.5759</v>
+        <v>33505.69089999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.59</v>
+        <v>32.2</v>
       </c>
       <c r="C5" t="n">
-        <v>34.59</v>
+        <v>32.2</v>
       </c>
       <c r="D5" t="n">
-        <v>34.59</v>
+        <v>32.2</v>
       </c>
       <c r="E5" t="n">
-        <v>34.59</v>
+        <v>32.2</v>
       </c>
       <c r="F5" t="n">
-        <v>2140</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>135269.5759</v>
+        <v>32505.69089999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34.6</v>
+        <v>32.19</v>
       </c>
       <c r="C6" t="n">
-        <v>34.6</v>
+        <v>32.18</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6</v>
+        <v>32.19</v>
       </c>
       <c r="E6" t="n">
-        <v>34.6</v>
+        <v>32.18</v>
       </c>
       <c r="F6" t="n">
-        <v>89.59537572254335</v>
+        <v>5526.529</v>
       </c>
       <c r="G6" t="n">
-        <v>135359.1712757226</v>
+        <v>26979.16189999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34.5</v>
+        <v>32.19</v>
       </c>
       <c r="C7" t="n">
-        <v>34.6</v>
+        <v>32.18</v>
       </c>
       <c r="D7" t="n">
-        <v>34.6</v>
+        <v>32.19</v>
       </c>
       <c r="E7" t="n">
-        <v>34.5</v>
+        <v>32.18</v>
       </c>
       <c r="F7" t="n">
-        <v>5399.1617</v>
+        <v>3662.4425</v>
       </c>
       <c r="G7" t="n">
-        <v>135359.1712757226</v>
+        <v>26979.16189999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.6</v>
+        <v>31.91</v>
       </c>
       <c r="C8" t="n">
-        <v>34.6</v>
+        <v>31.91</v>
       </c>
       <c r="D8" t="n">
-        <v>34.6</v>
+        <v>31.91</v>
       </c>
       <c r="E8" t="n">
-        <v>34.6</v>
+        <v>31.91</v>
       </c>
       <c r="F8" t="n">
-        <v>1472.592024277457</v>
+        <v>250</v>
       </c>
       <c r="G8" t="n">
-        <v>135359.1712757226</v>
+        <v>26729.16189999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.32</v>
+        <v>31.82</v>
       </c>
       <c r="C9" t="n">
-        <v>34.32</v>
+        <v>31.82</v>
       </c>
       <c r="D9" t="n">
-        <v>34.32</v>
+        <v>31.82</v>
       </c>
       <c r="E9" t="n">
-        <v>34.32</v>
+        <v>31.82</v>
       </c>
       <c r="F9" t="n">
-        <v>1048.6122</v>
+        <v>2095.0721</v>
       </c>
       <c r="G9" t="n">
-        <v>134310.5590757226</v>
+        <v>24634.08979999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,31 +726,35 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="C10" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="D10" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="E10" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="F10" t="n">
-        <v>1226.2111</v>
+        <v>646</v>
       </c>
       <c r="G10" t="n">
-        <v>133084.3479757226</v>
+        <v>24634.08979999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="K10" t="n">
+        <v>31.82</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -762,22 +766,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34.01</v>
+        <v>31.82</v>
       </c>
       <c r="C11" t="n">
-        <v>34.01</v>
+        <v>31.82</v>
       </c>
       <c r="D11" t="n">
-        <v>34.01</v>
+        <v>31.82</v>
       </c>
       <c r="E11" t="n">
-        <v>34.01</v>
+        <v>31.82</v>
       </c>
       <c r="F11" t="n">
-        <v>552.1739</v>
+        <v>0.4884</v>
       </c>
       <c r="G11" t="n">
-        <v>132532.1740757226</v>
+        <v>24634.08979999999</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -786,12 +790,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="K11" t="n">
-        <v>34.02</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+        <v>31.82</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -802,22 +810,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>33.71</v>
+        <v>32.2</v>
       </c>
       <c r="C12" t="n">
-        <v>33.71</v>
+        <v>32.2</v>
       </c>
       <c r="D12" t="n">
-        <v>33.71</v>
+        <v>32.2</v>
       </c>
       <c r="E12" t="n">
-        <v>33.71</v>
+        <v>32.2</v>
       </c>
       <c r="F12" t="n">
-        <v>699.862</v>
+        <v>393.0324</v>
       </c>
       <c r="G12" t="n">
-        <v>131832.3120757226</v>
+        <v>25027.12219999999</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -826,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.01</v>
+        <v>31.82</v>
       </c>
       <c r="K12" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -846,22 +854,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>33.72</v>
+        <v>32.19</v>
       </c>
       <c r="C13" t="n">
-        <v>33.95</v>
+        <v>32.19</v>
       </c>
       <c r="D13" t="n">
-        <v>33.95</v>
+        <v>32.19</v>
       </c>
       <c r="E13" t="n">
-        <v>33.72</v>
+        <v>32.11</v>
       </c>
       <c r="F13" t="n">
-        <v>2989.1303</v>
+        <v>11978.1735</v>
       </c>
       <c r="G13" t="n">
-        <v>134821.4423757226</v>
+        <v>13048.94869999999</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -870,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.71</v>
+        <v>32.2</v>
       </c>
       <c r="K13" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -890,22 +898,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>34</v>
+        <v>32.19</v>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>32.19</v>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>32.19</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>32.19</v>
       </c>
       <c r="F14" t="n">
-        <v>1684.6478</v>
+        <v>2842.4581</v>
       </c>
       <c r="G14" t="n">
-        <v>136506.0901757226</v>
+        <v>13048.94869999999</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -914,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>33.95</v>
+        <v>32.19</v>
       </c>
       <c r="K14" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -934,22 +942,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.01</v>
+        <v>32.13</v>
       </c>
       <c r="C15" t="n">
-        <v>34.01</v>
+        <v>32.13</v>
       </c>
       <c r="D15" t="n">
-        <v>34.01</v>
+        <v>32.13</v>
       </c>
       <c r="E15" t="n">
-        <v>34.01</v>
+        <v>32.13</v>
       </c>
       <c r="F15" t="n">
-        <v>649.1304</v>
+        <v>4611.8663</v>
       </c>
       <c r="G15" t="n">
-        <v>137155.2205757226</v>
+        <v>8437.08239999999</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -958,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34</v>
+        <v>32.19</v>
       </c>
       <c r="K15" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -978,22 +986,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>34.1</v>
+        <v>32.19</v>
       </c>
       <c r="C16" t="n">
-        <v>34.1</v>
+        <v>32.19</v>
       </c>
       <c r="D16" t="n">
-        <v>34.1</v>
+        <v>32.19</v>
       </c>
       <c r="E16" t="n">
-        <v>34.1</v>
+        <v>32.19</v>
       </c>
       <c r="F16" t="n">
-        <v>1508.0117</v>
+        <v>0.0001</v>
       </c>
       <c r="G16" t="n">
-        <v>138663.2322757226</v>
+        <v>8437.08249999999</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1002,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.01</v>
+        <v>32.13</v>
       </c>
       <c r="K16" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1022,22 +1030,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34.03</v>
+        <v>32.49</v>
       </c>
       <c r="C17" t="n">
-        <v>34.03</v>
+        <v>32.3</v>
       </c>
       <c r="D17" t="n">
-        <v>34.03</v>
+        <v>32.49</v>
       </c>
       <c r="E17" t="n">
-        <v>34.03</v>
+        <v>32.3</v>
       </c>
       <c r="F17" t="n">
-        <v>303.1533</v>
+        <v>4966.7654</v>
       </c>
       <c r="G17" t="n">
-        <v>138360.0789757226</v>
+        <v>13403.84789999999</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1046,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>34.1</v>
+        <v>32.19</v>
       </c>
       <c r="K17" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1066,34 +1074,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34.1</v>
+        <v>32.54</v>
       </c>
       <c r="C18" t="n">
-        <v>34.1</v>
+        <v>32.51</v>
       </c>
       <c r="D18" t="n">
-        <v>34.1</v>
+        <v>32.62</v>
       </c>
       <c r="E18" t="n">
-        <v>34.1</v>
+        <v>32.51</v>
       </c>
       <c r="F18" t="n">
-        <v>1789.9999</v>
+        <v>71839.014</v>
       </c>
       <c r="G18" t="n">
-        <v>140150.0788757226</v>
+        <v>85242.86189999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>34.03</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1110,34 +1116,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>34</v>
+        <v>32.68</v>
       </c>
       <c r="C19" t="n">
-        <v>34.1</v>
+        <v>32.54</v>
       </c>
       <c r="D19" t="n">
-        <v>34.1</v>
+        <v>33</v>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>32.54</v>
       </c>
       <c r="F19" t="n">
-        <v>3118.3355</v>
+        <v>11341.1898</v>
       </c>
       <c r="G19" t="n">
-        <v>140150.0788757226</v>
+        <v>96584.05169999998</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1154,34 +1158,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>34.1</v>
+        <v>32.42</v>
       </c>
       <c r="C20" t="n">
-        <v>34.1</v>
+        <v>32.42</v>
       </c>
       <c r="D20" t="n">
-        <v>34.1</v>
+        <v>32.42</v>
       </c>
       <c r="E20" t="n">
-        <v>34.1</v>
+        <v>32.42</v>
       </c>
       <c r="F20" t="n">
-        <v>881.6645</v>
+        <v>1050.1507</v>
       </c>
       <c r="G20" t="n">
-        <v>140150.0788757226</v>
+        <v>95533.90099999998</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1198,34 +1200,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>34</v>
+        <v>32.73</v>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>32.73</v>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>32.73</v>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>32.73</v>
       </c>
       <c r="F21" t="n">
-        <v>724.814</v>
+        <v>19.9489</v>
       </c>
       <c r="G21" t="n">
-        <v>139425.2648757226</v>
+        <v>95553.84989999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1242,34 +1242,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>34</v>
+        <v>32.22</v>
       </c>
       <c r="C22" t="n">
-        <v>33.98</v>
+        <v>32.22</v>
       </c>
       <c r="D22" t="n">
-        <v>34</v>
+        <v>32.22</v>
       </c>
       <c r="E22" t="n">
-        <v>33.98</v>
+        <v>32.22</v>
       </c>
       <c r="F22" t="n">
-        <v>3594.6</v>
+        <v>2088.1771</v>
       </c>
       <c r="G22" t="n">
-        <v>135830.6648757225</v>
+        <v>93465.67279999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>34</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1286,34 +1284,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>33.81</v>
+        <v>32.42</v>
       </c>
       <c r="C23" t="n">
-        <v>33.81</v>
+        <v>32.42</v>
       </c>
       <c r="D23" t="n">
-        <v>33.81</v>
+        <v>32.5</v>
       </c>
       <c r="E23" t="n">
-        <v>33.81</v>
+        <v>32.42</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>3019.3747</v>
       </c>
       <c r="G23" t="n">
-        <v>135730.6648757225</v>
+        <v>96485.04749999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>33.98</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1330,34 +1326,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="n">
-        <v>34.1</v>
+        <v>33.07</v>
       </c>
       <c r="D24" t="n">
-        <v>34.1</v>
+        <v>33.07</v>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="n">
-        <v>4000.3998</v>
+        <v>4479.5842</v>
       </c>
       <c r="G24" t="n">
-        <v>139731.0646757226</v>
+        <v>100964.6317</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>33.81</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1374,34 +1368,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>34.2</v>
+        <v>32.98</v>
       </c>
       <c r="C25" t="n">
-        <v>34.2</v>
+        <v>32.98</v>
       </c>
       <c r="D25" t="n">
-        <v>34.2</v>
+        <v>32.98</v>
       </c>
       <c r="E25" t="n">
-        <v>34.2</v>
+        <v>32.98</v>
       </c>
       <c r="F25" t="n">
-        <v>2386.5563</v>
+        <v>1024.9709</v>
       </c>
       <c r="G25" t="n">
-        <v>142117.6209757226</v>
+        <v>99939.66079999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>34.1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1418,34 +1410,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>34.2</v>
+        <v>33.24</v>
       </c>
       <c r="C26" t="n">
-        <v>34.2</v>
+        <v>33.24</v>
       </c>
       <c r="D26" t="n">
-        <v>34.2</v>
+        <v>33.24</v>
       </c>
       <c r="E26" t="n">
-        <v>34.2</v>
+        <v>33.24</v>
       </c>
       <c r="F26" t="n">
-        <v>7465.2395</v>
+        <v>2434.1785</v>
       </c>
       <c r="G26" t="n">
-        <v>142117.6209757226</v>
+        <v>102373.8393</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1462,34 +1452,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>34.2</v>
+        <v>33.24</v>
       </c>
       <c r="C27" t="n">
-        <v>34.46</v>
+        <v>33.29</v>
       </c>
       <c r="D27" t="n">
-        <v>34.46</v>
+        <v>33.29</v>
       </c>
       <c r="E27" t="n">
-        <v>34.2</v>
+        <v>33.24</v>
       </c>
       <c r="F27" t="n">
-        <v>19034.4849</v>
+        <v>2920.9158</v>
       </c>
       <c r="G27" t="n">
-        <v>161152.1058757226</v>
+        <v>105294.7551</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1506,34 +1494,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>34.46</v>
+        <v>33.1</v>
       </c>
       <c r="C28" t="n">
-        <v>34.7</v>
+        <v>33.1</v>
       </c>
       <c r="D28" t="n">
-        <v>34.7</v>
+        <v>33.1</v>
       </c>
       <c r="E28" t="n">
-        <v>34.46</v>
+        <v>33.1</v>
       </c>
       <c r="F28" t="n">
-        <v>30287.2787</v>
+        <v>1636.3287</v>
       </c>
       <c r="G28" t="n">
-        <v>191439.3845757226</v>
+        <v>103658.4264</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>34.46</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1550,22 +1536,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>34.7</v>
+        <v>32.95</v>
       </c>
       <c r="C29" t="n">
-        <v>34.85</v>
+        <v>32.95</v>
       </c>
       <c r="D29" t="n">
-        <v>34.85</v>
+        <v>32.95</v>
       </c>
       <c r="E29" t="n">
-        <v>34.7</v>
+        <v>32.95</v>
       </c>
       <c r="F29" t="n">
-        <v>5841.787</v>
+        <v>769.5652</v>
       </c>
       <c r="G29" t="n">
-        <v>197281.1715757226</v>
+        <v>102888.8612</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1575,7 +1561,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1592,22 +1578,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>34.7</v>
+        <v>33.03</v>
       </c>
       <c r="C30" t="n">
-        <v>34.7</v>
+        <v>33.02</v>
       </c>
       <c r="D30" t="n">
-        <v>34.7</v>
+        <v>33.03</v>
       </c>
       <c r="E30" t="n">
-        <v>34.7</v>
+        <v>33.02</v>
       </c>
       <c r="F30" t="n">
-        <v>576.692</v>
+        <v>5355.0943</v>
       </c>
       <c r="G30" t="n">
-        <v>196704.4795757226</v>
+        <v>108243.9555</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1617,7 +1603,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1634,22 +1620,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>34.7</v>
+        <v>32.51</v>
       </c>
       <c r="C31" t="n">
-        <v>35</v>
+        <v>32.51</v>
       </c>
       <c r="D31" t="n">
-        <v>35</v>
+        <v>32.51</v>
       </c>
       <c r="E31" t="n">
-        <v>34.7</v>
+        <v>32.51</v>
       </c>
       <c r="F31" t="n">
-        <v>42592.4095</v>
+        <v>1000</v>
       </c>
       <c r="G31" t="n">
-        <v>239296.8890757226</v>
+        <v>107243.9555</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1659,7 +1645,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1676,22 +1662,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>34.58</v>
+        <v>32.5</v>
       </c>
       <c r="C32" t="n">
-        <v>34.58</v>
+        <v>32.5</v>
       </c>
       <c r="D32" t="n">
-        <v>34.58</v>
+        <v>32.5</v>
       </c>
       <c r="E32" t="n">
-        <v>34.58</v>
+        <v>32.5</v>
       </c>
       <c r="F32" t="n">
-        <v>1245.9788</v>
+        <v>1780</v>
       </c>
       <c r="G32" t="n">
-        <v>238050.9102757226</v>
+        <v>105463.9555</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1701,7 +1687,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1718,22 +1704,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>34.61</v>
+        <v>32.4</v>
       </c>
       <c r="C33" t="n">
-        <v>34.61</v>
+        <v>32.4</v>
       </c>
       <c r="D33" t="n">
-        <v>34.61</v>
+        <v>32.4</v>
       </c>
       <c r="E33" t="n">
-        <v>34.61</v>
+        <v>32.4</v>
       </c>
       <c r="F33" t="n">
-        <v>795.0821</v>
+        <v>724.7080999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>238845.9923757226</v>
+        <v>104739.2474</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1743,7 +1729,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1760,22 +1746,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>34.61</v>
+        <v>32.21</v>
       </c>
       <c r="C34" t="n">
-        <v>34.61</v>
+        <v>32.21</v>
       </c>
       <c r="D34" t="n">
-        <v>34.61</v>
+        <v>32.21</v>
       </c>
       <c r="E34" t="n">
-        <v>34.61</v>
+        <v>32.21</v>
       </c>
       <c r="F34" t="n">
-        <v>1315.876</v>
+        <v>3814.0005</v>
       </c>
       <c r="G34" t="n">
-        <v>238845.9923757226</v>
+        <v>100925.2469</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1785,7 +1771,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1802,22 +1788,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>34.61</v>
+        <v>32.51</v>
       </c>
       <c r="C35" t="n">
-        <v>34.6</v>
+        <v>33.19</v>
       </c>
       <c r="D35" t="n">
-        <v>34.61</v>
+        <v>33.19</v>
       </c>
       <c r="E35" t="n">
-        <v>34.6</v>
+        <v>32.51</v>
       </c>
       <c r="F35" t="n">
-        <v>658.228</v>
+        <v>4300</v>
       </c>
       <c r="G35" t="n">
-        <v>238187.7643757226</v>
+        <v>105225.2469</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1827,7 +1813,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1844,22 +1830,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34.5</v>
+        <v>32.98</v>
       </c>
       <c r="C36" t="n">
-        <v>34.6</v>
+        <v>32.98</v>
       </c>
       <c r="D36" t="n">
-        <v>34.6</v>
+        <v>32.98</v>
       </c>
       <c r="E36" t="n">
-        <v>34.5</v>
+        <v>32.98</v>
       </c>
       <c r="F36" t="n">
-        <v>11431.8627</v>
+        <v>1247.0339</v>
       </c>
       <c r="G36" t="n">
-        <v>238187.7643757226</v>
+        <v>103978.213</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1869,7 +1855,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1886,22 +1872,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>34.6</v>
+        <v>32.93</v>
       </c>
       <c r="C37" t="n">
-        <v>34.6</v>
+        <v>32.74</v>
       </c>
       <c r="D37" t="n">
-        <v>34.6</v>
+        <v>32.93</v>
       </c>
       <c r="E37" t="n">
-        <v>34.6</v>
+        <v>32.74</v>
       </c>
       <c r="F37" t="n">
-        <v>7965.3591</v>
+        <v>7272.7713</v>
       </c>
       <c r="G37" t="n">
-        <v>238187.7643757226</v>
+        <v>96705.4417</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1911,7 +1897,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1928,22 +1914,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.51</v>
+        <v>33.2</v>
       </c>
       <c r="C38" t="n">
-        <v>34.51</v>
+        <v>33.2</v>
       </c>
       <c r="D38" t="n">
-        <v>34.51</v>
+        <v>33.2</v>
       </c>
       <c r="E38" t="n">
-        <v>34.51</v>
+        <v>33.2</v>
       </c>
       <c r="F38" t="n">
-        <v>3289.1459</v>
+        <v>1350.105</v>
       </c>
       <c r="G38" t="n">
-        <v>234898.6184757226</v>
+        <v>98055.54669999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1953,7 +1939,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1970,22 +1956,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.59</v>
+        <v>33.2</v>
       </c>
       <c r="C39" t="n">
-        <v>34.59</v>
+        <v>33.2</v>
       </c>
       <c r="D39" t="n">
-        <v>34.59</v>
+        <v>33.2</v>
       </c>
       <c r="E39" t="n">
-        <v>34.59</v>
+        <v>33.2</v>
       </c>
       <c r="F39" t="n">
-        <v>2706.812</v>
+        <v>1697.5092</v>
       </c>
       <c r="G39" t="n">
-        <v>237605.4304757226</v>
+        <v>98055.54669999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1995,7 +1981,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2012,22 +1998,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.59</v>
+        <v>33.01</v>
       </c>
       <c r="C40" t="n">
-        <v>34.59</v>
+        <v>33.25</v>
       </c>
       <c r="D40" t="n">
-        <v>34.59</v>
+        <v>33.25</v>
       </c>
       <c r="E40" t="n">
-        <v>34.59</v>
+        <v>32.91</v>
       </c>
       <c r="F40" t="n">
-        <v>5316.3449</v>
+        <v>11335.2919</v>
       </c>
       <c r="G40" t="n">
-        <v>237605.4304757226</v>
+        <v>109390.8386</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2037,7 +2023,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2054,22 +2040,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34.59</v>
+        <v>33.03</v>
       </c>
       <c r="C41" t="n">
-        <v>34.59</v>
+        <v>33.03</v>
       </c>
       <c r="D41" t="n">
-        <v>34.59</v>
+        <v>33.03</v>
       </c>
       <c r="E41" t="n">
-        <v>34.59</v>
+        <v>33.03</v>
       </c>
       <c r="F41" t="n">
-        <v>1219.3658</v>
+        <v>124.2209</v>
       </c>
       <c r="G41" t="n">
-        <v>237605.4304757226</v>
+        <v>109266.6177</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2079,7 +2065,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2096,22 +2082,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>34.59</v>
+        <v>33.3</v>
       </c>
       <c r="C42" t="n">
-        <v>34.7</v>
+        <v>33.35</v>
       </c>
       <c r="D42" t="n">
-        <v>34.7</v>
+        <v>33.35</v>
       </c>
       <c r="E42" t="n">
-        <v>34.59</v>
+        <v>33.3</v>
       </c>
       <c r="F42" t="n">
-        <v>10804.4919</v>
+        <v>3329.8935</v>
       </c>
       <c r="G42" t="n">
-        <v>248409.9223757226</v>
+        <v>112596.5112</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2121,7 +2107,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2138,22 +2124,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>34.47</v>
+        <v>33.35</v>
       </c>
       <c r="C43" t="n">
-        <v>34.7</v>
+        <v>33.35</v>
       </c>
       <c r="D43" t="n">
-        <v>34.7</v>
+        <v>33.35</v>
       </c>
       <c r="E43" t="n">
-        <v>34.47</v>
+        <v>33.35</v>
       </c>
       <c r="F43" t="n">
-        <v>7000</v>
+        <v>18999.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>248409.9223757226</v>
+        <v>112596.5112</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2163,7 +2149,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2180,22 +2166,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>34.69</v>
+        <v>33.35</v>
       </c>
       <c r="C44" t="n">
-        <v>34.69</v>
+        <v>33.5</v>
       </c>
       <c r="D44" t="n">
-        <v>34.69</v>
+        <v>33.5</v>
       </c>
       <c r="E44" t="n">
-        <v>34.69</v>
+        <v>33.35</v>
       </c>
       <c r="F44" t="n">
-        <v>140.669</v>
+        <v>1653.9366</v>
       </c>
       <c r="G44" t="n">
-        <v>248269.2533757226</v>
+        <v>114250.4478</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2205,7 +2191,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2222,22 +2208,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>34.47</v>
+        <v>33.5</v>
       </c>
       <c r="C45" t="n">
-        <v>34.45</v>
+        <v>33.5</v>
       </c>
       <c r="D45" t="n">
-        <v>34.47</v>
+        <v>33.5</v>
       </c>
       <c r="E45" t="n">
-        <v>34.45</v>
+        <v>33.5</v>
       </c>
       <c r="F45" t="n">
-        <v>8920.718000000001</v>
+        <v>1245.3736</v>
       </c>
       <c r="G45" t="n">
-        <v>239348.5353757226</v>
+        <v>114250.4478</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2247,7 +2233,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2264,22 +2250,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>34.59</v>
+        <v>33.5</v>
       </c>
       <c r="C46" t="n">
-        <v>34.59</v>
+        <v>33.5</v>
       </c>
       <c r="D46" t="n">
-        <v>34.59</v>
+        <v>33.5</v>
       </c>
       <c r="E46" t="n">
-        <v>34.59</v>
+        <v>33.5</v>
       </c>
       <c r="F46" t="n">
-        <v>1770</v>
+        <v>19411.0317</v>
       </c>
       <c r="G46" t="n">
-        <v>241118.5353757226</v>
+        <v>114250.4478</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2289,7 +2275,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2306,22 +2292,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>34.59</v>
+        <v>33.49</v>
       </c>
       <c r="C47" t="n">
-        <v>34.69</v>
+        <v>33.5</v>
       </c>
       <c r="D47" t="n">
-        <v>34.69</v>
+        <v>33.5</v>
       </c>
       <c r="E47" t="n">
-        <v>34.59</v>
+        <v>33.49</v>
       </c>
       <c r="F47" t="n">
-        <v>10224.1671</v>
+        <v>10000</v>
       </c>
       <c r="G47" t="n">
-        <v>251342.7024757226</v>
+        <v>114250.4478</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2331,7 +2317,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2348,22 +2334,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34.69</v>
+        <v>33.33</v>
       </c>
       <c r="C48" t="n">
-        <v>34.69</v>
+        <v>33.33</v>
       </c>
       <c r="D48" t="n">
-        <v>34.69</v>
+        <v>33.33</v>
       </c>
       <c r="E48" t="n">
-        <v>34.69</v>
+        <v>33.33</v>
       </c>
       <c r="F48" t="n">
-        <v>7850.3551</v>
+        <v>716.6962</v>
       </c>
       <c r="G48" t="n">
-        <v>251342.7024757226</v>
+        <v>113533.7516</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2373,7 +2359,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2390,22 +2376,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>34.69</v>
+        <v>33.5</v>
       </c>
       <c r="C49" t="n">
-        <v>34.69</v>
+        <v>33.6</v>
       </c>
       <c r="D49" t="n">
-        <v>34.69</v>
+        <v>33.6</v>
       </c>
       <c r="E49" t="n">
-        <v>34.69</v>
+        <v>33.5</v>
       </c>
       <c r="F49" t="n">
-        <v>989.2967</v>
+        <v>5456.5714</v>
       </c>
       <c r="G49" t="n">
-        <v>251342.7024757226</v>
+        <v>118990.323</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2415,7 +2401,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2432,22 +2418,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34.7</v>
+        <v>33.6</v>
       </c>
       <c r="C50" t="n">
-        <v>34.7</v>
+        <v>33.6</v>
       </c>
       <c r="D50" t="n">
-        <v>34.7</v>
+        <v>33.6</v>
       </c>
       <c r="E50" t="n">
-        <v>34.7</v>
+        <v>33.6</v>
       </c>
       <c r="F50" t="n">
-        <v>2420.0137</v>
+        <v>69</v>
       </c>
       <c r="G50" t="n">
-        <v>253762.7161757226</v>
+        <v>118990.323</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2457,7 +2443,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2474,22 +2460,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>34.7</v>
+        <v>33.6</v>
       </c>
       <c r="C51" t="n">
-        <v>34.7</v>
+        <v>33.6</v>
       </c>
       <c r="D51" t="n">
-        <v>34.7</v>
+        <v>33.6</v>
       </c>
       <c r="E51" t="n">
-        <v>34.7</v>
+        <v>33.6</v>
       </c>
       <c r="F51" t="n">
-        <v>65.99890000000001</v>
+        <v>0.1332</v>
       </c>
       <c r="G51" t="n">
-        <v>253762.7161757226</v>
+        <v>118990.323</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2499,7 +2485,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2516,22 +2502,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>34.54</v>
+        <v>33.88</v>
       </c>
       <c r="C52" t="n">
-        <v>34.54</v>
+        <v>33.88</v>
       </c>
       <c r="D52" t="n">
-        <v>34.54</v>
+        <v>33.88</v>
       </c>
       <c r="E52" t="n">
-        <v>34.54</v>
+        <v>33.88</v>
       </c>
       <c r="F52" t="n">
-        <v>490.759</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>253271.9571757226</v>
+        <v>119090.323</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2541,7 +2527,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2558,22 +2544,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>34.57</v>
+        <v>33.88</v>
       </c>
       <c r="C53" t="n">
-        <v>34.57</v>
+        <v>33.88</v>
       </c>
       <c r="D53" t="n">
-        <v>34.57</v>
+        <v>33.88</v>
       </c>
       <c r="E53" t="n">
-        <v>34.57</v>
+        <v>33.88</v>
       </c>
       <c r="F53" t="n">
-        <v>8913.1252</v>
+        <v>1136.3877</v>
       </c>
       <c r="G53" t="n">
-        <v>262185.0823757226</v>
+        <v>119090.323</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2583,7 +2569,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2600,22 +2586,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>34.57</v>
+        <v>33.98</v>
       </c>
       <c r="C54" t="n">
-        <v>34.57</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
-        <v>34.57</v>
+        <v>34</v>
       </c>
       <c r="E54" t="n">
-        <v>34.57</v>
+        <v>33.98</v>
       </c>
       <c r="F54" t="n">
-        <v>21.1693</v>
+        <v>9446.2482</v>
       </c>
       <c r="G54" t="n">
-        <v>262185.0823757226</v>
+        <v>128536.5712</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2625,7 +2611,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2642,22 +2628,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>34.33</v>
+        <v>34.11</v>
       </c>
       <c r="C55" t="n">
-        <v>34.22</v>
+        <v>33.63</v>
       </c>
       <c r="D55" t="n">
-        <v>34.33</v>
+        <v>34.39</v>
       </c>
       <c r="E55" t="n">
-        <v>34.22</v>
+        <v>33.63</v>
       </c>
       <c r="F55" t="n">
-        <v>8934.2945</v>
+        <v>26885.4836</v>
       </c>
       <c r="G55" t="n">
-        <v>253250.7878757226</v>
+        <v>101651.0876</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2667,7 +2653,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2684,22 +2670,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>34.13</v>
+        <v>34.3</v>
       </c>
       <c r="C56" t="n">
-        <v>34.13</v>
+        <v>34.3</v>
       </c>
       <c r="D56" t="n">
-        <v>34.13</v>
+        <v>34.3</v>
       </c>
       <c r="E56" t="n">
-        <v>34.13</v>
+        <v>34.3</v>
       </c>
       <c r="F56" t="n">
-        <v>35.946</v>
+        <v>2744.3403</v>
       </c>
       <c r="G56" t="n">
-        <v>253214.8418757226</v>
+        <v>104395.4279</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2709,7 +2695,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2726,22 +2712,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>34.2</v>
+        <v>34.33</v>
       </c>
       <c r="C57" t="n">
-        <v>34.09</v>
+        <v>34.33</v>
       </c>
       <c r="D57" t="n">
-        <v>34.2</v>
+        <v>34.33</v>
       </c>
       <c r="E57" t="n">
-        <v>34.08</v>
+        <v>34.33</v>
       </c>
       <c r="F57" t="n">
-        <v>36147.5886</v>
+        <v>490</v>
       </c>
       <c r="G57" t="n">
-        <v>217067.2532757226</v>
+        <v>104885.4279</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2751,7 +2737,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2768,34 +2754,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="C58" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="D58" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="E58" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="F58" t="n">
-        <v>3293.496</v>
+        <v>7096.3619</v>
       </c>
       <c r="G58" t="n">
-        <v>220360.7492757226</v>
+        <v>111981.7898</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>34.09</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2812,34 +2796,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>34.02</v>
+        <v>34.4</v>
       </c>
       <c r="C59" t="n">
-        <v>33.91</v>
+        <v>34.43</v>
       </c>
       <c r="D59" t="n">
-        <v>34.02</v>
+        <v>34.43</v>
       </c>
       <c r="E59" t="n">
-        <v>33.91</v>
+        <v>34.4</v>
       </c>
       <c r="F59" t="n">
-        <v>10804.4919</v>
+        <v>2224.0215</v>
       </c>
       <c r="G59" t="n">
-        <v>209556.2573757226</v>
+        <v>114205.8113</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2856,34 +2838,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>34.2</v>
+        <v>34.44</v>
       </c>
       <c r="C60" t="n">
-        <v>34.2</v>
+        <v>34.53</v>
       </c>
       <c r="D60" t="n">
-        <v>34.2</v>
+        <v>34.53</v>
       </c>
       <c r="E60" t="n">
-        <v>34.2</v>
+        <v>34.44</v>
       </c>
       <c r="F60" t="n">
-        <v>1176.3529</v>
+        <v>561.5267</v>
       </c>
       <c r="G60" t="n">
-        <v>210732.6102757226</v>
+        <v>114767.338</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>33.91</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2900,34 +2880,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>34.01</v>
+        <v>34.52</v>
       </c>
       <c r="C61" t="n">
-        <v>34.01</v>
+        <v>34.67</v>
       </c>
       <c r="D61" t="n">
-        <v>34.01</v>
+        <v>34.67</v>
       </c>
       <c r="E61" t="n">
-        <v>34.01</v>
+        <v>34.52</v>
       </c>
       <c r="F61" t="n">
-        <v>5084.0191</v>
+        <v>13726</v>
       </c>
       <c r="G61" t="n">
-        <v>205648.5911757226</v>
+        <v>128493.338</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2944,34 +2922,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>34.2</v>
+        <v>34.7</v>
       </c>
       <c r="C62" t="n">
-        <v>34.2</v>
+        <v>34.7</v>
       </c>
       <c r="D62" t="n">
-        <v>34.2</v>
+        <v>34.7</v>
       </c>
       <c r="E62" t="n">
-        <v>34.2</v>
+        <v>34.7</v>
       </c>
       <c r="F62" t="n">
-        <v>2316.2197</v>
+        <v>3701.6402</v>
       </c>
       <c r="G62" t="n">
-        <v>207964.8108757226</v>
+        <v>132194.9782</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>34.01</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2988,34 +2964,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>34.2</v>
+        <v>34.34</v>
       </c>
       <c r="C63" t="n">
-        <v>34.2</v>
+        <v>34.34</v>
       </c>
       <c r="D63" t="n">
-        <v>34.2</v>
+        <v>34.34</v>
       </c>
       <c r="E63" t="n">
-        <v>34.2</v>
+        <v>34.34</v>
       </c>
       <c r="F63" t="n">
-        <v>1300</v>
+        <v>987.4121</v>
       </c>
       <c r="G63" t="n">
-        <v>207964.8108757226</v>
+        <v>131207.5661</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3032,34 +3006,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>34.07</v>
+        <v>34.25</v>
       </c>
       <c r="C64" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="D64" t="n">
-        <v>34.3</v>
+        <v>34.25</v>
       </c>
       <c r="E64" t="n">
-        <v>34.07</v>
+        <v>34.2</v>
       </c>
       <c r="F64" t="n">
-        <v>3993</v>
+        <v>2203.9658</v>
       </c>
       <c r="G64" t="n">
-        <v>211957.8108757226</v>
+        <v>129003.6003</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>34.2</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3076,34 +3048,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>34.3</v>
+        <v>34.19</v>
       </c>
       <c r="C65" t="n">
-        <v>34.3</v>
+        <v>34.19</v>
       </c>
       <c r="D65" t="n">
-        <v>34.3</v>
+        <v>34.19</v>
       </c>
       <c r="E65" t="n">
-        <v>34.3</v>
+        <v>34.19</v>
       </c>
       <c r="F65" t="n">
-        <v>2914.5743</v>
+        <v>964.1469</v>
       </c>
       <c r="G65" t="n">
-        <v>211957.8108757226</v>
+        <v>128039.4534</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3120,34 +3090,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>34.3</v>
+        <v>34.16</v>
       </c>
       <c r="C66" t="n">
-        <v>34.3</v>
+        <v>34.16</v>
       </c>
       <c r="D66" t="n">
-        <v>34.3</v>
+        <v>34.16</v>
       </c>
       <c r="E66" t="n">
-        <v>34.3</v>
+        <v>34.16</v>
       </c>
       <c r="F66" t="n">
-        <v>1219.3658</v>
+        <v>3701.6402</v>
       </c>
       <c r="G66" t="n">
-        <v>211957.8108757226</v>
+        <v>124337.8132</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3164,34 +3132,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>34.15</v>
+        <v>34</v>
       </c>
       <c r="C67" t="n">
-        <v>34.3</v>
+        <v>34</v>
       </c>
       <c r="D67" t="n">
-        <v>34.3</v>
+        <v>34</v>
       </c>
       <c r="E67" t="n">
-        <v>34.15</v>
+        <v>34</v>
       </c>
       <c r="F67" t="n">
-        <v>3129.7222</v>
+        <v>63.7583</v>
       </c>
       <c r="G67" t="n">
-        <v>211957.8108757226</v>
+        <v>124274.0549</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3208,34 +3174,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>34.3</v>
+        <v>33.56</v>
       </c>
       <c r="C68" t="n">
-        <v>34.4</v>
+        <v>33.56</v>
       </c>
       <c r="D68" t="n">
-        <v>34.4</v>
+        <v>33.56</v>
       </c>
       <c r="E68" t="n">
-        <v>34.3</v>
+        <v>33.56</v>
       </c>
       <c r="F68" t="n">
-        <v>44623.473</v>
+        <v>1435.4015</v>
       </c>
       <c r="G68" t="n">
-        <v>256581.2838757226</v>
+        <v>122838.6534</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>34.3</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3252,34 +3216,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="C69" t="n">
-        <v>34.4</v>
+        <v>34.57</v>
       </c>
       <c r="D69" t="n">
-        <v>34.4</v>
+        <v>34.57</v>
       </c>
       <c r="E69" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="F69" t="n">
-        <v>5892.7678</v>
+        <v>6340</v>
       </c>
       <c r="G69" t="n">
-        <v>256581.2838757226</v>
+        <v>129178.6534</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>34.4</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3296,34 +3258,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>34.4</v>
+        <v>34.21</v>
       </c>
       <c r="C70" t="n">
-        <v>34.4</v>
+        <v>34.21</v>
       </c>
       <c r="D70" t="n">
-        <v>34.4</v>
+        <v>34.21</v>
       </c>
       <c r="E70" t="n">
-        <v>34.4</v>
+        <v>34.21</v>
       </c>
       <c r="F70" t="n">
-        <v>499.0501</v>
+        <v>790.7968</v>
       </c>
       <c r="G70" t="n">
-        <v>256581.2838757226</v>
+        <v>128387.8566</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>34.4</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3340,34 +3300,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="C71" t="n">
-        <v>34.4</v>
+        <v>34.24</v>
       </c>
       <c r="D71" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="E71" t="n">
-        <v>34.4</v>
+        <v>34.24</v>
       </c>
       <c r="F71" t="n">
-        <v>7965.4372</v>
+        <v>2286.2017</v>
       </c>
       <c r="G71" t="n">
-        <v>256581.2838757226</v>
+        <v>130674.0583</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>34.4</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3384,34 +3342,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>34.4</v>
+        <v>34.53</v>
       </c>
       <c r="C72" t="n">
-        <v>34.4</v>
+        <v>34.52</v>
       </c>
       <c r="D72" t="n">
-        <v>34.4</v>
+        <v>34.53</v>
       </c>
       <c r="E72" t="n">
-        <v>34.4</v>
+        <v>34.52</v>
       </c>
       <c r="F72" t="n">
-        <v>2302.6908</v>
+        <v>6955.5176</v>
       </c>
       <c r="G72" t="n">
-        <v>256581.2838757226</v>
+        <v>137629.5759</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>34.4</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3428,34 +3384,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>34.4</v>
+        <v>34.52</v>
       </c>
       <c r="C73" t="n">
-        <v>34.4</v>
+        <v>34.52</v>
       </c>
       <c r="D73" t="n">
-        <v>34.4</v>
+        <v>34.52</v>
       </c>
       <c r="E73" t="n">
-        <v>34.4</v>
+        <v>34.52</v>
       </c>
       <c r="F73" t="n">
-        <v>1342.9289</v>
+        <v>2300.5116</v>
       </c>
       <c r="G73" t="n">
-        <v>256581.2838757226</v>
+        <v>137629.5759</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>34.4</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3472,34 +3426,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>34.57</v>
+        <v>34.45</v>
       </c>
       <c r="C74" t="n">
-        <v>34.69</v>
+        <v>34.45</v>
       </c>
       <c r="D74" t="n">
-        <v>34.69</v>
+        <v>34.45</v>
       </c>
       <c r="E74" t="n">
-        <v>34.57</v>
+        <v>34.45</v>
       </c>
       <c r="F74" t="n">
-        <v>7437.7455</v>
+        <v>4500</v>
       </c>
       <c r="G74" t="n">
-        <v>264019.0293757226</v>
+        <v>133129.5759</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>34.4</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3516,34 +3468,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>34.69</v>
+        <v>34.45</v>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>34.45</v>
       </c>
       <c r="D75" t="n">
-        <v>35</v>
+        <v>34.45</v>
       </c>
       <c r="E75" t="n">
-        <v>34.69</v>
+        <v>34.45</v>
       </c>
       <c r="F75" t="n">
-        <v>205012.9286</v>
+        <v>500</v>
       </c>
       <c r="G75" t="n">
-        <v>469031.9579757226</v>
+        <v>133129.5759</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>34.69</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3560,22 +3510,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>35</v>
+        <v>34.59</v>
       </c>
       <c r="C76" t="n">
-        <v>35</v>
+        <v>34.59</v>
       </c>
       <c r="D76" t="n">
-        <v>35</v>
+        <v>34.59</v>
       </c>
       <c r="E76" t="n">
-        <v>35</v>
+        <v>34.59</v>
       </c>
       <c r="F76" t="n">
-        <v>6100</v>
+        <v>2140</v>
       </c>
       <c r="G76" t="n">
-        <v>469031.9579757226</v>
+        <v>135269.5759</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3585,7 +3535,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3602,22 +3552,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>35.09</v>
+        <v>34.6</v>
       </c>
       <c r="C77" t="n">
-        <v>35.09</v>
+        <v>34.6</v>
       </c>
       <c r="D77" t="n">
-        <v>35.09</v>
+        <v>34.6</v>
       </c>
       <c r="E77" t="n">
-        <v>35.09</v>
+        <v>34.6</v>
       </c>
       <c r="F77" t="n">
-        <v>1247.648</v>
+        <v>89.59537572254335</v>
       </c>
       <c r="G77" t="n">
-        <v>470279.6059757226</v>
+        <v>135359.1712757226</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3627,7 +3577,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3644,22 +3594,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>34.99</v>
+        <v>34.5</v>
       </c>
       <c r="C78" t="n">
-        <v>34.99</v>
+        <v>34.6</v>
       </c>
       <c r="D78" t="n">
-        <v>34.99</v>
+        <v>34.6</v>
       </c>
       <c r="E78" t="n">
-        <v>34.99</v>
+        <v>34.5</v>
       </c>
       <c r="F78" t="n">
-        <v>7677.3824</v>
+        <v>5399.1617</v>
       </c>
       <c r="G78" t="n">
-        <v>462602.2235757226</v>
+        <v>135359.1712757226</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3669,7 +3619,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3686,22 +3636,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C79" t="n">
-        <v>34.71</v>
+        <v>34.6</v>
       </c>
       <c r="D79" t="n">
-        <v>34.71</v>
+        <v>34.6</v>
       </c>
       <c r="E79" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="F79" t="n">
-        <v>1420.5948</v>
+        <v>1472.592024277457</v>
       </c>
       <c r="G79" t="n">
-        <v>461181.6287757226</v>
+        <v>135359.1712757226</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3711,7 +3661,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3728,22 +3678,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>34.75</v>
+        <v>34.32</v>
       </c>
       <c r="C80" t="n">
-        <v>34.75</v>
+        <v>34.32</v>
       </c>
       <c r="D80" t="n">
-        <v>34.75</v>
+        <v>34.32</v>
       </c>
       <c r="E80" t="n">
-        <v>34.75</v>
+        <v>34.32</v>
       </c>
       <c r="F80" t="n">
-        <v>7500</v>
+        <v>1048.6122</v>
       </c>
       <c r="G80" t="n">
-        <v>468681.6287757226</v>
+        <v>134310.5590757226</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3753,7 +3703,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3770,22 +3720,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>34.75</v>
+        <v>34.02</v>
       </c>
       <c r="C81" t="n">
-        <v>34.75</v>
+        <v>34.02</v>
       </c>
       <c r="D81" t="n">
-        <v>34.75</v>
+        <v>34.02</v>
       </c>
       <c r="E81" t="n">
-        <v>34.75</v>
+        <v>34.02</v>
       </c>
       <c r="F81" t="n">
-        <v>15926.7722</v>
+        <v>1226.2111</v>
       </c>
       <c r="G81" t="n">
-        <v>468681.6287757226</v>
+        <v>133084.3479757226</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3795,7 +3745,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3812,22 +3762,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>34.75</v>
+        <v>34.01</v>
       </c>
       <c r="C82" t="n">
-        <v>34.75</v>
+        <v>34.01</v>
       </c>
       <c r="D82" t="n">
-        <v>34.75</v>
+        <v>34.01</v>
       </c>
       <c r="E82" t="n">
-        <v>34.75</v>
+        <v>34.01</v>
       </c>
       <c r="F82" t="n">
-        <v>3851.5653</v>
+        <v>552.1739</v>
       </c>
       <c r="G82" t="n">
-        <v>468681.6287757226</v>
+        <v>132532.1740757226</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3837,7 +3787,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3854,22 +3804,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>34.75</v>
+        <v>33.71</v>
       </c>
       <c r="C83" t="n">
-        <v>34.75</v>
+        <v>33.71</v>
       </c>
       <c r="D83" t="n">
-        <v>34.75</v>
+        <v>33.71</v>
       </c>
       <c r="E83" t="n">
-        <v>34.75</v>
+        <v>33.71</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0001</v>
+        <v>699.862</v>
       </c>
       <c r="G83" t="n">
-        <v>468681.6287757226</v>
+        <v>131832.3120757226</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3879,7 +3829,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3896,22 +3846,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>34.9</v>
+        <v>33.72</v>
       </c>
       <c r="C84" t="n">
-        <v>34.9</v>
+        <v>33.95</v>
       </c>
       <c r="D84" t="n">
-        <v>34.9</v>
+        <v>33.95</v>
       </c>
       <c r="E84" t="n">
-        <v>34.9</v>
+        <v>33.72</v>
       </c>
       <c r="F84" t="n">
-        <v>10000</v>
+        <v>2989.1303</v>
       </c>
       <c r="G84" t="n">
-        <v>478681.6287757226</v>
+        <v>134821.4423757226</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3921,7 +3871,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3938,22 +3888,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C85" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E85" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F85" t="n">
-        <v>1120.3361</v>
+        <v>1684.6478</v>
       </c>
       <c r="G85" t="n">
-        <v>479801.9648757226</v>
+        <v>136506.0901757226</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3963,7 +3913,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3980,22 +3930,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>35</v>
+        <v>34.01</v>
       </c>
       <c r="C86" t="n">
-        <v>35.39</v>
+        <v>34.01</v>
       </c>
       <c r="D86" t="n">
-        <v>35.39</v>
+        <v>34.01</v>
       </c>
       <c r="E86" t="n">
-        <v>35</v>
+        <v>34.01</v>
       </c>
       <c r="F86" t="n">
-        <v>27800</v>
+        <v>649.1304</v>
       </c>
       <c r="G86" t="n">
-        <v>507601.9648757226</v>
+        <v>137155.2205757226</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4005,7 +3955,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4022,22 +3972,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="C87" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="D87" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="E87" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="F87" t="n">
-        <v>3550</v>
+        <v>1508.0117</v>
       </c>
       <c r="G87" t="n">
-        <v>504051.9648757226</v>
+        <v>138663.2322757226</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4047,7 +3997,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4064,22 +4014,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>35</v>
+        <v>34.03</v>
       </c>
       <c r="C88" t="n">
-        <v>35</v>
+        <v>34.03</v>
       </c>
       <c r="D88" t="n">
-        <v>35</v>
+        <v>34.03</v>
       </c>
       <c r="E88" t="n">
-        <v>35</v>
+        <v>34.03</v>
       </c>
       <c r="F88" t="n">
-        <v>857.1428571428571</v>
+        <v>303.1533</v>
       </c>
       <c r="G88" t="n">
-        <v>504051.9648757226</v>
+        <v>138360.0789757226</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4089,7 +4039,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4106,22 +4056,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="C89" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="D89" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="E89" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="F89" t="n">
-        <v>3588.1177</v>
+        <v>1789.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>504051.9648757226</v>
+        <v>140150.0788757226</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4131,7 +4081,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4148,22 +4098,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C90" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="D90" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="E90" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F90" t="n">
-        <v>1655.4966</v>
+        <v>3118.3355</v>
       </c>
       <c r="G90" t="n">
-        <v>504051.9648757226</v>
+        <v>140150.0788757226</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4173,7 +4123,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4190,40 +4140,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>34.81</v>
+        <v>34.1</v>
       </c>
       <c r="C91" t="n">
-        <v>35.15</v>
+        <v>34.1</v>
       </c>
       <c r="D91" t="n">
-        <v>35.15</v>
+        <v>34.1</v>
       </c>
       <c r="E91" t="n">
-        <v>34.8</v>
+        <v>34.1</v>
       </c>
       <c r="F91" t="n">
-        <v>13736.62524285714</v>
+        <v>881.6645</v>
       </c>
       <c r="G91" t="n">
-        <v>517788.5901185797</v>
+        <v>140150.0788757226</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>34.02</v>
+        <v>31.82</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1.028215755437978</v>
+        <v>1</v>
       </c>
       <c r="N91" t="inlineStr"/>
     </row>
@@ -4232,32 +4182,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>34.92</v>
+        <v>34</v>
       </c>
       <c r="C92" t="n">
-        <v>34.91</v>
+        <v>34</v>
       </c>
       <c r="D92" t="n">
-        <v>34.92</v>
+        <v>34</v>
       </c>
       <c r="E92" t="n">
-        <v>34.91</v>
+        <v>34</v>
       </c>
       <c r="F92" t="n">
-        <v>5680</v>
+        <v>724.814</v>
       </c>
       <c r="G92" t="n">
-        <v>512108.5901185797</v>
+        <v>139425.2648757226</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4268,32 +4224,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>34.91</v>
+        <v>34</v>
       </c>
       <c r="C93" t="n">
-        <v>34.91</v>
+        <v>33.98</v>
       </c>
       <c r="D93" t="n">
-        <v>34.91</v>
+        <v>34</v>
       </c>
       <c r="E93" t="n">
-        <v>34.91</v>
+        <v>33.98</v>
       </c>
       <c r="F93" t="n">
-        <v>1978.3825</v>
+        <v>3594.6</v>
       </c>
       <c r="G93" t="n">
-        <v>512108.5901185797</v>
+        <v>135830.6648757225</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4304,22 +4266,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>34.91</v>
+        <v>33.81</v>
       </c>
       <c r="C94" t="n">
-        <v>34.91</v>
+        <v>33.81</v>
       </c>
       <c r="D94" t="n">
-        <v>34.91</v>
+        <v>33.81</v>
       </c>
       <c r="E94" t="n">
-        <v>34.91</v>
+        <v>33.81</v>
       </c>
       <c r="F94" t="n">
-        <v>18818.6208</v>
+        <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>512108.5901185797</v>
+        <v>135730.6648757225</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4328,8 +4290,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4340,22 +4308,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>35.05</v>
+        <v>34</v>
       </c>
       <c r="C95" t="n">
-        <v>34.8</v>
+        <v>34.1</v>
       </c>
       <c r="D95" t="n">
-        <v>35.05</v>
+        <v>34.1</v>
       </c>
       <c r="E95" t="n">
-        <v>34.8</v>
+        <v>34</v>
       </c>
       <c r="F95" t="n">
-        <v>2093.3521</v>
+        <v>4000.3998</v>
       </c>
       <c r="G95" t="n">
-        <v>510015.2380185797</v>
+        <v>139731.0646757226</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4364,8 +4332,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4376,22 +4350,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>34.65</v>
+        <v>34.2</v>
       </c>
       <c r="C96" t="n">
-        <v>34.65</v>
+        <v>34.2</v>
       </c>
       <c r="D96" t="n">
-        <v>34.65</v>
+        <v>34.2</v>
       </c>
       <c r="E96" t="n">
-        <v>34.65</v>
+        <v>34.2</v>
       </c>
       <c r="F96" t="n">
-        <v>1880.5074</v>
+        <v>2386.5563</v>
       </c>
       <c r="G96" t="n">
-        <v>508134.7306185797</v>
+        <v>142117.6209757226</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4400,8 +4374,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4412,22 +4392,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>34.69</v>
+        <v>34.2</v>
       </c>
       <c r="C97" t="n">
-        <v>34.81</v>
+        <v>34.2</v>
       </c>
       <c r="D97" t="n">
-        <v>34.81</v>
+        <v>34.2</v>
       </c>
       <c r="E97" t="n">
-        <v>34.69</v>
+        <v>34.2</v>
       </c>
       <c r="F97" t="n">
-        <v>11900</v>
+        <v>7465.2395</v>
       </c>
       <c r="G97" t="n">
-        <v>520034.7306185797</v>
+        <v>142117.6209757226</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4436,8 +4416,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4448,22 +4434,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>34.75</v>
+        <v>34.2</v>
       </c>
       <c r="C98" t="n">
-        <v>34.75</v>
+        <v>34.46</v>
       </c>
       <c r="D98" t="n">
-        <v>34.75</v>
+        <v>34.46</v>
       </c>
       <c r="E98" t="n">
-        <v>34.75</v>
+        <v>34.2</v>
       </c>
       <c r="F98" t="n">
-        <v>1054.6085</v>
+        <v>19034.4849</v>
       </c>
       <c r="G98" t="n">
-        <v>518980.1221185797</v>
+        <v>161152.1058757226</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4472,8 +4458,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4484,22 +4476,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>35.15</v>
+        <v>34.46</v>
       </c>
       <c r="C99" t="n">
-        <v>35.15</v>
+        <v>34.7</v>
       </c>
       <c r="D99" t="n">
-        <v>35.15</v>
+        <v>34.7</v>
       </c>
       <c r="E99" t="n">
-        <v>35.15</v>
+        <v>34.46</v>
       </c>
       <c r="F99" t="n">
-        <v>495.8996</v>
+        <v>30287.2787</v>
       </c>
       <c r="G99" t="n">
-        <v>519476.0217185798</v>
+        <v>191439.3845757226</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4508,8 +4500,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4520,22 +4518,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>35.15</v>
+        <v>34.7</v>
       </c>
       <c r="C100" t="n">
-        <v>35.28</v>
+        <v>34.85</v>
       </c>
       <c r="D100" t="n">
-        <v>35.28</v>
+        <v>34.85</v>
       </c>
       <c r="E100" t="n">
-        <v>35.15</v>
+        <v>34.7</v>
       </c>
       <c r="F100" t="n">
-        <v>13214.8038</v>
+        <v>5841.787</v>
       </c>
       <c r="G100" t="n">
-        <v>532690.8255185798</v>
+        <v>197281.1715757226</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4544,8 +4542,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4556,32 +4560,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>35.37</v>
+        <v>34.7</v>
       </c>
       <c r="C101" t="n">
-        <v>35.37</v>
+        <v>34.7</v>
       </c>
       <c r="D101" t="n">
-        <v>35.37</v>
+        <v>34.7</v>
       </c>
       <c r="E101" t="n">
-        <v>35.37</v>
+        <v>34.7</v>
       </c>
       <c r="F101" t="n">
-        <v>9870.6967</v>
+        <v>576.692</v>
       </c>
       <c r="G101" t="n">
-        <v>542561.5222185798</v>
+        <v>196704.4795757226</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4592,32 +4602,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>35.37</v>
+        <v>34.7</v>
       </c>
       <c r="C102" t="n">
-        <v>35.37</v>
+        <v>35</v>
       </c>
       <c r="D102" t="n">
-        <v>35.37</v>
+        <v>35</v>
       </c>
       <c r="E102" t="n">
-        <v>35.37</v>
+        <v>34.7</v>
       </c>
       <c r="F102" t="n">
-        <v>15549.3515</v>
+        <v>42592.4095</v>
       </c>
       <c r="G102" t="n">
-        <v>542561.5222185798</v>
+        <v>239296.8890757226</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4628,32 +4644,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>35.38</v>
+        <v>34.58</v>
       </c>
       <c r="C103" t="n">
-        <v>35.38</v>
+        <v>34.58</v>
       </c>
       <c r="D103" t="n">
-        <v>35.38</v>
+        <v>34.58</v>
       </c>
       <c r="E103" t="n">
-        <v>35.38</v>
+        <v>34.58</v>
       </c>
       <c r="F103" t="n">
-        <v>64.89619999999999</v>
+        <v>1245.9788</v>
       </c>
       <c r="G103" t="n">
-        <v>542626.4184185797</v>
+        <v>238050.9102757226</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4664,32 +4686,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>35.37</v>
+        <v>34.61</v>
       </c>
       <c r="C104" t="n">
-        <v>35.37</v>
+        <v>34.61</v>
       </c>
       <c r="D104" t="n">
-        <v>35.37</v>
+        <v>34.61</v>
       </c>
       <c r="E104" t="n">
-        <v>35.37</v>
+        <v>34.61</v>
       </c>
       <c r="F104" t="n">
-        <v>2000</v>
+        <v>795.0821</v>
       </c>
       <c r="G104" t="n">
-        <v>540626.4184185797</v>
+        <v>238845.9923757226</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4700,32 +4728,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>35.37</v>
+        <v>34.61</v>
       </c>
       <c r="C105" t="n">
-        <v>35.37</v>
+        <v>34.61</v>
       </c>
       <c r="D105" t="n">
-        <v>35.37</v>
+        <v>34.61</v>
       </c>
       <c r="E105" t="n">
-        <v>35.37</v>
+        <v>34.61</v>
       </c>
       <c r="F105" t="n">
-        <v>3504</v>
+        <v>1315.876</v>
       </c>
       <c r="G105" t="n">
-        <v>540626.4184185797</v>
+        <v>238845.9923757226</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4736,32 +4770,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>35.05</v>
+        <v>34.61</v>
       </c>
       <c r="C106" t="n">
-        <v>34.75</v>
+        <v>34.6</v>
       </c>
       <c r="D106" t="n">
-        <v>35.05</v>
+        <v>34.61</v>
       </c>
       <c r="E106" t="n">
-        <v>34.75</v>
+        <v>34.6</v>
       </c>
       <c r="F106" t="n">
-        <v>21053.3515</v>
+        <v>658.228</v>
       </c>
       <c r="G106" t="n">
-        <v>519573.0669185797</v>
+        <v>238187.7643757226</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4772,22 +4812,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>35.28</v>
+        <v>34.5</v>
       </c>
       <c r="C107" t="n">
-        <v>35.28</v>
+        <v>34.6</v>
       </c>
       <c r="D107" t="n">
-        <v>35.28</v>
+        <v>34.6</v>
       </c>
       <c r="E107" t="n">
-        <v>35.28</v>
+        <v>34.5</v>
       </c>
       <c r="F107" t="n">
-        <v>247.7366</v>
+        <v>11431.8627</v>
       </c>
       <c r="G107" t="n">
-        <v>519820.8035185797</v>
+        <v>238187.7643757226</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4796,8 +4836,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4808,22 +4854,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>35.25</v>
+        <v>34.6</v>
       </c>
       <c r="C108" t="n">
-        <v>35.25</v>
+        <v>34.6</v>
       </c>
       <c r="D108" t="n">
-        <v>35.25</v>
+        <v>34.6</v>
       </c>
       <c r="E108" t="n">
-        <v>35.25</v>
+        <v>34.6</v>
       </c>
       <c r="F108" t="n">
-        <v>990</v>
+        <v>7965.3591</v>
       </c>
       <c r="G108" t="n">
-        <v>518830.8035185797</v>
+        <v>238187.7643757226</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4832,8 +4878,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4844,22 +4896,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>35.26</v>
+        <v>34.51</v>
       </c>
       <c r="C109" t="n">
-        <v>35.26</v>
+        <v>34.51</v>
       </c>
       <c r="D109" t="n">
-        <v>35.26</v>
+        <v>34.51</v>
       </c>
       <c r="E109" t="n">
-        <v>35.26</v>
+        <v>34.51</v>
       </c>
       <c r="F109" t="n">
-        <v>1643.493</v>
+        <v>3289.1459</v>
       </c>
       <c r="G109" t="n">
-        <v>520474.2965185798</v>
+        <v>234898.6184757226</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4868,8 +4920,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4880,22 +4938,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>35.08</v>
+        <v>34.59</v>
       </c>
       <c r="C110" t="n">
-        <v>35.08</v>
+        <v>34.59</v>
       </c>
       <c r="D110" t="n">
-        <v>35.08</v>
+        <v>34.59</v>
       </c>
       <c r="E110" t="n">
-        <v>35.08</v>
+        <v>34.59</v>
       </c>
       <c r="F110" t="n">
-        <v>132.8005</v>
+        <v>2706.812</v>
       </c>
       <c r="G110" t="n">
-        <v>520341.4960185798</v>
+        <v>237605.4304757226</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4904,8 +4962,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4916,22 +4980,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>35.08</v>
+        <v>34.59</v>
       </c>
       <c r="C111" t="n">
-        <v>35.08</v>
+        <v>34.59</v>
       </c>
       <c r="D111" t="n">
-        <v>35.08</v>
+        <v>34.59</v>
       </c>
       <c r="E111" t="n">
-        <v>35.08</v>
+        <v>34.59</v>
       </c>
       <c r="F111" t="n">
-        <v>1090</v>
+        <v>5316.3449</v>
       </c>
       <c r="G111" t="n">
-        <v>520341.4960185798</v>
+        <v>237605.4304757226</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4940,8 +5004,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4952,32 +5022,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>35.08</v>
+        <v>34.59</v>
       </c>
       <c r="C112" t="n">
-        <v>35.08</v>
+        <v>34.59</v>
       </c>
       <c r="D112" t="n">
-        <v>35.08</v>
+        <v>34.59</v>
       </c>
       <c r="E112" t="n">
-        <v>35.08</v>
+        <v>34.59</v>
       </c>
       <c r="F112" t="n">
-        <v>34.6749</v>
+        <v>1219.3658</v>
       </c>
       <c r="G112" t="n">
-        <v>520341.4960185798</v>
+        <v>237605.4304757226</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4988,32 +5064,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>35.3</v>
+        <v>34.59</v>
       </c>
       <c r="C113" t="n">
-        <v>35.3</v>
+        <v>34.7</v>
       </c>
       <c r="D113" t="n">
-        <v>35.3</v>
+        <v>34.7</v>
       </c>
       <c r="E113" t="n">
-        <v>35.3</v>
+        <v>34.59</v>
       </c>
       <c r="F113" t="n">
-        <v>2000</v>
+        <v>10804.4919</v>
       </c>
       <c r="G113" t="n">
-        <v>522341.4960185798</v>
+        <v>248409.9223757226</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5024,32 +5106,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>35.3</v>
+        <v>34.47</v>
       </c>
       <c r="C114" t="n">
-        <v>35.38</v>
+        <v>34.7</v>
       </c>
       <c r="D114" t="n">
-        <v>35.38</v>
+        <v>34.7</v>
       </c>
       <c r="E114" t="n">
-        <v>35.3</v>
+        <v>34.47</v>
       </c>
       <c r="F114" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="G114" t="n">
-        <v>532341.4960185797</v>
+        <v>248409.9223757226</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5060,32 +5148,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>35.15</v>
+        <v>34.69</v>
       </c>
       <c r="C115" t="n">
-        <v>35.15</v>
+        <v>34.69</v>
       </c>
       <c r="D115" t="n">
-        <v>35.15</v>
+        <v>34.69</v>
       </c>
       <c r="E115" t="n">
-        <v>35.15</v>
+        <v>34.69</v>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>140.669</v>
       </c>
       <c r="G115" t="n">
-        <v>532301.4960185797</v>
+        <v>248269.2533757226</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5096,32 +5190,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>35.27</v>
+        <v>34.47</v>
       </c>
       <c r="C116" t="n">
-        <v>35.38</v>
+        <v>34.45</v>
       </c>
       <c r="D116" t="n">
-        <v>35.38</v>
+        <v>34.47</v>
       </c>
       <c r="E116" t="n">
-        <v>35.27</v>
+        <v>34.45</v>
       </c>
       <c r="F116" t="n">
-        <v>11442.8095</v>
+        <v>8920.718000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>543744.3055185797</v>
+        <v>239348.5353757226</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5132,32 +5232,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>35.38</v>
+        <v>34.59</v>
       </c>
       <c r="C117" t="n">
-        <v>35.38</v>
+        <v>34.59</v>
       </c>
       <c r="D117" t="n">
-        <v>35.38</v>
+        <v>34.59</v>
       </c>
       <c r="E117" t="n">
-        <v>35.38</v>
+        <v>34.59</v>
       </c>
       <c r="F117" t="n">
-        <v>3092.6702</v>
+        <v>1770</v>
       </c>
       <c r="G117" t="n">
-        <v>543744.3055185797</v>
+        <v>241118.5353757226</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5168,32 +5274,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>35.38</v>
+        <v>34.59</v>
       </c>
       <c r="C118" t="n">
-        <v>35.38</v>
+        <v>34.69</v>
       </c>
       <c r="D118" t="n">
-        <v>35.38</v>
+        <v>34.69</v>
       </c>
       <c r="E118" t="n">
-        <v>35.38</v>
+        <v>34.59</v>
       </c>
       <c r="F118" t="n">
-        <v>3081.7939</v>
+        <v>10224.1671</v>
       </c>
       <c r="G118" t="n">
-        <v>543744.3055185797</v>
+        <v>251342.7024757226</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5204,36 +5316,2930 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="C119" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="D119" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="E119" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="F119" t="n">
+        <v>7850.3551</v>
+      </c>
+      <c r="G119" t="n">
+        <v>251342.7024757226</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="C120" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="D120" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="E120" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="F120" t="n">
+        <v>989.2967</v>
+      </c>
+      <c r="G120" t="n">
+        <v>251342.7024757226</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C121" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D121" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2420.0137</v>
+      </c>
+      <c r="G121" t="n">
+        <v>253762.7161757226</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>65.99890000000001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>253762.7161757226</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="C123" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="D123" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="E123" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="F123" t="n">
+        <v>490.759</v>
+      </c>
+      <c r="G123" t="n">
+        <v>253271.9571757226</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="C124" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="D124" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="E124" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="F124" t="n">
+        <v>8913.1252</v>
+      </c>
+      <c r="G124" t="n">
+        <v>262185.0823757226</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="C125" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="D125" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="E125" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="F125" t="n">
+        <v>21.1693</v>
+      </c>
+      <c r="G125" t="n">
+        <v>262185.0823757226</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>34.33</v>
+      </c>
+      <c r="C126" t="n">
+        <v>34.22</v>
+      </c>
+      <c r="D126" t="n">
+        <v>34.33</v>
+      </c>
+      <c r="E126" t="n">
+        <v>34.22</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8934.2945</v>
+      </c>
+      <c r="G126" t="n">
+        <v>253250.7878757226</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="C127" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="D127" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="E127" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="F127" t="n">
+        <v>35.946</v>
+      </c>
+      <c r="G127" t="n">
+        <v>253214.8418757226</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>34.09</v>
+      </c>
+      <c r="D128" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>34.08</v>
+      </c>
+      <c r="F128" t="n">
+        <v>36147.5886</v>
+      </c>
+      <c r="G128" t="n">
+        <v>217067.2532757226</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>34</v>
+      </c>
+      <c r="C129" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>34</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3293.496</v>
+      </c>
+      <c r="G129" t="n">
+        <v>220360.7492757226</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="C130" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="D130" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="E130" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10804.4919</v>
+      </c>
+      <c r="G130" t="n">
+        <v>209556.2573757226</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C131" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1176.3529</v>
+      </c>
+      <c r="G131" t="n">
+        <v>210732.6102757226</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>34.01</v>
+      </c>
+      <c r="C132" t="n">
+        <v>34.01</v>
+      </c>
+      <c r="D132" t="n">
+        <v>34.01</v>
+      </c>
+      <c r="E132" t="n">
+        <v>34.01</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5084.0191</v>
+      </c>
+      <c r="G132" t="n">
+        <v>205648.5911757226</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2316.2197</v>
+      </c>
+      <c r="G133" t="n">
+        <v>207964.8108757226</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G134" t="n">
+        <v>207964.8108757226</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>34.07</v>
+      </c>
+      <c r="C135" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>34.07</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3993</v>
+      </c>
+      <c r="G135" t="n">
+        <v>211957.8108757226</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D136" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2914.5743</v>
+      </c>
+      <c r="G136" t="n">
+        <v>211957.8108757226</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1219.3658</v>
+      </c>
+      <c r="G137" t="n">
+        <v>211957.8108757226</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="C138" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3129.7222</v>
+      </c>
+      <c r="G138" t="n">
+        <v>211957.8108757226</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D139" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E139" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>44623.473</v>
+      </c>
+      <c r="G139" t="n">
+        <v>256581.2838757226</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5892.7678</v>
+      </c>
+      <c r="G140" t="n">
+        <v>256581.2838757226</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>499.0501</v>
+      </c>
+      <c r="G141" t="n">
+        <v>256581.2838757226</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D142" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E142" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>7965.4372</v>
+      </c>
+      <c r="G142" t="n">
+        <v>256581.2838757226</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2302.6908</v>
+      </c>
+      <c r="G143" t="n">
+        <v>256581.2838757226</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1342.9289</v>
+      </c>
+      <c r="G144" t="n">
+        <v>256581.2838757226</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="C145" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="D145" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="E145" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="F145" t="n">
+        <v>7437.7455</v>
+      </c>
+      <c r="G145" t="n">
+        <v>264019.0293757226</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="C146" t="n">
+        <v>35</v>
+      </c>
+      <c r="D146" t="n">
+        <v>35</v>
+      </c>
+      <c r="E146" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="F146" t="n">
+        <v>205012.9286</v>
+      </c>
+      <c r="G146" t="n">
+        <v>469031.9579757226</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>35</v>
+      </c>
+      <c r="C147" t="n">
+        <v>35</v>
+      </c>
+      <c r="D147" t="n">
+        <v>35</v>
+      </c>
+      <c r="E147" t="n">
+        <v>35</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6100</v>
+      </c>
+      <c r="G147" t="n">
+        <v>469031.9579757226</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>35.09</v>
+      </c>
+      <c r="C148" t="n">
+        <v>35.09</v>
+      </c>
+      <c r="D148" t="n">
+        <v>35.09</v>
+      </c>
+      <c r="E148" t="n">
+        <v>35.09</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1247.648</v>
+      </c>
+      <c r="G148" t="n">
+        <v>470279.6059757226</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="C149" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="D149" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="E149" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7677.3824</v>
+      </c>
+      <c r="G149" t="n">
+        <v>462602.2235757226</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="D150" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="E150" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1420.5948</v>
+      </c>
+      <c r="G150" t="n">
+        <v>461181.6287757226</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="C151" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="D151" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="E151" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G151" t="n">
+        <v>468681.6287757226</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="C152" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="D152" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="E152" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="F152" t="n">
+        <v>15926.7722</v>
+      </c>
+      <c r="G152" t="n">
+        <v>468681.6287757226</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="C153" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="D153" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="E153" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3851.5653</v>
+      </c>
+      <c r="G153" t="n">
+        <v>468681.6287757226</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="C154" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="D154" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="E154" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G154" t="n">
+        <v>468681.6287757226</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="F155" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>478681.6287757226</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>35</v>
+      </c>
+      <c r="C156" t="n">
+        <v>35</v>
+      </c>
+      <c r="D156" t="n">
+        <v>35</v>
+      </c>
+      <c r="E156" t="n">
+        <v>35</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1120.3361</v>
+      </c>
+      <c r="G156" t="n">
+        <v>479801.9648757226</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>35</v>
+      </c>
+      <c r="C157" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="D157" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="E157" t="n">
+        <v>35</v>
+      </c>
+      <c r="F157" t="n">
+        <v>27800</v>
+      </c>
+      <c r="G157" t="n">
+        <v>507601.9648757226</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>35</v>
+      </c>
+      <c r="C158" t="n">
+        <v>35</v>
+      </c>
+      <c r="D158" t="n">
+        <v>35</v>
+      </c>
+      <c r="E158" t="n">
+        <v>35</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3550</v>
+      </c>
+      <c r="G158" t="n">
+        <v>504051.9648757226</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>35</v>
+      </c>
+      <c r="C159" t="n">
+        <v>35</v>
+      </c>
+      <c r="D159" t="n">
+        <v>35</v>
+      </c>
+      <c r="E159" t="n">
+        <v>35</v>
+      </c>
+      <c r="F159" t="n">
+        <v>857.1428571428571</v>
+      </c>
+      <c r="G159" t="n">
+        <v>504051.9648757226</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>35</v>
+      </c>
+      <c r="C160" t="n">
+        <v>35</v>
+      </c>
+      <c r="D160" t="n">
+        <v>35</v>
+      </c>
+      <c r="E160" t="n">
+        <v>35</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3588.1177</v>
+      </c>
+      <c r="G160" t="n">
+        <v>504051.9648757226</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>35</v>
+      </c>
+      <c r="C161" t="n">
+        <v>35</v>
+      </c>
+      <c r="D161" t="n">
+        <v>35</v>
+      </c>
+      <c r="E161" t="n">
+        <v>35</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1655.4966</v>
+      </c>
+      <c r="G161" t="n">
+        <v>504051.9648757226</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="C162" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="D162" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="E162" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>13736.62524285714</v>
+      </c>
+      <c r="G162" t="n">
+        <v>517788.5901185797</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>34.92</v>
+      </c>
+      <c r="C163" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="D163" t="n">
+        <v>34.92</v>
+      </c>
+      <c r="E163" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5680</v>
+      </c>
+      <c r="G163" t="n">
+        <v>512108.5901185797</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="C164" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="D164" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="E164" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1978.3825</v>
+      </c>
+      <c r="G164" t="n">
+        <v>512108.5901185797</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="C165" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="D165" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="E165" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="F165" t="n">
+        <v>18818.6208</v>
+      </c>
+      <c r="G165" t="n">
+        <v>512108.5901185797</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="C166" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="E166" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2093.3521</v>
+      </c>
+      <c r="G166" t="n">
+        <v>510015.2380185797</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="C167" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="D167" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="E167" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1880.5074</v>
+      </c>
+      <c r="G167" t="n">
+        <v>508134.7306185797</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="C168" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="D168" t="n">
+        <v>34.81</v>
+      </c>
+      <c r="E168" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="F168" t="n">
+        <v>11900</v>
+      </c>
+      <c r="G168" t="n">
+        <v>520034.7306185797</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="C169" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="D169" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="E169" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1054.6085</v>
+      </c>
+      <c r="G169" t="n">
+        <v>518980.1221185797</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="C170" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="D170" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="E170" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="F170" t="n">
+        <v>495.8996</v>
+      </c>
+      <c r="G170" t="n">
+        <v>519476.0217185798</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="C171" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="D171" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="E171" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="F171" t="n">
+        <v>13214.8038</v>
+      </c>
+      <c r="G171" t="n">
+        <v>532690.8255185798</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="C172" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="D172" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="E172" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="F172" t="n">
+        <v>9870.6967</v>
+      </c>
+      <c r="G172" t="n">
+        <v>542561.5222185798</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="C173" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="D173" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="E173" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="F173" t="n">
+        <v>15549.3515</v>
+      </c>
+      <c r="G173" t="n">
+        <v>542561.5222185798</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
         <v>35.38</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C174" t="n">
         <v>35.38</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D174" t="n">
         <v>35.38</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E174" t="n">
         <v>35.38</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F174" t="n">
+        <v>64.89619999999999</v>
+      </c>
+      <c r="G174" t="n">
+        <v>542626.4184185797</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1.106879321181647</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1.021055939660591</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="C175" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="D175" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="E175" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>540626.4184185797</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="C176" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="D176" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="E176" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3504</v>
+      </c>
+      <c r="G176" t="n">
+        <v>540626.4184185797</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="C177" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="D177" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="E177" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="F177" t="n">
+        <v>21053.3515</v>
+      </c>
+      <c r="G177" t="n">
+        <v>519573.0669185797</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="C178" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="D178" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="E178" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="F178" t="n">
+        <v>247.7366</v>
+      </c>
+      <c r="G178" t="n">
+        <v>519820.8035185797</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="C179" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="D179" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="E179" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="F179" t="n">
+        <v>990</v>
+      </c>
+      <c r="G179" t="n">
+        <v>518830.8035185797</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="C180" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="D180" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="E180" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1643.493</v>
+      </c>
+      <c r="G180" t="n">
+        <v>520474.2965185798</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="C181" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D181" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="E181" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="F181" t="n">
+        <v>132.8005</v>
+      </c>
+      <c r="G181" t="n">
+        <v>520341.4960185798</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="C182" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D182" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="E182" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1090</v>
+      </c>
+      <c r="G182" t="n">
+        <v>520341.4960185798</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="C183" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D183" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="E183" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="F183" t="n">
+        <v>34.6749</v>
+      </c>
+      <c r="G183" t="n">
+        <v>520341.4960185798</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="E184" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G184" t="n">
+        <v>522341.4960185798</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C185" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D185" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E185" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>532341.4960185797</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="C186" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="D186" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="E186" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="F186" t="n">
+        <v>40</v>
+      </c>
+      <c r="G186" t="n">
+        <v>532301.4960185797</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="C187" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D187" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E187" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="F187" t="n">
+        <v>11442.8095</v>
+      </c>
+      <c r="G187" t="n">
+        <v>543744.3055185797</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="C188" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D188" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E188" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="F188" t="n">
+        <v>3092.6702</v>
+      </c>
+      <c r="G188" t="n">
+        <v>543744.3055185797</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="C189" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D189" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E189" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3081.7939</v>
+      </c>
+      <c r="G189" t="n">
+        <v>543744.3055185797</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="C190" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="D190" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="E190" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="F190" t="n">
         <v>10931.09330391267</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G190" t="n">
         <v>543744.3055185797</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest GNT.xlsx
+++ b/BackTest/2020-01-16 BackTest GNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N190"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>34347.2066</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>33505.69089999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>32.49</v>
+      </c>
+      <c r="J3" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>33505.69089999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>32.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,23 @@
         <v>32505.69089999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>32.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +605,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +638,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +669,19 @@
         <v>26729.16189999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>32.18</v>
+      </c>
+      <c r="J8" t="n">
+        <v>32.18</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +706,23 @@
         <v>24634.08979999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>31.91</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,22 +747,23 @@
         <v>24634.08979999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>31.82</v>
       </c>
       <c r="J10" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="K10" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>32.18</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -784,114 +788,101 @@
         <v>24634.08979999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>31.82</v>
       </c>
       <c r="J11" t="n">
         <v>31.82</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>393.0324</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25027.12219999999</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
         <v>31.82</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="J12" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="D13" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11978.1735</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13048.94869999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
         <v>32.2</v>
       </c>
-      <c r="C12" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>393.0324</v>
-      </c>
-      <c r="G12" t="n">
-        <v>25027.12219999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>31.82</v>
       </c>
-      <c r="K12" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="C13" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="D13" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="E13" t="n">
-        <v>32.11</v>
-      </c>
-      <c r="F13" t="n">
-        <v>11978.1735</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13048.94869999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -916,26 +907,19 @@
         <v>13048.94869999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>32.19</v>
       </c>
       <c r="J14" t="n">
         <v>32.19</v>
       </c>
-      <c r="K14" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -960,26 +944,23 @@
         <v>8437.08239999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>32.19</v>
       </c>
       <c r="J15" t="n">
         <v>32.19</v>
       </c>
-      <c r="K15" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1004,26 +985,23 @@
         <v>8437.08249999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>32.13</v>
       </c>
       <c r="J16" t="n">
-        <v>32.13</v>
-      </c>
-      <c r="K16" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>32.19</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1048,26 +1026,19 @@
         <v>13403.84789999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>32.19</v>
       </c>
       <c r="J17" t="n">
         <v>32.19</v>
       </c>
-      <c r="K17" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,24 +1063,23 @@
         <v>85242.86189999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>32.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1136,22 +1106,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1178,22 +1145,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1220,22 +1178,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1262,22 +1211,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1304,22 +1244,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1344,24 +1275,19 @@
         <v>100964.6317</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>32.42</v>
+      </c>
+      <c r="J24" t="n">
+        <v>32.42</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1388,22 +1314,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>32.42</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1430,22 +1353,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>32.42</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1472,22 +1392,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1514,22 +1425,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1556,22 +1458,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1598,22 +1491,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1640,22 +1524,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1682,22 +1557,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1724,22 +1590,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1766,22 +1623,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1808,22 +1656,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1850,22 +1689,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1892,22 +1722,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1934,22 +1755,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1976,22 +1788,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2018,22 +1821,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2060,22 +1854,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2102,22 +1887,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2144,22 +1920,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2184,24 +1951,15 @@
         <v>114250.4478</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2228,22 +1986,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2270,22 +2019,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2310,24 +2050,15 @@
         <v>114250.4478</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2352,24 +2083,15 @@
         <v>113533.7516</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2396,22 +2118,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2438,22 +2151,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2480,22 +2184,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2520,24 +2215,15 @@
         <v>119090.323</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2564,22 +2250,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2606,22 +2283,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2648,22 +2316,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2690,22 +2349,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2732,22 +2382,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2774,22 +2415,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2816,22 +2448,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2858,22 +2481,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2900,22 +2514,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2942,22 +2547,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2984,22 +2580,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3026,22 +2613,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3068,22 +2646,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3110,22 +2679,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3152,22 +2712,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3194,22 +2745,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3236,22 +2778,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3278,22 +2811,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3320,22 +2844,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3362,22 +2877,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3404,22 +2910,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3446,22 +2943,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3488,22 +2976,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3530,22 +3009,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3572,22 +3042,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3614,22 +3075,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3656,22 +3108,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3698,22 +3141,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3740,22 +3174,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3782,22 +3207,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3824,22 +3240,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3866,22 +3273,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3908,22 +3306,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3948,24 +3337,15 @@
         <v>137155.2205757226</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3990,24 +3370,15 @@
         <v>138663.2322757226</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4034,22 +3405,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4076,22 +3438,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4118,22 +3471,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4160,22 +3504,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4202,22 +3537,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4244,22 +3570,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4286,22 +3603,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4328,22 +3636,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4370,22 +3669,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4412,22 +3702,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4454,22 +3735,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4496,22 +3768,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4538,22 +3801,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4580,22 +3834,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4622,22 +3867,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4664,22 +3900,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4706,22 +3933,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4748,22 +3966,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4790,22 +3999,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4832,22 +4032,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4874,22 +4065,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4916,22 +4098,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4956,24 +4129,15 @@
         <v>237605.4304757226</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5000,22 +4164,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5042,22 +4197,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5084,22 +4230,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5124,24 +4261,15 @@
         <v>248409.9223757226</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5168,22 +4296,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5210,22 +4329,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5252,22 +4362,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5294,22 +4395,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5336,22 +4428,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5378,22 +4461,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5420,22 +4494,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5462,22 +4527,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5504,22 +4560,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5544,24 +4591,15 @@
         <v>262185.0823757226</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5586,24 +4624,15 @@
         <v>262185.0823757226</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5630,22 +4659,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5672,22 +4692,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5714,22 +4725,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5756,22 +4758,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5796,24 +4789,15 @@
         <v>209556.2573757226</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5838,24 +4822,15 @@
         <v>210732.6102757226</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5880,24 +4855,15 @@
         <v>205648.5911757226</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5924,22 +4890,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5966,22 +4923,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6008,22 +4956,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6050,22 +4989,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6092,22 +5022,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6134,22 +5055,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6176,22 +5088,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6218,22 +5121,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6260,22 +5154,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6302,22 +5187,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6344,22 +5220,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6386,22 +5253,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6428,22 +5286,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6470,22 +5319,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6510,24 +5350,15 @@
         <v>469031.9579757226</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6552,24 +5383,15 @@
         <v>470279.6059757226</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6594,24 +5416,15 @@
         <v>462602.2235757226</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6638,22 +5451,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6680,22 +5484,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6722,22 +5517,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6764,22 +5550,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6806,22 +5583,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6848,22 +5616,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6890,22 +5649,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6932,22 +5682,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6974,22 +5715,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7016,22 +5748,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7058,22 +5781,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7098,24 +5812,15 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7140,24 +5845,15 @@
         <v>517788.5901185797</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7182,24 +5878,15 @@
         <v>512108.5901185797</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7226,22 +5913,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7266,24 +5944,15 @@
         <v>512108.5901185797</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7308,24 +5977,15 @@
         <v>510015.2380185797</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7350,24 +6010,15 @@
         <v>508134.7306185797</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7394,22 +6045,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7434,24 +6076,15 @@
         <v>518980.1221185797</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7478,22 +6111,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7518,24 +6142,15 @@
         <v>532690.8255185798</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7560,24 +6175,15 @@
         <v>542561.5222185798</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7604,22 +6210,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7646,24 +6243,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1.106879321181647</v>
-      </c>
-      <c r="N174" t="n">
-        <v>1.021055939660591</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7690,16 +6276,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7726,16 +6309,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7762,16 +6342,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7798,16 +6375,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7832,18 +6406,15 @@
         <v>518830.8035185797</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7870,16 +6441,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7904,18 +6472,15 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7940,18 +6505,15 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7976,18 +6538,15 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8014,16 +6573,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8050,16 +6606,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8086,16 +6639,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8122,16 +6672,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8156,18 +6703,15 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8194,16 +6738,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8228,20 +6769,17 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest GNT.xlsx
+++ b/BackTest/2020-01-16 BackTest GNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>34347.2066</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>33505.69089999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="J3" t="n">
-        <v>32.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>33505.69089999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>32505.69089999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -636,11 +616,17 @@
         <v>26979.16189999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>32.18</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,15 +655,17 @@
         <v>26729.16189999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>32.18</v>
       </c>
-      <c r="J8" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -706,17 +694,15 @@
         <v>24634.08979999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>31.91</v>
       </c>
-      <c r="J9" t="n">
-        <v>32.18</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -747,17 +733,15 @@
         <v>24634.08979999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>31.82</v>
       </c>
-      <c r="J10" t="n">
-        <v>32.18</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -788,15 +772,17 @@
         <v>24634.08979999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>31.82</v>
       </c>
-      <c r="J11" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -825,17 +811,15 @@
         <v>25027.12219999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>31.82</v>
       </c>
-      <c r="J12" t="n">
-        <v>31.82</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -866,17 +850,15 @@
         <v>13048.94869999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>32.2</v>
       </c>
-      <c r="J13" t="n">
-        <v>31.82</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -907,15 +889,17 @@
         <v>13048.94869999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>32.19</v>
       </c>
-      <c r="J14" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -944,17 +928,15 @@
         <v>8437.08239999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>32.19</v>
       </c>
-      <c r="J15" t="n">
-        <v>32.19</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -985,17 +967,15 @@
         <v>8437.08249999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>32.13</v>
       </c>
-      <c r="J16" t="n">
-        <v>32.19</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1026,15 +1006,17 @@
         <v>13403.84789999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>32.19</v>
       </c>
-      <c r="J17" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1063,17 +1045,15 @@
         <v>85242.86189999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>32.3</v>
       </c>
-      <c r="J18" t="n">
-        <v>32.19</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1104,15 +1084,15 @@
         <v>96584.05169999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>32.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1147,7 +1127,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1180,7 +1164,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1213,7 +1201,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1246,7 +1238,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1275,15 +1271,17 @@
         <v>100964.6317</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>32.42</v>
       </c>
-      <c r="J24" t="n">
-        <v>32.42</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1315,12 +1313,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>32.42</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1354,12 +1350,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>32.42</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1394,7 +1388,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1427,7 +1425,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1460,7 +1462,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1493,7 +1499,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1526,7 +1536,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1555,11 +1569,17 @@
         <v>105463.9555</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>32.51</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1588,11 +1608,17 @@
         <v>104739.2474</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>32.5</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1621,11 +1647,17 @@
         <v>100925.2469</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>32.4</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1654,11 +1686,17 @@
         <v>105225.2469</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>32.21</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1691,7 +1729,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1724,7 +1766,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1757,7 +1803,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1790,7 +1840,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1823,7 +1877,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1856,7 +1914,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1889,7 +1951,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1922,7 +1988,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1951,11 +2021,15 @@
         <v>114250.4478</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1988,7 +2062,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2021,7 +2099,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2050,11 +2132,15 @@
         <v>114250.4478</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2083,11 +2169,15 @@
         <v>113533.7516</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2120,7 +2210,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2153,7 +2247,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2186,7 +2284,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2215,11 +2317,15 @@
         <v>119090.323</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2252,7 +2358,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2285,7 +2395,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2318,7 +2432,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2351,7 +2469,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2384,7 +2506,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2417,7 +2543,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2450,7 +2580,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2483,7 +2617,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2516,7 +2654,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2549,7 +2691,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2582,7 +2728,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2615,7 +2765,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2648,7 +2802,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2681,7 +2839,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2714,7 +2876,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2747,7 +2913,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2780,7 +2950,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2813,7 +2987,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2846,7 +3024,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2879,7 +3061,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2912,7 +3098,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2945,7 +3135,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2978,7 +3172,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3011,7 +3209,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3044,7 +3246,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3077,7 +3283,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3110,7 +3320,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3143,7 +3357,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3176,7 +3394,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3209,7 +3431,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3242,7 +3468,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3275,7 +3505,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3308,7 +3542,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3337,11 +3575,15 @@
         <v>137155.2205757226</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3370,11 +3612,15 @@
         <v>138663.2322757226</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3407,7 +3653,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3440,7 +3690,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3473,7 +3727,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3506,7 +3764,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3539,7 +3801,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3572,7 +3838,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3605,7 +3875,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3638,7 +3912,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3671,7 +3949,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3704,7 +3986,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3737,7 +4023,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3770,7 +4060,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3803,7 +4097,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3836,7 +4134,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3869,7 +4171,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3902,7 +4208,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3935,7 +4245,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3968,7 +4282,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4001,7 +4319,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4034,7 +4356,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4067,7 +4393,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4100,7 +4430,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4129,11 +4463,15 @@
         <v>237605.4304757226</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4166,7 +4504,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4199,7 +4541,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4232,7 +4578,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4261,11 +4611,15 @@
         <v>248409.9223757226</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4298,7 +4652,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4331,7 +4689,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4364,7 +4726,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4397,7 +4763,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4430,7 +4800,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4463,7 +4837,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4496,7 +4874,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4529,7 +4911,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4562,7 +4948,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4591,11 +4981,15 @@
         <v>262185.0823757226</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4624,11 +5018,15 @@
         <v>262185.0823757226</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4661,7 +5059,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4694,7 +5096,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4727,7 +5133,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4760,7 +5170,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4789,11 +5203,15 @@
         <v>209556.2573757226</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4822,11 +5240,15 @@
         <v>210732.6102757226</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4855,11 +5277,15 @@
         <v>205648.5911757226</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4892,7 +5318,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4925,7 +5355,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4958,7 +5392,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4991,7 +5429,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5024,7 +5466,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5057,7 +5503,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5090,7 +5540,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5123,7 +5577,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5156,7 +5614,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5189,7 +5651,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5222,7 +5688,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5255,7 +5725,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5762,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5321,7 +5799,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5350,14 +5832,16 @@
         <v>469031.9579757226</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -5383,7 +5867,7 @@
         <v>470279.6059757226</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5416,7 +5900,7 @@
         <v>462602.2235757226</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5449,7 +5933,7 @@
         <v>461181.6287757226</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5482,7 +5966,7 @@
         <v>468681.6287757226</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5515,7 +5999,7 @@
         <v>468681.6287757226</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5548,7 +6032,7 @@
         <v>468681.6287757226</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5581,7 +6065,7 @@
         <v>468681.6287757226</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5647,7 +6131,7 @@
         <v>479801.9648757226</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5680,7 +6164,7 @@
         <v>507601.9648757226</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5713,7 +6197,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5746,7 +6230,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5779,7 +6263,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5812,7 +6296,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5845,7 +6329,7 @@
         <v>517788.5901185797</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5878,7 +6362,7 @@
         <v>512108.5901185797</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5911,7 +6395,7 @@
         <v>512108.5901185797</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5944,7 +6428,7 @@
         <v>512108.5901185797</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5977,7 +6461,7 @@
         <v>510015.2380185797</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6010,7 +6494,7 @@
         <v>508134.7306185797</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6043,7 +6527,7 @@
         <v>520034.7306185797</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6076,7 +6560,7 @@
         <v>518980.1221185797</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6109,7 +6593,7 @@
         <v>519476.0217185798</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6142,7 +6626,7 @@
         <v>532690.8255185798</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6175,7 +6659,7 @@
         <v>542561.5222185798</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6208,7 +6692,7 @@
         <v>542561.5222185798</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6241,7 +6725,7 @@
         <v>542626.4184185797</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6274,7 +6758,7 @@
         <v>540626.4184185797</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6307,7 +6791,7 @@
         <v>540626.4184185797</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6340,7 +6824,7 @@
         <v>519573.0669185797</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6373,7 +6857,7 @@
         <v>519820.8035185797</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6406,7 +6890,7 @@
         <v>518830.8035185797</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6472,7 +6956,7 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6505,7 +6989,7 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6538,7 +7022,7 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6670,7 +7154,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6703,7 +7187,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6736,7 +7220,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6769,7 +7253,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6780,6 +7264,6 @@
       <c r="M190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest GNT.xlsx
+++ b/BackTest/2020-01-16 BackTest GNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,17 +616,11 @@
         <v>26979.16189999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>32.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -660,12 +654,10 @@
       <c r="I8" t="n">
         <v>32.18</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -699,10 +691,12 @@
       <c r="I9" t="n">
         <v>31.91</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>32.18</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -738,10 +732,12 @@
       <c r="I10" t="n">
         <v>31.82</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>32.18</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -777,12 +773,10 @@
       <c r="I11" t="n">
         <v>31.82</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -816,10 +810,12 @@
       <c r="I12" t="n">
         <v>31.82</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>31.82</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -855,10 +851,12 @@
       <c r="I13" t="n">
         <v>32.2</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>31.82</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -894,12 +892,10 @@
       <c r="I14" t="n">
         <v>32.19</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -933,10 +929,12 @@
       <c r="I15" t="n">
         <v>32.19</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>32.19</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -972,10 +970,12 @@
       <c r="I16" t="n">
         <v>32.13</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>32.19</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1011,12 +1011,10 @@
       <c r="I17" t="n">
         <v>32.19</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="n">
+        <v>32.19</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1045,15 +1043,15 @@
         <v>85242.86189999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>32.19</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1084,15 +1082,15 @@
         <v>96584.05169999998</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>32.51</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>32.19</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1127,11 +1125,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1164,11 +1158,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1201,11 +1191,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1238,11 +1224,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1271,17 +1253,11 @@
         <v>100964.6317</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>32.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1314,11 +1290,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1351,11 +1323,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1388,11 +1356,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1425,11 +1389,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1462,11 +1422,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1499,11 +1455,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1536,11 +1488,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1569,17 +1517,11 @@
         <v>105463.9555</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>32.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1608,17 +1550,11 @@
         <v>104739.2474</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>32.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1647,17 +1583,11 @@
         <v>100925.2469</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>32.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1686,17 +1616,11 @@
         <v>105225.2469</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>32.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1729,11 +1653,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1766,11 +1686,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1803,11 +1719,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1840,11 +1752,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1877,11 +1785,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1914,11 +1818,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1951,11 +1851,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1988,11 +1884,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2025,11 +1917,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2062,11 +1950,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2095,15 +1979,11 @@
         <v>114250.4478</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2136,11 +2016,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2169,15 +2045,11 @@
         <v>113533.7516</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2210,11 +2082,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2243,15 +2111,11 @@
         <v>118990.323</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2280,15 +2144,11 @@
         <v>118990.323</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2317,15 +2177,11 @@
         <v>119090.323</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2354,15 +2210,11 @@
         <v>119090.323</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2391,15 +2243,11 @@
         <v>128536.5712</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2428,15 +2276,11 @@
         <v>101651.0876</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2469,11 +2313,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2506,11 +2346,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2543,11 +2379,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2580,11 +2412,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2617,11 +2445,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2654,11 +2478,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2691,11 +2511,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2544,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2765,11 +2577,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2802,11 +2610,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2839,11 +2643,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2876,11 +2676,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2913,11 +2709,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2950,11 +2742,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2987,11 +2775,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3024,11 +2808,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3061,11 +2841,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3098,11 +2874,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3135,11 +2907,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3172,11 +2940,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3209,11 +2973,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3246,11 +3006,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3283,11 +3039,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3320,11 +3072,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3357,11 +3105,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3394,11 +3138,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3431,11 +3171,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3468,11 +3204,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3505,11 +3237,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3542,11 +3270,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3579,11 +3303,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3616,11 +3336,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3653,11 +3369,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3690,11 +3402,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3727,11 +3435,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3764,11 +3468,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3801,11 +3501,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3838,11 +3534,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3875,11 +3567,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3912,11 +3600,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +3633,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3986,11 +3666,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4023,11 +3699,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4060,11 +3732,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4097,11 +3765,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4134,11 +3798,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4171,11 +3831,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4208,11 +3864,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4245,11 +3897,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4282,11 +3930,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4319,11 +3963,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4356,11 +3996,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4393,11 +4029,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4430,11 +4062,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4467,11 +4095,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4504,11 +4128,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4541,11 +4161,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4578,11 +4194,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4615,11 +4227,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4652,11 +4260,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4689,11 +4293,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4726,11 +4326,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4763,11 +4359,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4800,11 +4392,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4837,11 +4425,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4874,11 +4458,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4911,11 +4491,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4948,11 +4524,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4985,11 +4557,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5022,11 +4590,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5059,11 +4623,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5096,11 +4656,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5133,11 +4689,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +4722,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5207,11 +4755,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5244,11 +4788,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5281,11 +4821,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5318,11 +4854,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5355,11 +4887,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5392,11 +4920,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5429,11 +4953,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5466,11 +4986,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5503,11 +5019,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5540,11 +5052,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5577,11 +5085,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5614,11 +5118,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5651,11 +5151,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5688,11 +5184,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5725,11 +5217,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5762,11 +5250,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5799,11 +5283,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5832,16 +5312,14 @@
         <v>469031.9579757226</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
       <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -5900,7 +5378,7 @@
         <v>462602.2235757226</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5933,7 +5411,7 @@
         <v>461181.6287757226</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5966,7 +5444,7 @@
         <v>468681.6287757226</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5999,7 +5477,7 @@
         <v>468681.6287757226</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6032,7 +5510,7 @@
         <v>468681.6287757226</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6065,7 +5543,7 @@
         <v>468681.6287757226</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6131,7 +5609,7 @@
         <v>479801.9648757226</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6164,7 +5642,7 @@
         <v>507601.9648757226</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6197,7 +5675,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6230,7 +5708,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6263,7 +5741,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6296,7 +5774,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6329,7 +5807,7 @@
         <v>517788.5901185797</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6362,7 +5840,7 @@
         <v>512108.5901185797</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6395,7 +5873,7 @@
         <v>512108.5901185797</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6428,7 +5906,7 @@
         <v>512108.5901185797</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6461,7 +5939,7 @@
         <v>510015.2380185797</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6494,7 +5972,7 @@
         <v>508134.7306185797</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6527,7 +6005,7 @@
         <v>520034.7306185797</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6560,7 +6038,7 @@
         <v>518980.1221185797</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6593,7 +6071,7 @@
         <v>519476.0217185798</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6626,7 +6104,7 @@
         <v>532690.8255185798</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6659,7 +6137,7 @@
         <v>542561.5222185798</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6692,7 +6170,7 @@
         <v>542561.5222185798</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6725,7 +6203,7 @@
         <v>542626.4184185797</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6758,7 +6236,7 @@
         <v>540626.4184185797</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6791,7 +6269,7 @@
         <v>540626.4184185797</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6824,7 +6302,7 @@
         <v>519573.0669185797</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6857,7 +6335,7 @@
         <v>519820.8035185797</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6890,7 +6368,7 @@
         <v>518830.8035185797</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7154,7 +6632,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7187,7 +6665,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7220,7 +6698,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7253,7 +6731,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7264,6 +6742,6 @@
       <c r="M190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest GNT.xlsx
+++ b/BackTest/2020-01-16 BackTest GNT.xlsx
@@ -451,7 +451,7 @@
         <v>34347.2066</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>33505.69089999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="J3" t="n">
+        <v>32.49</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>33505.69089999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>32505.69089999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>26979.16189999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>26979.16189999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -655,9 +691,13 @@
         <v>32.18</v>
       </c>
       <c r="J8" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>32.49</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -692,11 +732,11 @@
         <v>31.91</v>
       </c>
       <c r="J9" t="n">
-        <v>32.18</v>
+        <v>32.49</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -733,11 +773,11 @@
         <v>31.82</v>
       </c>
       <c r="J10" t="n">
-        <v>32.18</v>
+        <v>32.49</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -774,9 +814,13 @@
         <v>31.82</v>
       </c>
       <c r="J11" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>32.49</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -811,11 +855,11 @@
         <v>31.82</v>
       </c>
       <c r="J12" t="n">
-        <v>31.82</v>
+        <v>32.49</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -852,11 +896,11 @@
         <v>32.2</v>
       </c>
       <c r="J13" t="n">
-        <v>31.82</v>
+        <v>32.49</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -893,9 +937,13 @@
         <v>32.19</v>
       </c>
       <c r="J14" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>32.49</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -930,11 +978,11 @@
         <v>32.19</v>
       </c>
       <c r="J15" t="n">
-        <v>32.19</v>
+        <v>32.49</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -971,11 +1019,11 @@
         <v>32.13</v>
       </c>
       <c r="J16" t="n">
-        <v>32.19</v>
+        <v>32.49</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1012,9 +1060,13 @@
         <v>32.19</v>
       </c>
       <c r="J17" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>32.49</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1043,15 +1095,17 @@
         <v>85242.86189999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>32.3</v>
+      </c>
       <c r="J18" t="n">
-        <v>32.19</v>
+        <v>32.49</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1086,11 +1140,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>32.19</v>
+        <v>32.49</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1124,8 +1178,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1157,8 +1217,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1190,8 +1256,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1223,8 +1295,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1256,8 +1334,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1289,8 +1373,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1322,8 +1412,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1355,8 +1451,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1388,8 +1490,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1421,8 +1529,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1454,8 +1568,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1487,8 +1607,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1520,8 +1646,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1553,8 +1685,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1586,8 +1724,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1619,8 +1763,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1652,8 +1802,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1685,8 +1841,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1718,8 +1880,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1751,8 +1919,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1784,8 +1958,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1817,8 +1997,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1850,8 +2036,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1883,8 +2075,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1916,8 +2114,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1949,8 +2153,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1979,11 +2189,17 @@
         <v>114250.4478</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2015,8 +2231,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2045,11 +2267,17 @@
         <v>113533.7516</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2081,8 +2309,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2111,11 +2345,17 @@
         <v>118990.323</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2144,11 +2384,17 @@
         <v>118990.323</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2177,11 +2423,17 @@
         <v>119090.323</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2210,11 +2462,17 @@
         <v>119090.323</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2243,11 +2501,17 @@
         <v>128536.5712</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2276,11 +2540,17 @@
         <v>101651.0876</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2312,8 +2582,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2345,8 +2621,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2378,8 +2660,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2411,8 +2699,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2444,8 +2738,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2477,8 +2777,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2510,8 +2816,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2543,8 +2855,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2576,8 +2894,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2609,8 +2933,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2642,8 +2972,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2675,8 +3011,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2708,8 +3050,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2741,8 +3089,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2774,8 +3128,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2807,8 +3167,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2840,8 +3206,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2873,8 +3245,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2906,8 +3284,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2939,8 +3323,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2972,8 +3362,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3005,8 +3401,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3038,8 +3440,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3071,8 +3479,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3104,8 +3518,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3137,8 +3557,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3170,8 +3596,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3203,8 +3635,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3236,8 +3674,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3269,8 +3713,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3302,8 +3752,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3335,8 +3791,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3368,8 +3830,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3401,8 +3869,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3434,8 +3908,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3467,8 +3947,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3500,8 +3986,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3533,8 +4025,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3566,8 +4064,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3599,8 +4103,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3632,8 +4142,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3665,8 +4181,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3698,8 +4220,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3731,8 +4259,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3764,8 +4298,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3797,8 +4337,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3830,8 +4376,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3863,8 +4415,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3896,8 +4454,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3929,8 +4493,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3962,8 +4532,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3995,8 +4571,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4028,8 +4610,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4061,8 +4649,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4094,8 +4688,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4127,8 +4727,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4160,8 +4766,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4193,8 +4805,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4226,8 +4844,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4259,8 +4883,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4292,8 +4922,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4325,8 +4961,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4358,8 +5000,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4391,8 +5039,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4424,8 +5078,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4457,8 +5117,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4490,8 +5156,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4523,8 +5195,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4556,8 +5234,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4589,8 +5273,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4622,8 +5312,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4655,8 +5351,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4688,8 +5390,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4721,8 +5429,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4754,8 +5468,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4787,8 +5507,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4820,8 +5546,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4853,8 +5585,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4886,8 +5624,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4919,8 +5663,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4952,8 +5702,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4985,8 +5741,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5018,8 +5780,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5051,8 +5819,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5084,8 +5858,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5117,8 +5897,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5150,8 +5936,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5183,8 +5975,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5216,8 +6014,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5249,8 +6053,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5282,8 +6092,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5315,8 +6131,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5348,8 +6170,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5381,8 +6209,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5414,8 +6248,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5447,8 +6287,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5480,8 +6326,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5513,8 +6365,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5546,8 +6404,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5579,8 +6443,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5612,8 +6482,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5645,8 +6521,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5675,15 +6557,23 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>1.072254539858418</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1.009006211180124</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5708,7 +6598,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5741,7 +6631,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5774,7 +6664,7 @@
         <v>504051.9648757226</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5807,7 +6697,7 @@
         <v>517788.5901185797</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6005,7 +6895,7 @@
         <v>520034.7306185797</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6038,7 +6928,7 @@
         <v>518980.1221185797</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6071,7 +6961,7 @@
         <v>519476.0217185798</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6104,7 +6994,7 @@
         <v>532690.8255185798</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6137,7 +7027,7 @@
         <v>542561.5222185798</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6170,7 +7060,7 @@
         <v>542561.5222185798</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6203,7 +7093,7 @@
         <v>542626.4184185797</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6236,7 +7126,7 @@
         <v>540626.4184185797</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6269,7 +7159,7 @@
         <v>540626.4184185797</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6302,7 +7192,7 @@
         <v>519573.0669185797</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6335,7 +7225,7 @@
         <v>519820.8035185797</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6368,7 +7258,7 @@
         <v>518830.8035185797</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6401,7 +7291,7 @@
         <v>520474.2965185798</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6434,7 +7324,7 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6467,7 +7357,7 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6500,7 +7390,7 @@
         <v>520341.4960185798</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6533,7 +7423,7 @@
         <v>522341.4960185798</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6566,7 +7456,7 @@
         <v>532341.4960185797</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6599,7 +7489,7 @@
         <v>532301.4960185797</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6632,7 +7522,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6665,7 +7555,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6698,7 +7588,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6731,7 +7621,7 @@
         <v>543744.3055185797</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest GNT.xlsx
+++ b/BackTest/2020-01-16 BackTest GNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:L190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>7751.4276</v>
       </c>
       <c r="G2" t="n">
-        <v>34347.2066</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>841.5157</v>
       </c>
       <c r="G3" t="n">
-        <v>33505.69089999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="J3" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,19 @@
         <v>2238.3715</v>
       </c>
       <c r="G4" t="n">
-        <v>33505.69089999999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>32.3</v>
       </c>
       <c r="I4" t="n">
         <v>32.3</v>
       </c>
-      <c r="J4" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +537,23 @@
         <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>32505.69089999999</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>32.3</v>
       </c>
       <c r="I5" t="n">
         <v>32.3</v>
       </c>
-      <c r="J5" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +575,23 @@
         <v>5526.529</v>
       </c>
       <c r="G6" t="n">
-        <v>26979.16189999999</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>32.2</v>
       </c>
       <c r="I6" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K6" t="inlineStr">
+        <v>32.3</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +613,23 @@
         <v>3662.4425</v>
       </c>
       <c r="G7" t="n">
-        <v>26979.16189999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>32.18</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>32.3</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +651,23 @@
         <v>250</v>
       </c>
       <c r="G8" t="n">
-        <v>26729.16189999999</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>32.18</v>
       </c>
       <c r="I8" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="J8" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>32.3</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +689,23 @@
         <v>2095.0721</v>
       </c>
       <c r="G9" t="n">
-        <v>24634.08979999999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>31.91</v>
       </c>
       <c r="I9" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="J9" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>32.3</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +727,23 @@
         <v>646</v>
       </c>
       <c r="G10" t="n">
-        <v>24634.08979999999</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>31.82</v>
       </c>
       <c r="I10" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="J10" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>32.3</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +765,23 @@
         <v>0.4884</v>
       </c>
       <c r="G11" t="n">
-        <v>24634.08979999999</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>31.82</v>
       </c>
       <c r="I11" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="J11" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>32.3</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +803,23 @@
         <v>393.0324</v>
       </c>
       <c r="G12" t="n">
-        <v>25027.12219999999</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>31.82</v>
       </c>
       <c r="I12" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="J12" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>32.3</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +841,23 @@
         <v>11978.1735</v>
       </c>
       <c r="G13" t="n">
-        <v>13048.94869999999</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>32.2</v>
       </c>
       <c r="I13" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>32.3</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,26 +879,23 @@
         <v>2842.4581</v>
       </c>
       <c r="G14" t="n">
-        <v>13048.94869999999</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>32.19</v>
       </c>
       <c r="I14" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="J14" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>32.3</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -969,26 +917,23 @@
         <v>4611.8663</v>
       </c>
       <c r="G15" t="n">
-        <v>8437.08239999999</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>32.19</v>
       </c>
       <c r="I15" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="J15" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>32.3</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1010,26 +955,23 @@
         <v>0.0001</v>
       </c>
       <c r="G16" t="n">
-        <v>8437.08249999999</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>32.13</v>
       </c>
       <c r="I16" t="n">
-        <v>32.13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>32.3</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1051,26 +993,23 @@
         <v>4966.7654</v>
       </c>
       <c r="G17" t="n">
-        <v>13403.84789999999</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>32.19</v>
       </c>
       <c r="I17" t="n">
-        <v>32.19</v>
-      </c>
-      <c r="J17" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>32.3</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,26 +1031,23 @@
         <v>71839.014</v>
       </c>
       <c r="G18" t="n">
-        <v>85242.86189999999</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>32.3</v>
       </c>
       <c r="I18" t="n">
         <v>32.3</v>
       </c>
-      <c r="J18" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1133,24 +1069,23 @@
         <v>11341.1898</v>
       </c>
       <c r="G19" t="n">
-        <v>96584.05169999998</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>32.51</v>
+      </c>
+      <c r="I19" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1172,24 +1107,21 @@
         <v>1050.1507</v>
       </c>
       <c r="G20" t="n">
-        <v>95533.90099999998</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1211,24 +1143,23 @@
         <v>19.9489</v>
       </c>
       <c r="G21" t="n">
-        <v>95553.84989999999</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>32.42</v>
+      </c>
+      <c r="I21" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1250,24 +1181,21 @@
         <v>2088.1771</v>
       </c>
       <c r="G22" t="n">
-        <v>93465.67279999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1289,24 +1217,21 @@
         <v>3019.3747</v>
       </c>
       <c r="G23" t="n">
-        <v>96485.04749999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1328,24 +1253,21 @@
         <v>4479.5842</v>
       </c>
       <c r="G24" t="n">
-        <v>100964.6317</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1367,24 +1289,21 @@
         <v>1024.9709</v>
       </c>
       <c r="G25" t="n">
-        <v>99939.66079999998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1406,24 +1325,21 @@
         <v>2434.1785</v>
       </c>
       <c r="G26" t="n">
-        <v>102373.8393</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1445,24 +1361,21 @@
         <v>2920.9158</v>
       </c>
       <c r="G27" t="n">
-        <v>105294.7551</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1484,24 +1397,21 @@
         <v>1636.3287</v>
       </c>
       <c r="G28" t="n">
-        <v>103658.4264</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1523,24 +1433,21 @@
         <v>769.5652</v>
       </c>
       <c r="G29" t="n">
-        <v>102888.8612</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1562,24 +1469,21 @@
         <v>5355.0943</v>
       </c>
       <c r="G30" t="n">
-        <v>108243.9555</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1601,24 +1505,21 @@
         <v>1000</v>
       </c>
       <c r="G31" t="n">
-        <v>107243.9555</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1640,24 +1541,21 @@
         <v>1780</v>
       </c>
       <c r="G32" t="n">
-        <v>105463.9555</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1679,24 +1577,21 @@
         <v>724.7080999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>104739.2474</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1718,24 +1613,21 @@
         <v>3814.0005</v>
       </c>
       <c r="G34" t="n">
-        <v>100925.2469</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1757,24 +1649,23 @@
         <v>4300</v>
       </c>
       <c r="G35" t="n">
-        <v>105225.2469</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>32.21</v>
+      </c>
+      <c r="I35" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1796,24 +1687,21 @@
         <v>1247.0339</v>
       </c>
       <c r="G36" t="n">
-        <v>103978.213</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1835,24 +1723,21 @@
         <v>7272.7713</v>
       </c>
       <c r="G37" t="n">
-        <v>96705.4417</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1874,24 +1759,21 @@
         <v>1350.105</v>
       </c>
       <c r="G38" t="n">
-        <v>98055.54669999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1913,24 +1795,21 @@
         <v>1697.5092</v>
       </c>
       <c r="G39" t="n">
-        <v>98055.54669999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1952,24 +1831,21 @@
         <v>11335.2919</v>
       </c>
       <c r="G40" t="n">
-        <v>109390.8386</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1991,24 +1867,21 @@
         <v>124.2209</v>
       </c>
       <c r="G41" t="n">
-        <v>109266.6177</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2030,24 +1903,21 @@
         <v>3329.8935</v>
       </c>
       <c r="G42" t="n">
-        <v>112596.5112</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2069,24 +1939,21 @@
         <v>18999.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>112596.5112</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2108,24 +1975,21 @@
         <v>1653.9366</v>
       </c>
       <c r="G44" t="n">
-        <v>114250.4478</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2147,24 +2011,21 @@
         <v>1245.3736</v>
       </c>
       <c r="G45" t="n">
-        <v>114250.4478</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2186,24 +2047,21 @@
         <v>19411.0317</v>
       </c>
       <c r="G46" t="n">
-        <v>114250.4478</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2225,24 +2083,21 @@
         <v>10000</v>
       </c>
       <c r="G47" t="n">
-        <v>114250.4478</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2264,24 +2119,21 @@
         <v>716.6962</v>
       </c>
       <c r="G48" t="n">
-        <v>113533.7516</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2303,24 +2155,21 @@
         <v>5456.5714</v>
       </c>
       <c r="G49" t="n">
-        <v>118990.323</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2342,24 +2191,21 @@
         <v>69</v>
       </c>
       <c r="G50" t="n">
-        <v>118990.323</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2381,24 +2227,21 @@
         <v>0.1332</v>
       </c>
       <c r="G51" t="n">
-        <v>118990.323</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2420,24 +2263,21 @@
         <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>119090.323</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2459,24 +2299,21 @@
         <v>1136.3877</v>
       </c>
       <c r="G53" t="n">
-        <v>119090.323</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2498,24 +2335,21 @@
         <v>9446.2482</v>
       </c>
       <c r="G54" t="n">
-        <v>128536.5712</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2537,24 +2371,21 @@
         <v>26885.4836</v>
       </c>
       <c r="G55" t="n">
-        <v>101651.0876</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2576,24 +2407,21 @@
         <v>2744.3403</v>
       </c>
       <c r="G56" t="n">
-        <v>104395.4279</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2615,24 +2443,21 @@
         <v>490</v>
       </c>
       <c r="G57" t="n">
-        <v>104885.4279</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2654,24 +2479,21 @@
         <v>7096.3619</v>
       </c>
       <c r="G58" t="n">
-        <v>111981.7898</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2693,24 +2515,21 @@
         <v>2224.0215</v>
       </c>
       <c r="G59" t="n">
-        <v>114205.8113</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2732,24 +2551,21 @@
         <v>561.5267</v>
       </c>
       <c r="G60" t="n">
-        <v>114767.338</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2771,24 +2587,21 @@
         <v>13726</v>
       </c>
       <c r="G61" t="n">
-        <v>128493.338</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2810,24 +2623,21 @@
         <v>3701.6402</v>
       </c>
       <c r="G62" t="n">
-        <v>132194.9782</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2849,24 +2659,21 @@
         <v>987.4121</v>
       </c>
       <c r="G63" t="n">
-        <v>131207.5661</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2888,24 +2695,21 @@
         <v>2203.9658</v>
       </c>
       <c r="G64" t="n">
-        <v>129003.6003</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2927,24 +2731,21 @@
         <v>964.1469</v>
       </c>
       <c r="G65" t="n">
-        <v>128039.4534</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2966,24 +2767,21 @@
         <v>3701.6402</v>
       </c>
       <c r="G66" t="n">
-        <v>124337.8132</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3005,24 +2803,21 @@
         <v>63.7583</v>
       </c>
       <c r="G67" t="n">
-        <v>124274.0549</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3044,24 +2839,21 @@
         <v>1435.4015</v>
       </c>
       <c r="G68" t="n">
-        <v>122838.6534</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3083,24 +2875,21 @@
         <v>6340</v>
       </c>
       <c r="G69" t="n">
-        <v>129178.6534</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3122,24 +2911,21 @@
         <v>790.7968</v>
       </c>
       <c r="G70" t="n">
-        <v>128387.8566</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3161,24 +2947,21 @@
         <v>2286.2017</v>
       </c>
       <c r="G71" t="n">
-        <v>130674.0583</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3200,24 +2983,21 @@
         <v>6955.5176</v>
       </c>
       <c r="G72" t="n">
-        <v>137629.5759</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3239,24 +3019,21 @@
         <v>2300.5116</v>
       </c>
       <c r="G73" t="n">
-        <v>137629.5759</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3278,24 +3055,21 @@
         <v>4500</v>
       </c>
       <c r="G74" t="n">
-        <v>133129.5759</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3317,24 +3091,21 @@
         <v>500</v>
       </c>
       <c r="G75" t="n">
-        <v>133129.5759</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3356,24 +3127,21 @@
         <v>2140</v>
       </c>
       <c r="G76" t="n">
-        <v>135269.5759</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3395,24 +3163,21 @@
         <v>89.59537572254335</v>
       </c>
       <c r="G77" t="n">
-        <v>135359.1712757226</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3434,24 +3199,21 @@
         <v>5399.1617</v>
       </c>
       <c r="G78" t="n">
-        <v>135359.1712757226</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3473,24 +3235,21 @@
         <v>1472.592024277457</v>
       </c>
       <c r="G79" t="n">
-        <v>135359.1712757226</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3512,24 +3271,21 @@
         <v>1048.6122</v>
       </c>
       <c r="G80" t="n">
-        <v>134310.5590757226</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3551,24 +3307,21 @@
         <v>1226.2111</v>
       </c>
       <c r="G81" t="n">
-        <v>133084.3479757226</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3590,24 +3343,21 @@
         <v>552.1739</v>
       </c>
       <c r="G82" t="n">
-        <v>132532.1740757226</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3629,24 +3379,21 @@
         <v>699.862</v>
       </c>
       <c r="G83" t="n">
-        <v>131832.3120757226</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3668,24 +3415,21 @@
         <v>2989.1303</v>
       </c>
       <c r="G84" t="n">
-        <v>134821.4423757226</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3707,24 +3451,21 @@
         <v>1684.6478</v>
       </c>
       <c r="G85" t="n">
-        <v>136506.0901757226</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3746,24 +3487,21 @@
         <v>649.1304</v>
       </c>
       <c r="G86" t="n">
-        <v>137155.2205757226</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3785,24 +3523,21 @@
         <v>1508.0117</v>
       </c>
       <c r="G87" t="n">
-        <v>138663.2322757226</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3824,24 +3559,21 @@
         <v>303.1533</v>
       </c>
       <c r="G88" t="n">
-        <v>138360.0789757226</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3863,24 +3595,21 @@
         <v>1789.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>140150.0788757226</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3902,24 +3631,21 @@
         <v>3118.3355</v>
       </c>
       <c r="G90" t="n">
-        <v>140150.0788757226</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3941,24 +3667,21 @@
         <v>881.6645</v>
       </c>
       <c r="G91" t="n">
-        <v>140150.0788757226</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3980,24 +3703,21 @@
         <v>724.814</v>
       </c>
       <c r="G92" t="n">
-        <v>139425.2648757226</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4019,24 +3739,21 @@
         <v>3594.6</v>
       </c>
       <c r="G93" t="n">
-        <v>135830.6648757225</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4058,24 +3775,21 @@
         <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>135730.6648757225</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4097,24 +3811,21 @@
         <v>4000.3998</v>
       </c>
       <c r="G95" t="n">
-        <v>139731.0646757226</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4136,24 +3847,21 @@
         <v>2386.5563</v>
       </c>
       <c r="G96" t="n">
-        <v>142117.6209757226</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4175,24 +3883,21 @@
         <v>7465.2395</v>
       </c>
       <c r="G97" t="n">
-        <v>142117.6209757226</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4214,24 +3919,21 @@
         <v>19034.4849</v>
       </c>
       <c r="G98" t="n">
-        <v>161152.1058757226</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4253,24 +3955,21 @@
         <v>30287.2787</v>
       </c>
       <c r="G99" t="n">
-        <v>191439.3845757226</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4292,24 +3991,21 @@
         <v>5841.787</v>
       </c>
       <c r="G100" t="n">
-        <v>197281.1715757226</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4331,24 +4027,21 @@
         <v>576.692</v>
       </c>
       <c r="G101" t="n">
-        <v>196704.4795757226</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4370,24 +4063,21 @@
         <v>42592.4095</v>
       </c>
       <c r="G102" t="n">
-        <v>239296.8890757226</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4409,24 +4099,21 @@
         <v>1245.9788</v>
       </c>
       <c r="G103" t="n">
-        <v>238050.9102757226</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4448,24 +4135,21 @@
         <v>795.0821</v>
       </c>
       <c r="G104" t="n">
-        <v>238845.9923757226</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4487,24 +4171,21 @@
         <v>1315.876</v>
       </c>
       <c r="G105" t="n">
-        <v>238845.9923757226</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4526,24 +4207,21 @@
         <v>658.228</v>
       </c>
       <c r="G106" t="n">
-        <v>238187.7643757226</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4565,24 +4243,21 @@
         <v>11431.8627</v>
       </c>
       <c r="G107" t="n">
-        <v>238187.7643757226</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4604,24 +4279,21 @@
         <v>7965.3591</v>
       </c>
       <c r="G108" t="n">
-        <v>238187.7643757226</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4643,24 +4315,21 @@
         <v>3289.1459</v>
       </c>
       <c r="G109" t="n">
-        <v>234898.6184757226</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4682,24 +4351,21 @@
         <v>2706.812</v>
       </c>
       <c r="G110" t="n">
-        <v>237605.4304757226</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4721,24 +4387,21 @@
         <v>5316.3449</v>
       </c>
       <c r="G111" t="n">
-        <v>237605.4304757226</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4760,24 +4423,21 @@
         <v>1219.3658</v>
       </c>
       <c r="G112" t="n">
-        <v>237605.4304757226</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4799,24 +4459,21 @@
         <v>10804.4919</v>
       </c>
       <c r="G113" t="n">
-        <v>248409.9223757226</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4838,24 +4495,21 @@
         <v>7000</v>
       </c>
       <c r="G114" t="n">
-        <v>248409.9223757226</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4877,24 +4531,21 @@
         <v>140.669</v>
       </c>
       <c r="G115" t="n">
-        <v>248269.2533757226</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4916,24 +4567,21 @@
         <v>8920.718000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>239348.5353757226</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4955,24 +4603,21 @@
         <v>1770</v>
       </c>
       <c r="G117" t="n">
-        <v>241118.5353757226</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4994,24 +4639,21 @@
         <v>10224.1671</v>
       </c>
       <c r="G118" t="n">
-        <v>251342.7024757226</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5033,24 +4675,21 @@
         <v>7850.3551</v>
       </c>
       <c r="G119" t="n">
-        <v>251342.7024757226</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5072,24 +4711,21 @@
         <v>989.2967</v>
       </c>
       <c r="G120" t="n">
-        <v>251342.7024757226</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5111,24 +4747,21 @@
         <v>2420.0137</v>
       </c>
       <c r="G121" t="n">
-        <v>253762.7161757226</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5150,24 +4783,21 @@
         <v>65.99890000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>253762.7161757226</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5189,24 +4819,21 @@
         <v>490.759</v>
       </c>
       <c r="G123" t="n">
-        <v>253271.9571757226</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5228,24 +4855,21 @@
         <v>8913.1252</v>
       </c>
       <c r="G124" t="n">
-        <v>262185.0823757226</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5267,24 +4891,21 @@
         <v>21.1693</v>
       </c>
       <c r="G125" t="n">
-        <v>262185.0823757226</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5306,24 +4927,21 @@
         <v>8934.2945</v>
       </c>
       <c r="G126" t="n">
-        <v>253250.7878757226</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5345,24 +4963,21 @@
         <v>35.946</v>
       </c>
       <c r="G127" t="n">
-        <v>253214.8418757226</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5384,24 +4999,21 @@
         <v>36147.5886</v>
       </c>
       <c r="G128" t="n">
-        <v>217067.2532757226</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5423,24 +5035,21 @@
         <v>3293.496</v>
       </c>
       <c r="G129" t="n">
-        <v>220360.7492757226</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5462,24 +5071,21 @@
         <v>10804.4919</v>
       </c>
       <c r="G130" t="n">
-        <v>209556.2573757226</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5501,24 +5107,21 @@
         <v>1176.3529</v>
       </c>
       <c r="G131" t="n">
-        <v>210732.6102757226</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5540,24 +5143,21 @@
         <v>5084.0191</v>
       </c>
       <c r="G132" t="n">
-        <v>205648.5911757226</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5579,24 +5179,21 @@
         <v>2316.2197</v>
       </c>
       <c r="G133" t="n">
-        <v>207964.8108757226</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5618,24 +5215,21 @@
         <v>1300</v>
       </c>
       <c r="G134" t="n">
-        <v>207964.8108757226</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5657,24 +5251,21 @@
         <v>3993</v>
       </c>
       <c r="G135" t="n">
-        <v>211957.8108757226</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5696,24 +5287,21 @@
         <v>2914.5743</v>
       </c>
       <c r="G136" t="n">
-        <v>211957.8108757226</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5735,24 +5323,21 @@
         <v>1219.3658</v>
       </c>
       <c r="G137" t="n">
-        <v>211957.8108757226</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5774,24 +5359,21 @@
         <v>3129.7222</v>
       </c>
       <c r="G138" t="n">
-        <v>211957.8108757226</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5813,24 +5395,21 @@
         <v>44623.473</v>
       </c>
       <c r="G139" t="n">
-        <v>256581.2838757226</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5852,24 +5431,21 @@
         <v>5892.7678</v>
       </c>
       <c r="G140" t="n">
-        <v>256581.2838757226</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5891,24 +5467,21 @@
         <v>499.0501</v>
       </c>
       <c r="G141" t="n">
-        <v>256581.2838757226</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5930,24 +5503,21 @@
         <v>7965.4372</v>
       </c>
       <c r="G142" t="n">
-        <v>256581.2838757226</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5969,24 +5539,21 @@
         <v>2302.6908</v>
       </c>
       <c r="G143" t="n">
-        <v>256581.2838757226</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6008,24 +5575,21 @@
         <v>1342.9289</v>
       </c>
       <c r="G144" t="n">
-        <v>256581.2838757226</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6047,24 +5611,21 @@
         <v>7437.7455</v>
       </c>
       <c r="G145" t="n">
-        <v>264019.0293757226</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6086,24 +5647,21 @@
         <v>205012.9286</v>
       </c>
       <c r="G146" t="n">
-        <v>469031.9579757226</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6125,24 +5683,21 @@
         <v>6100</v>
       </c>
       <c r="G147" t="n">
-        <v>469031.9579757226</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6164,24 +5719,21 @@
         <v>1247.648</v>
       </c>
       <c r="G148" t="n">
-        <v>470279.6059757226</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6203,24 +5755,21 @@
         <v>7677.3824</v>
       </c>
       <c r="G149" t="n">
-        <v>462602.2235757226</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6242,24 +5791,21 @@
         <v>1420.5948</v>
       </c>
       <c r="G150" t="n">
-        <v>461181.6287757226</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6281,24 +5827,21 @@
         <v>7500</v>
       </c>
       <c r="G151" t="n">
-        <v>468681.6287757226</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6320,24 +5863,21 @@
         <v>15926.7722</v>
       </c>
       <c r="G152" t="n">
-        <v>468681.6287757226</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6359,24 +5899,21 @@
         <v>3851.5653</v>
       </c>
       <c r="G153" t="n">
-        <v>468681.6287757226</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6398,24 +5935,21 @@
         <v>0.0001</v>
       </c>
       <c r="G154" t="n">
-        <v>468681.6287757226</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6437,24 +5971,21 @@
         <v>10000</v>
       </c>
       <c r="G155" t="n">
-        <v>478681.6287757226</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6476,24 +6007,21 @@
         <v>1120.3361</v>
       </c>
       <c r="G156" t="n">
-        <v>479801.9648757226</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6515,24 +6043,21 @@
         <v>27800</v>
       </c>
       <c r="G157" t="n">
-        <v>507601.9648757226</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6554,24 +6079,21 @@
         <v>3550</v>
       </c>
       <c r="G158" t="n">
-        <v>504051.9648757226</v>
-      </c>
-      <c r="H158" t="n">
         <v>2</v>
       </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="K158" t="inlineStr">
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J158" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="K158" t="n">
+        <v>1.07859133126935</v>
+      </c>
       <c r="L158" t="n">
-        <v>1.072254539858418</v>
-      </c>
-      <c r="M158" t="n">
         <v>1.009006211180124</v>
       </c>
     </row>
@@ -6595,18 +6117,15 @@
         <v>857.1428571428571</v>
       </c>
       <c r="G159" t="n">
-        <v>504051.9648757226</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6628,18 +6147,15 @@
         <v>3588.1177</v>
       </c>
       <c r="G160" t="n">
-        <v>504051.9648757226</v>
-      </c>
-      <c r="H160" t="n">
         <v>2</v>
       </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6661,18 +6177,15 @@
         <v>1655.4966</v>
       </c>
       <c r="G161" t="n">
-        <v>504051.9648757226</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6694,18 +6207,15 @@
         <v>13736.62524285714</v>
       </c>
       <c r="G162" t="n">
-        <v>517788.5901185797</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6727,18 +6237,15 @@
         <v>5680</v>
       </c>
       <c r="G163" t="n">
-        <v>512108.5901185797</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6760,18 +6267,15 @@
         <v>1978.3825</v>
       </c>
       <c r="G164" t="n">
-        <v>512108.5901185797</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6793,18 +6297,15 @@
         <v>18818.6208</v>
       </c>
       <c r="G165" t="n">
-        <v>512108.5901185797</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6826,18 +6327,15 @@
         <v>2093.3521</v>
       </c>
       <c r="G166" t="n">
-        <v>510015.2380185797</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6859,18 +6357,15 @@
         <v>1880.5074</v>
       </c>
       <c r="G167" t="n">
-        <v>508134.7306185797</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6892,18 +6387,15 @@
         <v>11900</v>
       </c>
       <c r="G168" t="n">
-        <v>520034.7306185797</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6925,18 +6417,15 @@
         <v>1054.6085</v>
       </c>
       <c r="G169" t="n">
-        <v>518980.1221185797</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6958,18 +6447,15 @@
         <v>495.8996</v>
       </c>
       <c r="G170" t="n">
-        <v>519476.0217185798</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6991,18 +6477,15 @@
         <v>13214.8038</v>
       </c>
       <c r="G171" t="n">
-        <v>532690.8255185798</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7024,18 +6507,15 @@
         <v>9870.6967</v>
       </c>
       <c r="G172" t="n">
-        <v>542561.5222185798</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7057,18 +6537,15 @@
         <v>15549.3515</v>
       </c>
       <c r="G173" t="n">
-        <v>542561.5222185798</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7090,18 +6567,15 @@
         <v>64.89619999999999</v>
       </c>
       <c r="G174" t="n">
-        <v>542626.4184185797</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7123,18 +6597,15 @@
         <v>2000</v>
       </c>
       <c r="G175" t="n">
-        <v>540626.4184185797</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7156,18 +6627,15 @@
         <v>3504</v>
       </c>
       <c r="G176" t="n">
-        <v>540626.4184185797</v>
-      </c>
-      <c r="H176" t="n">
         <v>2</v>
       </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7189,18 +6657,15 @@
         <v>21053.3515</v>
       </c>
       <c r="G177" t="n">
-        <v>519573.0669185797</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7222,18 +6687,15 @@
         <v>247.7366</v>
       </c>
       <c r="G178" t="n">
-        <v>519820.8035185797</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7255,18 +6717,15 @@
         <v>990</v>
       </c>
       <c r="G179" t="n">
-        <v>518830.8035185797</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7288,18 +6747,15 @@
         <v>1643.493</v>
       </c>
       <c r="G180" t="n">
-        <v>520474.2965185798</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7321,18 +6777,15 @@
         <v>132.8005</v>
       </c>
       <c r="G181" t="n">
-        <v>520341.4960185798</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7354,18 +6807,15 @@
         <v>1090</v>
       </c>
       <c r="G182" t="n">
-        <v>520341.4960185798</v>
-      </c>
-      <c r="H182" t="n">
         <v>2</v>
       </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7387,18 +6837,15 @@
         <v>34.6749</v>
       </c>
       <c r="G183" t="n">
-        <v>520341.4960185798</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7420,18 +6867,15 @@
         <v>2000</v>
       </c>
       <c r="G184" t="n">
-        <v>522341.4960185798</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7453,18 +6897,15 @@
         <v>10000</v>
       </c>
       <c r="G185" t="n">
-        <v>532341.4960185797</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7486,18 +6927,15 @@
         <v>40</v>
       </c>
       <c r="G186" t="n">
-        <v>532301.4960185797</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7519,18 +6957,15 @@
         <v>11442.8095</v>
       </c>
       <c r="G187" t="n">
-        <v>543744.3055185797</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7552,18 +6987,15 @@
         <v>3092.6702</v>
       </c>
       <c r="G188" t="n">
-        <v>543744.3055185797</v>
-      </c>
-      <c r="H188" t="n">
         <v>2</v>
       </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7585,18 +7017,15 @@
         <v>3081.7939</v>
       </c>
       <c r="G189" t="n">
-        <v>543744.3055185797</v>
-      </c>
-      <c r="H189" t="n">
         <v>2</v>
       </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7618,18 +7047,15 @@
         <v>10931.09330391267</v>
       </c>
       <c r="G190" t="n">
-        <v>543744.3055185797</v>
-      </c>
-      <c r="H190" t="n">
         <v>2</v>
       </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
